--- a/설계/DB/어류 데이터베이스.xlsx
+++ b/설계/DB/어류 데이터베이스.xlsx
@@ -8,15 +8,16 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\FishDic\설계\DB\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A5276C25-8894-4913-A519-C0406E1E9079}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4906D9A4-E4F7-47A0-93AE-464FEF2A57EB}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="11235" yWindow="1200" windowWidth="17490" windowHeight="13005" xr2:uid="{452F07AA-5EAA-4817-B43C-48B61E7F79A8}"/>
+    <workbookView xWindow="16095" yWindow="1200" windowWidth="12630" windowHeight="13005" xr2:uid="{452F07AA-5EAA-4817-B43C-48B61E7F79A8}"/>
   </bookViews>
   <sheets>
     <sheet name="어류 테이블" sheetId="1" r:id="rId1"/>
-    <sheet name="금어기 테이블" sheetId="2" r:id="rId2"/>
-    <sheet name="특별 금지구역 관계 테이블" sheetId="3" r:id="rId3"/>
-    <sheet name="특별 금지구역 테이블" sheetId="4" r:id="rId4"/>
+    <sheet name="생물분류 테이블" sheetId="5" r:id="rId2"/>
+    <sheet name="금어기 테이블" sheetId="2" r:id="rId3"/>
+    <sheet name="특별 금지구역 관계 테이블" sheetId="3" r:id="rId4"/>
+    <sheet name="특별 금지구역 테이블" sheetId="4" r:id="rId5"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -36,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="102" uniqueCount="100">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="196" uniqueCount="171">
   <si>
     <t>이름(국명)</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -357,13 +358,234 @@
   <si>
     <t>태평양 서부(한국, 일본, 쿠릴열도, 동중국해, 남중국해)</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Arctoscopus japonicus</t>
+  </si>
+  <si>
+    <t>몸은 측편형으로 제1등지느러미 가운데 부분에서 체고가 가장 높다. 머리는 작고 몸과의 경계지점이 부드럽다. 아래턱이 위턱보다 돌출되어 있으며, 입은 심하게 경사져 있다. 양턱에는 매우 작은 이빨이 1줄로 나있으며 두개골에도 융모치가 띠를 형성한다. 눈은 비교적 크며, 눈 위쪽 가장자리는 등쪽면에 접해 있다. 전새개골에는 5개의 날카로운 가시가 나있다. 측선은 몸 등쪽에 치우쳐 일직선으로 뻗어 있으며 관모양이다. 등지느러미는 2개로 잘 분리되어 있으며, 제2등지느러미에는 가시가 없다. 가슴지느러미는 잘 발달되어 있고 폭이 넓다. 반면에 배지느러미는 매우 작아서 항문에 달하지 못한다. 뒷지느러미는 항문 뒤에서 시작하여 꼬리지느러미 가까이에까지 길게 뻗어 있다. 항문은 몸의 중앙보다 앞쪽에 위치한다. 꼬리지느러미는 수직형이다. 안전골에 아래로 향하는 1개의 날카로운 가시가 있다.</t>
+  </si>
+  <si>
+    <t>우리나라 동해, 일본, 캄차카, 사할린, 알라스카.</t>
+  </si>
+  <si>
+    <t>최소 성숙체장은 암컷 17cm, 수컷이 13cm 정도이다.</t>
+  </si>
+  <si>
+    <t>수심 200∼400m 의 모래가 섞인 펄 바닥에 주로 서식한다.</t>
+  </si>
+  <si>
+    <t>Enteroctopus dofleini</t>
+  </si>
+  <si>
+    <t>두족류</t>
+  </si>
+  <si>
+    <t>대형종으로 몸통은 전체적으로 타원형에 가깝다. 몸통의 외피는 매우 유연하며, 표면에는 많은 점상의 돌기들이 있다. 두눈의 윗부분에 3∼4개의 육질돌기가 돌출해 있다. 팔의 1/4지점까지 막이 잘 발달해 있다. 팔은 두껍고 길며, 1번과 3번째 팔이 거의 비슷한 길이이며, 4번째 팔이 가장 짧다. 수컷 오른쪽 3번째팔이 교접기로 되어 있고, 교접혀는 매우 긴편이며 팔 길이의 16∼25% 정도를 차지한다. 교접촉은 작고 뾰족하다. 24∼30개의 아가미판이 있다.</t>
+  </si>
+  <si>
+    <t>북태평양 해역(우리나라에는 동해안에만 서식)</t>
+  </si>
+  <si>
+    <t>최대 전장 300cm</t>
+  </si>
+  <si>
+    <t>연안저서종으로 200m 수심까지 서식한다. 서식 적수온은 20∼25℃이다. 대체로 암컷이 수컷보다 크다.</t>
+  </si>
+  <si>
+    <t>Oplegnathus fasciatus</t>
+  </si>
+  <si>
+    <t>몸은 긴 타원형으로 체고가 높으며 측편한다. 입은 작아 위턱의 뒤끝 부분이 눈 아래에도 도달하지 않는다. 양 턱의 이빨은 단단한 새의 부리모양이다. 비늘은 작은 빗비늘이다.</t>
+  </si>
+  <si>
+    <t>우리나라 전 연안, 일본 연안, 중국연안</t>
+  </si>
+  <si>
+    <t>양식산의 경우 부화 후 만 1년이면 가랑이체장 20cm, 2년이면 26cm, 3년이면 28cm, 4년이면 28.5cm로 자란다. 전장 80cm이다.</t>
+  </si>
+  <si>
+    <t>온대성 어류로 주로 연안의 암초지대에 서식한다.</t>
+  </si>
+  <si>
+    <t>이름(국명)</t>
+  </si>
+  <si>
+    <t>금지체장</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>금지체중</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>수심</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>금지시작기간</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>금지종료기간</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>특별 금지구역</t>
+  </si>
+  <si>
+    <t>Liparis ochotensis</t>
+  </si>
+  <si>
+    <t>몸은 가늘고 길며 뒤쪽으로 갈수록 측편되어 있고, 주둥이는 폭이 넓다. 몸에는 전체적으로 젤리층이 발달되어 점액을 분비하며 흐물거린다. 눈은 작고 머리 등쪽면에 치우쳐 있으며 두 눈 사이는 넓다. 양턱의 길이는 거의 같으며, 위턱의 뒤끝은 눈 앞가장자리에 이른다. 양턱의 이빨은 잘 발달되어 있으며 삼첨두형이다. 가슴지느러미는 결각이 있으며 배지느러미의 흡반은 비교적 작다. 꼬리지느러미 뒤끝은 약간 둥글다.</t>
+  </si>
+  <si>
+    <t>북태평양 (한국 동해, 일본에서 오호츠크해, 베링해)</t>
+  </si>
+  <si>
+    <t>최대 전장 40cm 까지 성장한다.</t>
+  </si>
+  <si>
+    <t>수심 0∼560 m (주로 50∼200m) 에 서식한다.</t>
+  </si>
+  <si>
+    <t>Miichthys miiuy</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>몸은 길고 측편되어 있으며, 머리 끝이 뭉툭하다. 아래턱에는 4개의 구멍이 있다. 눈은 비교적 크며 약간 계란형을 띤다. 양눈 사이의 간격은 눈보다 약간 크며, 조금 융기되어 있다. 입은 크고 약간 경사져 있으며, 위턱의 뒤끝은 눈 뒷가장자리를 지난다. 양턱에는 매우 날카로운 송곳니가 1줄로 나있다. 전새개골의 뒷가장자리는 막상으로 거칠고, 주새개골에는 뒤로 향하는 2개의 가시가 있다. 비공은 2쌍이다. 가슴지느러미 끝과 배지느러미 끝은 거의 일치한다. 등지느러미 가시부는 짧지만 연조부는 잘 발달되어 있고, 제1가시는 매우 작지만 제2가시부터 현저히 길어진다. 뒷지느러미 기저부는 가장 긴 연조보다 짧다. 꼬리지느러미는 첨두형이다. 입술만 제외하고 몸 전체가 비늘로 완전히 덮여 있다. 측선은 비스듬이 경사져 있지만 등지느러미 연조부의 중앙에서부터는 일직선으로 된다.</t>
+  </si>
+  <si>
+    <t>1년생은 전장 33cm 까지 성장하며, 2년생은 43cm, 3년생 51cm, 4년생 56cm, 5년생 60cm, 6년생은 63cm 까지 성장한다.</t>
+  </si>
+  <si>
+    <t>북서태평양 (한국, 일본 남부, 동중국해)</t>
+  </si>
+  <si>
+    <t>수심 40∼120m 의 펄바닥에서 주로 서식하며, 낮에는 저층에서 생활하다 밤이 되면 약간 부상한다.</t>
+  </si>
+  <si>
+    <t>Seriola quinqueradiata</t>
+  </si>
+  <si>
+    <t>주새개골의 뒷가장자리는 둥글고, 양턱에는 융모치가 띠를 형성한다. 머리 앞에는 2쌍의 비공이 있으며 그 둘은 매우 가까이 위치하여 마치 1개로 보인다. 등지느러미 극조부는 지느러미막에 의해서 연결되어 있다. 등지느러미 연조부는 잘 발달되어 길게 뻗어있다. 가슴지느러미, 배지느러미와 제1등지느러미는 작은 편이다. 눈은 주둥이 앞끝과 수평선상에 위치한다. 꼬리자루에 미약하게나마 1개의 융기연이 나타난다. 몸은 작은 둥근비늘로 덮여 있으며, 머리에는 눈사이의 뒤쪽, 뺨부위에서 안하부위에만 비늘이 있다.</t>
+  </si>
+  <si>
+    <t>태평양 (한국, 일본에서 하와이)</t>
+  </si>
+  <si>
+    <t>최소성숙체장은 60cm (4∼5년생) 내외이다.</t>
+  </si>
+  <si>
+    <t>온대성 어류이다.</t>
+  </si>
+  <si>
+    <t>Sebastes inermis</t>
+  </si>
+  <si>
+    <t>몸은 타원형으로 측편되어 있으며, 주둥이는 뾰족하고 눈은 크다. 두 눈 사이는 폭이 좁고, 다소 불쑥 나와 있다. 윗턱의 뒷끝은 눈동자 중앙 아래까지 도달하고 아래턱은 비늘로 덮여있다. 아래턱은 윗턱보다 길며, 아래턱 앞끝의 이빨은 입을 다물어도 외부에 노출된다. 눈 앞쪽 아래에는 날카로운 가시가 2개 있다. 꼬리지느러미는 약간 둥글며, 수컷은 항문 바로 뒤에 교미기가 있다.</t>
+  </si>
+  <si>
+    <t>우리나라 전 연안, 일본 북해도 이남</t>
+  </si>
+  <si>
+    <t>부화 후 만 1년이면 체장 약 9cm, 2년이면 13cm, 3년이면 16cm, 5년이면 19cm정도 자란다. 전장 42cm</t>
+  </si>
+  <si>
+    <t>연안 정착성 어류로서 암초가 많은 연안 해역에 주로 서식한다.</t>
+  </si>
+  <si>
+    <t>등지느러미는 머리의 약간 뒤쪽에서 시작되어 꼬리지느러미까지 뻗어 있다. 눈 사이는 편평하고 눈 둘레에 작은 감각공이 분포한다. 아래턱의 배쪽면에는 4∼5개 가량의 감각공이 있다. 양턱에는 날카로운 송곳니가 1줄로 나있으며 앞쪽은 무리지어 있다. 가슴지느러미는 작고 기저는 반달 형상이지만은 끝은 뾰족하다. 항문은 몸 중앙보다 조금 앞쪽에 위치하며 바로 뒤에서 뒷지느러미가 시작되어 꼬리지느러미까지 달한다. 측선은 주새개골 위에서 시작되며 앞부분은 등쪽에 치우쳐 있지만 후반부로 가면 중앙을 가로지른다.</t>
+  </si>
+  <si>
+    <t>Conger myriaster</t>
+  </si>
+  <si>
+    <t>북서태평양 (한국 전 연안, 일본, 동중국해)</t>
+  </si>
+  <si>
+    <t>몸길이는 보통 암컷이 약 90cm, 수컷이 40cm</t>
+  </si>
+  <si>
+    <t>수심 100m 이내에 널리 분포한다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Cleisthenes pinetorum</t>
+  </si>
+  <si>
+    <t>몸은 심하게 측편되어 있고 눈은 몸의 왼쪽에 치우쳐 있다. 눈은 비교적 크며, 두 눈 사이는 편평하고 오른쪽 눈 윗가장자리는 등쪽에 접해 있다. 아래턱이 위턱보다 돌출해 있으며, 입은 심하게 경사져 있고, 위턱은 눈 앞가장자리를 조금 지난다. 주둥이 끝은 좌측눈 윗가장자리와 수평선상에 위치한다. 측선은 거의 일직선으로 뻗어 있으며 가슴지느러미에서 약간 등쪽으로 경사진다. 꼬리지느러미는 거의 수직형에 가깝다. 양턱에는 작고 날카로운 이빨이 1줄로 나있다. 등지느러미는 오른쪽 위에서 시작된다. 가슴지느러미의 제1, 2연조는 분지되어 있지 않고 제3∼6번째까지는 분지되어 있지만 7번째 연조는 분지되어 있지 않다.</t>
+  </si>
+  <si>
+    <t>북서태평양(한국, 일본, 동중국해, 대만)</t>
+  </si>
+  <si>
+    <t>성장은 암컷이 수컷보다 좋으며, 또 서식장소에 따라 다르다. 체장은 약 45cm</t>
+  </si>
+  <si>
+    <t>Sebastes schlegelii</t>
+  </si>
+  <si>
+    <t>입은 크며 위턱은 눈 뒷가장자리에 달한다. 눈의 앞쪽에는 1쌍의 비극이 있고 눈 사이에는 2쌍 그 뒤로는 1쌍의 가시가 돌출되어 있다. 안전골에는 아래로 향하는 3개의 가시가 있으며, 양턱에는 매우 작은 이빨이 띠를 형성한다. 전새개골에는 5개, 주새개골에는 2개의 가시가 있다. 등지느러미는 1개로 극조부와 연조부는 깊게 패여 있다. 등지느러미가시는 잘 발달되어 있으며 극간막은 깊게 패여 있다. 등지느러미 연조부는 바깥쪽 가장자리가 둥글다. 가슴지느러미는 배쪽에 치우쳐 있으며 뒷가장자리가 둥글다. 배지느러미는 가슴지느러미보다 조금 뒤에서 시작하며 항문에 겨우 달한다. 뒷지느러미는 2번째 가시가 비교적 강하며 가장자리는 둥글다. 몸은 작고 미약한 사각형의 빗비늘로 덮여 있다. 머리 전상악골 부위와 아래턱에는 비늘이 없다.</t>
+  </si>
+  <si>
+    <t>북서태평양 (한국, 일본, 중국)</t>
+  </si>
+  <si>
+    <t>최대 전장 약 40cm 까지 성장한다.</t>
+  </si>
+  <si>
+    <t>인공어초의 내부나 어초 사이의 틈새에 몸을 기대서 사는 강한 정착성 어종이다. 수심 10~100m인 암반 연안해역에서 주로 서식한다.</t>
+  </si>
+  <si>
+    <t>Pleuronectes herzensteini</t>
+  </si>
+  <si>
+    <t>몸은 타원형으로 매우 측편되어 있으며, 눈은 몸의 오른쪽에 위치한다. 두 눈 사이는 좁고 위턱은 약간 돌출되어 있다. 눈이 있는 쪽은 빗비늘이며 눈이 없는 쪽은 둥근비늘이다. 측선은 가슴지느러미 부위에서 휘어져 있다.</t>
+  </si>
+  <si>
+    <t>북서태평양(한국 동해, 일본, 동중국해)</t>
+  </si>
+  <si>
+    <t>연안의 저서성 어류로 주로 대륙붕 주변 수역에 서식한다.</t>
+  </si>
+  <si>
+    <t>Pagrus major</t>
+  </si>
+  <si>
+    <t>등지느러미는 1개로 극조부와 연조부의 경계지점이 불확실하며 4번째 가시가 가장 길다. 위턱의 뒤끝은 눈 앞가장자리에 달하고, 안전골이 비대하게 발달하여 있다. 양턱에는 강한 송곳니가 1줄로 나있다. 각새개골은 부드럽고 주새개골에는 작은 2개의 가시가 있다. 가슴지느러미 기저의 길이는 짧지만 끝이 뒷지느러미의 기부를 지난다. 배지느러미는 1번째 연조가 실처럼 길게 뻗어 항문에 달한다. 뒷지느러미는 기저의 길이가 짧고 가시는 비교적 약하다. 몸은 적당한 크기의 직사각형 빗비늘로 덮여 있으며 머리는 주둥이 앞, 안하골, 전새개골, 입술주위에만 비늘이 없다. 배지느러미 기저부에는 끝이 뾰족한 1개의 보조비늘을 가진다.</t>
+  </si>
+  <si>
+    <t>태평양 서부 (한국, 일본에서 동중국해, 남중국해)</t>
+  </si>
+  <si>
+    <t>만 1년이면 가랑이체장 14cm, 2년이면 19cm, 3년이면 24cm, 4년이면 28cm, 5년이면 32cm, 6년이면 36cm,7년이면 39cm, 8년이면 42cm로 자라며 크기는 1m 내외이다.</t>
+  </si>
+  <si>
+    <t>산란기 외에는 바깥바다의 대륙붕 수심 30~150m인 암초지대에 주로 서식한다.</t>
+  </si>
+  <si>
+    <t>Clupea pallasii</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>몸은 다소 측편되어 있으며, 눈 주위로 기름눈까풀이 나타난다. 입은 경사지고 위턱의 뒤끝은 둥글다. 위턱에는 이빨이 없지만, 아래턱 앞에는 흔적적인 이빨이 존재한다. 위턱 앞가장자리에는 홈이 없고 둥글다. 아래턱이 위턱보다 앞쪽으로 약간 돌출되어 있다. 등지느러미는 1개로 몸의 중앙에 위치한다. 몸 배쪽 정중선을 따라 날카로운 모비늘이 1줄로 나있다. 주새개골의 표면에는 골질 융기선이 없고 매끄럽다. 제2상주 상악골은 비대하지만, 상·하 대칭은 아니다. 뒷지느러미의 마지막 연조는 길지 않다. 아가미 뚜껑과 협부와의 경계 지점에는 융기된 부위가 없다.</t>
+  </si>
+  <si>
+    <t>북태평양 (한국 동, 남해, 일본, 러시아, 알래스카, 미국, 멕시코), 북극</t>
+  </si>
+  <si>
+    <t>부화 후 1년이면 전장 약 12cm, 2년이면 20cm, 3년 27cm, 5년 30cm, 10년 35cm로 자란다. </t>
+  </si>
+  <si>
+    <t>냉수성 어종으로 수온이 2∼10℃ 인 저층 냉수대에서 서식한다.</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="10">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -385,6 +607,60 @@
       <family val="3"/>
       <charset val="129"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color rgb="FF747474"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="9"/>
+      <color rgb="FF000000"/>
+      <name val="Helvetica"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="맑은 고딕"/>
+      <family val="3"/>
+      <charset val="129"/>
+      <scheme val="major"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="맑은 고딕"/>
+      <family val="3"/>
+      <charset val="129"/>
+      <scheme val="major"/>
+    </font>
+    <font>
+      <b/>
+      <u/>
+      <sz val="11"/>
+      <name val="맑은 고딕"/>
+      <family val="3"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="맑은 고딕"/>
+      <family val="3"/>
+      <charset val="129"/>
+      <scheme val="major"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <name val="맑은 고딕"/>
+      <family val="3"/>
+      <charset val="129"/>
+      <scheme val="major"/>
     </font>
   </fonts>
   <fills count="3">
@@ -430,15 +706,36 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -756,874 +1053,689 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6859F81F-E7DF-4FE9-A44A-BB6554C98BD1}">
   <dimension ref="A1:H65"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="F8" sqref="F8"/>
+    <sheetView tabSelected="1" topLeftCell="H19" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="H22" sqref="H22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="16.5"/>
   <cols>
-    <col min="1" max="1" width="12.125" customWidth="1"/>
-    <col min="2" max="2" width="23.5" customWidth="1"/>
-    <col min="3" max="3" width="13.875" customWidth="1"/>
-    <col min="5" max="5" width="24.5" customWidth="1"/>
-    <col min="6" max="6" width="32" customWidth="1"/>
-    <col min="7" max="7" width="43.75" customWidth="1"/>
-    <col min="8" max="8" width="59.375" customWidth="1"/>
+    <col min="1" max="1" width="12.125" style="7" customWidth="1"/>
+    <col min="2" max="2" width="23.5" style="7" customWidth="1"/>
+    <col min="3" max="3" width="13.875" style="7" customWidth="1"/>
+    <col min="4" max="4" width="9" style="7"/>
+    <col min="5" max="5" width="24.5" style="7" customWidth="1"/>
+    <col min="6" max="6" width="32" style="7" customWidth="1"/>
+    <col min="7" max="7" width="46.375" style="7" customWidth="1"/>
+    <col min="8" max="8" width="59.375" style="7" customWidth="1"/>
+    <col min="9" max="16384" width="9" style="7"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:8">
+      <c r="A1" s="9" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E1" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="F1" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="G1" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="H1" s="7" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A2" s="1" t="s">
+    <row r="2" spans="1:8">
+      <c r="A2" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="B2" s="7" t="s">
         <v>72</v>
       </c>
-      <c r="C2" s="1" t="s">
+      <c r="C2" s="7" t="s">
         <v>73</v>
       </c>
-      <c r="D2" s="1"/>
-      <c r="E2" s="1" t="s">
+      <c r="E2" s="7" t="s">
         <v>74</v>
       </c>
-      <c r="F2" s="1" t="s">
+      <c r="F2" s="7" t="s">
         <v>75</v>
       </c>
-      <c r="G2" s="1" t="s">
+      <c r="G2" s="7" t="s">
         <v>76</v>
       </c>
-      <c r="H2" s="1" t="s">
+      <c r="H2" s="7" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A3" s="1" t="s">
+    <row r="3" spans="1:8">
+      <c r="A3" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="B3" s="1" t="s">
+      <c r="B3" s="7" t="s">
         <v>78</v>
       </c>
-      <c r="C3" s="1" t="s">
+      <c r="C3" s="7" t="s">
         <v>79</v>
       </c>
-      <c r="D3" s="1"/>
-      <c r="E3" s="1" t="s">
+      <c r="E3" s="7" t="s">
         <v>80</v>
       </c>
-      <c r="F3" s="1" t="s">
+      <c r="F3" s="7" t="s">
         <v>81</v>
       </c>
-      <c r="G3" s="1" t="s">
+      <c r="G3" s="7" t="s">
         <v>82</v>
       </c>
-      <c r="H3" s="1" t="s">
+      <c r="H3" s="7" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="4" spans="1:8" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A4" s="1" t="s">
+    <row r="4" spans="1:8" ht="17.25" thickBot="1">
+      <c r="A4" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="B4" s="1" t="s">
+      <c r="B4" s="7" t="s">
         <v>84</v>
       </c>
-      <c r="C4" s="1" t="s">
-        <v>85</v>
-      </c>
-      <c r="D4" s="1"/>
-      <c r="E4" s="1" t="s">
+      <c r="C4" s="7" t="s">
+        <v>85</v>
+      </c>
+      <c r="E4" s="7" t="s">
         <v>86</v>
       </c>
-      <c r="F4" s="1" t="s">
+      <c r="F4" s="7" t="s">
         <v>87</v>
       </c>
-      <c r="G4" s="1" t="s">
+      <c r="G4" s="7" t="s">
         <v>88</v>
       </c>
-      <c r="H4" s="1" t="s">
+      <c r="H4" s="7" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="5" spans="1:8" ht="54" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A5" s="1" t="s">
+    <row r="5" spans="1:8" ht="54" customHeight="1" thickBot="1">
+      <c r="A5" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="B5" s="1" t="s">
+      <c r="B5" s="7" t="s">
         <v>90</v>
       </c>
-      <c r="C5" s="1" t="s">
-        <v>85</v>
-      </c>
-      <c r="D5" s="1"/>
-      <c r="E5" s="2" t="s">
+      <c r="C5" s="7" t="s">
+        <v>85</v>
+      </c>
+      <c r="E5" s="8" t="s">
         <v>91</v>
       </c>
-      <c r="F5" s="1" t="s">
+      <c r="F5" s="7" t="s">
         <v>99</v>
       </c>
-      <c r="G5" s="1" t="s">
+      <c r="G5" s="7" t="s">
         <v>92</v>
       </c>
-      <c r="H5" s="2" t="s">
+      <c r="H5" s="8" t="s">
         <v>93</v>
       </c>
     </row>
-    <row r="6" spans="1:8" ht="33.75" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A6" s="1" t="s">
+    <row r="6" spans="1:8" ht="33.75" thickBot="1">
+      <c r="A6" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="B6" s="1" t="s">
+      <c r="B6" s="7" t="s">
         <v>94</v>
       </c>
-      <c r="C6" s="1" t="s">
-        <v>85</v>
-      </c>
-      <c r="D6" s="1"/>
-      <c r="E6" s="1" t="s">
+      <c r="C6" s="7" t="s">
+        <v>85</v>
+      </c>
+      <c r="E6" s="7" t="s">
         <v>95</v>
       </c>
-      <c r="F6" s="1" t="s">
+      <c r="F6" s="7" t="s">
         <v>96</v>
       </c>
-      <c r="G6" s="1" t="s">
+      <c r="G6" s="7" t="s">
         <v>97</v>
       </c>
-      <c r="H6" s="2" t="s">
+      <c r="H6" s="8" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A7" s="1" t="s">
+    <row r="7" spans="1:8" ht="17.25" thickBot="1">
+      <c r="A7" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="B7" s="1"/>
-      <c r="C7" s="1"/>
-      <c r="D7" s="1"/>
-      <c r="E7" s="1"/>
-      <c r="F7" s="1"/>
-      <c r="G7" s="1"/>
-      <c r="H7" s="1"/>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A8" s="1" t="s">
+      <c r="B7" s="7" t="s">
+        <v>100</v>
+      </c>
+      <c r="C7" s="7" t="s">
+        <v>85</v>
+      </c>
+      <c r="E7" s="7" t="s">
+        <v>101</v>
+      </c>
+      <c r="F7" s="7" t="s">
+        <v>102</v>
+      </c>
+      <c r="G7" s="7" t="s">
+        <v>103</v>
+      </c>
+      <c r="H7" s="8" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" ht="33.75" thickBot="1">
+      <c r="A8" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="B8" s="1"/>
-      <c r="C8" s="1"/>
-      <c r="D8" s="1"/>
-      <c r="E8" s="1"/>
-      <c r="F8" s="1"/>
-      <c r="G8" s="1"/>
-      <c r="H8" s="1"/>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A9" s="1" t="s">
+      <c r="B8" s="7" t="s">
+        <v>105</v>
+      </c>
+      <c r="C8" s="7" t="s">
+        <v>106</v>
+      </c>
+      <c r="E8" s="7" t="s">
+        <v>107</v>
+      </c>
+      <c r="F8" s="8" t="s">
+        <v>108</v>
+      </c>
+      <c r="G8" s="7" t="s">
+        <v>109</v>
+      </c>
+      <c r="H8" s="8" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" ht="33.75" thickBot="1">
+      <c r="A9" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="B9" s="1"/>
-      <c r="C9" s="1"/>
-      <c r="D9" s="1"/>
-      <c r="E9" s="1"/>
-      <c r="F9" s="1"/>
-      <c r="G9" s="1"/>
-      <c r="H9" s="1"/>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A10" s="1" t="s">
+      <c r="B9" s="7" t="s">
+        <v>111</v>
+      </c>
+      <c r="C9" s="7" t="s">
+        <v>85</v>
+      </c>
+      <c r="E9" s="7" t="s">
+        <v>112</v>
+      </c>
+      <c r="F9" s="8" t="s">
+        <v>113</v>
+      </c>
+      <c r="G9" s="7" t="s">
+        <v>114</v>
+      </c>
+      <c r="H9" s="7" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" ht="38.25" customHeight="1" thickBot="1">
+      <c r="A10" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="B10" s="1"/>
-      <c r="C10" s="1"/>
-      <c r="D10" s="1"/>
-      <c r="E10" s="1"/>
-      <c r="F10" s="1"/>
-      <c r="G10" s="1"/>
-      <c r="H10" s="1"/>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A11" s="1" t="s">
+      <c r="B10" s="8" t="s">
+        <v>123</v>
+      </c>
+      <c r="C10" s="7" t="s">
+        <v>85</v>
+      </c>
+      <c r="E10" s="8" t="s">
+        <v>124</v>
+      </c>
+      <c r="F10" s="8" t="s">
+        <v>125</v>
+      </c>
+      <c r="G10" s="7" t="s">
+        <v>126</v>
+      </c>
+      <c r="H10" s="8" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" ht="49.5" customHeight="1" thickBot="1">
+      <c r="A11" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="B11" s="1"/>
-      <c r="C11" s="1"/>
-      <c r="D11" s="1"/>
-      <c r="E11" s="1"/>
-      <c r="F11" s="1"/>
-      <c r="G11" s="1"/>
-      <c r="H11" s="1"/>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A12" s="1" t="s">
+      <c r="B11" s="8" t="s">
+        <v>128</v>
+      </c>
+      <c r="C11" s="7" t="s">
+        <v>85</v>
+      </c>
+      <c r="E11" s="8" t="s">
+        <v>129</v>
+      </c>
+      <c r="F11" s="8" t="s">
+        <v>131</v>
+      </c>
+      <c r="G11" s="7" t="s">
+        <v>130</v>
+      </c>
+      <c r="H11" s="7" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" ht="17.25" thickBot="1">
+      <c r="A12" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="B12" s="1"/>
-      <c r="C12" s="1"/>
-      <c r="D12" s="1"/>
-      <c r="E12" s="1"/>
-      <c r="F12" s="1"/>
-      <c r="G12" s="1"/>
-      <c r="H12" s="1"/>
-    </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A13" s="1" t="s">
+      <c r="B12" s="7" t="s">
+        <v>133</v>
+      </c>
+      <c r="C12" s="7" t="s">
+        <v>85</v>
+      </c>
+      <c r="E12" s="7" t="s">
+        <v>134</v>
+      </c>
+      <c r="F12" s="8" t="s">
+        <v>135</v>
+      </c>
+      <c r="G12" s="7" t="s">
+        <v>136</v>
+      </c>
+      <c r="H12" s="8" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" ht="17.25" thickBot="1">
+      <c r="A13" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="B13" s="1"/>
-      <c r="C13" s="1"/>
-      <c r="D13" s="1"/>
-      <c r="E13" s="1"/>
-      <c r="F13" s="1"/>
-      <c r="G13" s="1"/>
-      <c r="H13" s="1"/>
-    </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A14" s="1" t="s">
+      <c r="B13" s="8" t="s">
+        <v>138</v>
+      </c>
+      <c r="C13" s="7" t="s">
+        <v>85</v>
+      </c>
+      <c r="E13" s="7" t="s">
+        <v>139</v>
+      </c>
+      <c r="F13" s="7" t="s">
+        <v>140</v>
+      </c>
+      <c r="G13" s="7" t="s">
+        <v>141</v>
+      </c>
+      <c r="H13" s="7" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" ht="17.25" thickBot="1">
+      <c r="A14" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="B14" s="1"/>
-      <c r="C14" s="1"/>
-      <c r="D14" s="1"/>
-      <c r="E14" s="1"/>
-      <c r="F14" s="1"/>
-      <c r="G14" s="1"/>
-      <c r="H14" s="1"/>
-    </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A15" s="1" t="s">
+      <c r="B14" s="8" t="s">
+        <v>144</v>
+      </c>
+      <c r="C14" s="7" t="s">
+        <v>85</v>
+      </c>
+      <c r="E14" s="7" t="s">
+        <v>143</v>
+      </c>
+      <c r="F14" s="7" t="s">
+        <v>145</v>
+      </c>
+      <c r="G14" s="7" t="s">
+        <v>146</v>
+      </c>
+      <c r="H14" s="7" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" ht="33.75" thickBot="1">
+      <c r="A15" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="B15" s="1"/>
-      <c r="C15" s="1"/>
-      <c r="D15" s="1"/>
-      <c r="E15" s="1"/>
-      <c r="F15" s="1"/>
-      <c r="G15" s="1"/>
-      <c r="H15" s="1"/>
-    </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A16" s="1" t="s">
+      <c r="B15" s="8" t="s">
+        <v>148</v>
+      </c>
+      <c r="C15" s="7" t="s">
+        <v>85</v>
+      </c>
+      <c r="E15" s="7" t="s">
+        <v>149</v>
+      </c>
+      <c r="F15" s="8" t="s">
+        <v>150</v>
+      </c>
+      <c r="G15" s="7" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" ht="27.75" customHeight="1" thickBot="1">
+      <c r="A16" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="B16" s="1"/>
-      <c r="C16" s="1"/>
-      <c r="D16" s="1"/>
-      <c r="E16" s="1"/>
-      <c r="F16" s="1"/>
-      <c r="G16" s="1"/>
-      <c r="H16" s="1"/>
-    </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A17" s="1" t="s">
+      <c r="B16" s="8" t="s">
+        <v>152</v>
+      </c>
+      <c r="C16" s="7" t="s">
+        <v>85</v>
+      </c>
+      <c r="E16" s="8" t="s">
+        <v>153</v>
+      </c>
+      <c r="F16" s="7" t="s">
+        <v>154</v>
+      </c>
+      <c r="G16" s="7" t="s">
+        <v>155</v>
+      </c>
+      <c r="H16" s="7" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" ht="17.25" thickBot="1">
+      <c r="A17" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="B17" s="1"/>
-      <c r="C17" s="1"/>
-      <c r="D17" s="1"/>
-      <c r="E17" s="1"/>
-      <c r="F17" s="1"/>
-      <c r="G17" s="1"/>
-      <c r="H17" s="1"/>
-    </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A18" s="1" t="s">
+      <c r="B17" s="7" t="s">
+        <v>157</v>
+      </c>
+      <c r="C17" s="7" t="s">
+        <v>85</v>
+      </c>
+      <c r="E17" s="7" t="s">
+        <v>158</v>
+      </c>
+      <c r="F17" s="7" t="s">
+        <v>159</v>
+      </c>
+      <c r="G17" s="7" t="s">
+        <v>126</v>
+      </c>
+      <c r="H17" s="7" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" ht="380.25" thickBot="1">
+      <c r="A18" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="B18" s="1"/>
-      <c r="C18" s="1"/>
-      <c r="D18" s="1"/>
-      <c r="E18" s="1"/>
-      <c r="F18" s="1"/>
-      <c r="G18" s="1"/>
-      <c r="H18" s="1"/>
-    </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A19" s="1" t="s">
+      <c r="B18" s="8" t="s">
+        <v>161</v>
+      </c>
+      <c r="C18" s="7" t="s">
+        <v>85</v>
+      </c>
+      <c r="E18" s="8" t="s">
+        <v>162</v>
+      </c>
+      <c r="F18" s="8" t="s">
+        <v>163</v>
+      </c>
+      <c r="G18" s="8" t="s">
+        <v>164</v>
+      </c>
+      <c r="H18" s="8" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" ht="17.25" thickBot="1">
+      <c r="A19" s="7" t="s">
         <v>25</v>
       </c>
-      <c r="B19" s="1"/>
-      <c r="C19" s="1"/>
-      <c r="D19" s="1"/>
-      <c r="E19" s="1"/>
-      <c r="F19" s="1"/>
-      <c r="G19" s="1"/>
-      <c r="H19" s="1"/>
-    </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A20" s="1" t="s">
+      <c r="B19" s="8" t="s">
+        <v>166</v>
+      </c>
+      <c r="C19" s="7" t="s">
+        <v>85</v>
+      </c>
+      <c r="E19" s="7" t="s">
+        <v>167</v>
+      </c>
+      <c r="F19" s="7" t="s">
+        <v>168</v>
+      </c>
+      <c r="G19" s="7" t="s">
+        <v>169</v>
+      </c>
+      <c r="H19" s="7" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8">
+      <c r="A20" s="7" t="s">
         <v>26</v>
       </c>
-      <c r="B20" s="1"/>
-      <c r="C20" s="1"/>
-      <c r="D20" s="1"/>
-      <c r="E20" s="1"/>
-      <c r="F20" s="1"/>
-      <c r="G20" s="1"/>
-      <c r="H20" s="1"/>
-    </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A21" s="1" t="s">
+    </row>
+    <row r="21" spans="1:8">
+      <c r="A21" s="7" t="s">
         <v>27</v>
       </c>
-      <c r="B21" s="1"/>
-      <c r="C21" s="1"/>
-      <c r="D21" s="1"/>
-      <c r="E21" s="1"/>
-      <c r="F21" s="1"/>
-      <c r="G21" s="1"/>
-      <c r="H21" s="1"/>
-    </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A22" s="1" t="s">
+    </row>
+    <row r="22" spans="1:8">
+      <c r="A22" s="7" t="s">
         <v>28</v>
       </c>
-      <c r="B22" s="1"/>
-      <c r="C22" s="1"/>
-      <c r="D22" s="1"/>
-      <c r="E22" s="1"/>
-      <c r="F22" s="1"/>
-      <c r="G22" s="1"/>
-      <c r="H22" s="1"/>
-    </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A23" s="1" t="s">
+    </row>
+    <row r="23" spans="1:8">
+      <c r="A23" s="7" t="s">
         <v>29</v>
       </c>
-      <c r="B23" s="1"/>
-      <c r="C23" s="1"/>
-      <c r="D23" s="1"/>
-      <c r="E23" s="1"/>
-      <c r="F23" s="1"/>
-      <c r="G23" s="1"/>
-      <c r="H23" s="1"/>
-    </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A24" s="1" t="s">
+    </row>
+    <row r="24" spans="1:8">
+      <c r="A24" s="7" t="s">
         <v>30</v>
       </c>
-      <c r="B24" s="1"/>
-      <c r="C24" s="1"/>
-      <c r="D24" s="1"/>
-      <c r="E24" s="1"/>
-      <c r="F24" s="1"/>
-      <c r="G24" s="1"/>
-      <c r="H24" s="1"/>
-    </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A25" s="1" t="s">
+    </row>
+    <row r="25" spans="1:8">
+      <c r="A25" s="7" t="s">
         <v>31</v>
       </c>
-      <c r="B25" s="1"/>
-      <c r="C25" s="1"/>
-      <c r="D25" s="1"/>
-      <c r="E25" s="1"/>
-      <c r="F25" s="1"/>
-      <c r="G25" s="1"/>
-      <c r="H25" s="1"/>
-    </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A26" s="1" t="s">
+    </row>
+    <row r="26" spans="1:8">
+      <c r="A26" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="B26" s="1"/>
-      <c r="C26" s="1"/>
-      <c r="D26" s="1"/>
-      <c r="E26" s="1"/>
-      <c r="F26" s="1"/>
-      <c r="G26" s="1"/>
-      <c r="H26" s="1"/>
-    </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A27" s="1" t="s">
+    </row>
+    <row r="27" spans="1:8">
+      <c r="A27" s="7" t="s">
         <v>33</v>
       </c>
-      <c r="B27" s="1"/>
-      <c r="C27" s="1"/>
-      <c r="D27" s="1"/>
-      <c r="E27" s="1"/>
-      <c r="F27" s="1"/>
-      <c r="G27" s="1"/>
-      <c r="H27" s="1"/>
-    </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A28" s="1" t="s">
+    </row>
+    <row r="28" spans="1:8">
+      <c r="A28" s="7" t="s">
         <v>34</v>
       </c>
-      <c r="B28" s="1"/>
-      <c r="C28" s="1"/>
-      <c r="D28" s="1"/>
-      <c r="E28" s="1"/>
-      <c r="F28" s="1"/>
-      <c r="G28" s="1"/>
-      <c r="H28" s="1"/>
-    </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A29" s="1" t="s">
+    </row>
+    <row r="29" spans="1:8">
+      <c r="A29" s="7" t="s">
         <v>35</v>
       </c>
-      <c r="B29" s="1"/>
-      <c r="C29" s="1"/>
-      <c r="D29" s="1"/>
-      <c r="E29" s="1"/>
-      <c r="F29" s="1"/>
-      <c r="G29" s="1"/>
-      <c r="H29" s="1"/>
-    </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A30" s="1" t="s">
+    </row>
+    <row r="30" spans="1:8">
+      <c r="A30" s="7" t="s">
         <v>36</v>
       </c>
-      <c r="B30" s="1"/>
-      <c r="C30" s="1"/>
-      <c r="D30" s="1"/>
-      <c r="E30" s="1"/>
-      <c r="F30" s="1"/>
-      <c r="G30" s="1"/>
-      <c r="H30" s="1"/>
-    </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A31" s="1" t="s">
+    </row>
+    <row r="31" spans="1:8">
+      <c r="A31" s="7" t="s">
         <v>37</v>
       </c>
-      <c r="B31" s="1"/>
-      <c r="C31" s="1"/>
-      <c r="D31" s="1"/>
-      <c r="E31" s="1"/>
-      <c r="F31" s="1"/>
-      <c r="G31" s="1"/>
-      <c r="H31" s="1"/>
-    </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A32" s="1" t="s">
+    </row>
+    <row r="32" spans="1:8">
+      <c r="A32" s="7" t="s">
         <v>38</v>
       </c>
-      <c r="B32" s="1"/>
-      <c r="C32" s="1"/>
-      <c r="D32" s="1"/>
-      <c r="E32" s="1"/>
-      <c r="F32" s="1"/>
-      <c r="G32" s="1"/>
-      <c r="H32" s="1"/>
-    </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A33" s="1" t="s">
+    </row>
+    <row r="33" spans="1:1">
+      <c r="A33" s="7" t="s">
         <v>39</v>
       </c>
-      <c r="B33" s="1"/>
-      <c r="C33" s="1"/>
-      <c r="D33" s="1"/>
-      <c r="E33" s="1"/>
-      <c r="F33" s="1"/>
-      <c r="G33" s="1"/>
-      <c r="H33" s="1"/>
-    </row>
-    <row r="34" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A34" s="1" t="s">
+    </row>
+    <row r="34" spans="1:1">
+      <c r="A34" s="7" t="s">
         <v>40</v>
       </c>
-      <c r="B34" s="1"/>
-      <c r="C34" s="1"/>
-      <c r="D34" s="1"/>
-      <c r="E34" s="1"/>
-      <c r="F34" s="1"/>
-      <c r="G34" s="1"/>
-      <c r="H34" s="1"/>
-    </row>
-    <row r="35" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A35" s="1" t="s">
+    </row>
+    <row r="35" spans="1:1">
+      <c r="A35" s="7" t="s">
         <v>41</v>
       </c>
-      <c r="B35" s="1"/>
-      <c r="C35" s="1"/>
-      <c r="D35" s="1"/>
-      <c r="E35" s="1"/>
-      <c r="F35" s="1"/>
-      <c r="G35" s="1"/>
-      <c r="H35" s="1"/>
-    </row>
-    <row r="36" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A36" s="1" t="s">
+    </row>
+    <row r="36" spans="1:1">
+      <c r="A36" s="7" t="s">
         <v>42</v>
       </c>
-      <c r="B36" s="1"/>
-      <c r="C36" s="1"/>
-      <c r="D36" s="1"/>
-      <c r="E36" s="1"/>
-      <c r="F36" s="1"/>
-      <c r="G36" s="1"/>
-      <c r="H36" s="1"/>
-    </row>
-    <row r="37" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A37" s="1" t="s">
+    </row>
+    <row r="37" spans="1:1">
+      <c r="A37" s="7" t="s">
         <v>43</v>
       </c>
-      <c r="B37" s="1"/>
-      <c r="C37" s="1"/>
-      <c r="D37" s="1"/>
-      <c r="E37" s="1"/>
-      <c r="F37" s="1"/>
-      <c r="G37" s="1"/>
-      <c r="H37" s="1"/>
-    </row>
-    <row r="38" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A38" s="1" t="s">
+    </row>
+    <row r="38" spans="1:1">
+      <c r="A38" s="7" t="s">
         <v>44</v>
       </c>
-      <c r="B38" s="1"/>
-      <c r="C38" s="1"/>
-      <c r="D38" s="1"/>
-      <c r="E38" s="1"/>
-      <c r="F38" s="1"/>
-      <c r="G38" s="1"/>
-      <c r="H38" s="1"/>
-    </row>
-    <row r="39" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A39" s="1" t="s">
+    </row>
+    <row r="39" spans="1:1">
+      <c r="A39" s="7" t="s">
         <v>45</v>
       </c>
-      <c r="B39" s="1"/>
-      <c r="C39" s="1"/>
-      <c r="D39" s="1"/>
-      <c r="E39" s="1"/>
-      <c r="F39" s="1"/>
-      <c r="G39" s="1"/>
-      <c r="H39" s="1"/>
-    </row>
-    <row r="40" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A40" s="1" t="s">
+    </row>
+    <row r="40" spans="1:1">
+      <c r="A40" s="7" t="s">
         <v>46</v>
       </c>
-      <c r="B40" s="1"/>
-      <c r="C40" s="1"/>
-      <c r="D40" s="1"/>
-      <c r="E40" s="1"/>
-      <c r="F40" s="1"/>
-      <c r="G40" s="1"/>
-      <c r="H40" s="1"/>
-    </row>
-    <row r="41" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A41" s="1" t="s">
+    </row>
+    <row r="41" spans="1:1">
+      <c r="A41" s="7" t="s">
         <v>47</v>
       </c>
-      <c r="B41" s="1"/>
-      <c r="C41" s="1"/>
-      <c r="D41" s="1"/>
-      <c r="E41" s="1"/>
-      <c r="F41" s="1"/>
-      <c r="G41" s="1"/>
-      <c r="H41" s="1"/>
-    </row>
-    <row r="42" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A42" s="1" t="s">
+    </row>
+    <row r="42" spans="1:1">
+      <c r="A42" s="7" t="s">
         <v>48</v>
       </c>
-      <c r="B42" s="1"/>
-      <c r="C42" s="1"/>
-      <c r="D42" s="1"/>
-      <c r="E42" s="1"/>
-      <c r="F42" s="1"/>
-      <c r="G42" s="1"/>
-      <c r="H42" s="1"/>
-    </row>
-    <row r="43" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A43" s="1" t="s">
+    </row>
+    <row r="43" spans="1:1">
+      <c r="A43" s="7" t="s">
         <v>49</v>
       </c>
-      <c r="B43" s="1"/>
-      <c r="C43" s="1"/>
-      <c r="D43" s="1"/>
-      <c r="E43" s="1"/>
-      <c r="F43" s="1"/>
-      <c r="G43" s="1"/>
-      <c r="H43" s="1"/>
-    </row>
-    <row r="44" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A44" s="1" t="s">
+    </row>
+    <row r="44" spans="1:1">
+      <c r="A44" s="7" t="s">
         <v>50</v>
       </c>
-      <c r="B44" s="1"/>
-      <c r="C44" s="1"/>
-      <c r="D44" s="1"/>
-      <c r="E44" s="1"/>
-      <c r="F44" s="1"/>
-      <c r="G44" s="1"/>
-      <c r="H44" s="1"/>
-    </row>
-    <row r="45" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A45" s="1" t="s">
+    </row>
+    <row r="45" spans="1:1">
+      <c r="A45" s="7" t="s">
         <v>51</v>
       </c>
-      <c r="B45" s="1"/>
-      <c r="C45" s="1"/>
-      <c r="D45" s="1"/>
-      <c r="E45" s="1"/>
-      <c r="F45" s="1"/>
-      <c r="G45" s="1"/>
-      <c r="H45" s="1"/>
-    </row>
-    <row r="46" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A46" s="1" t="s">
+    </row>
+    <row r="46" spans="1:1">
+      <c r="A46" s="7" t="s">
         <v>52</v>
       </c>
-      <c r="B46" s="1"/>
-      <c r="C46" s="1"/>
-      <c r="D46" s="1"/>
-      <c r="E46" s="1"/>
-      <c r="F46" s="1"/>
-      <c r="G46" s="1"/>
-      <c r="H46" s="1"/>
-    </row>
-    <row r="47" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A47" s="1" t="s">
+    </row>
+    <row r="47" spans="1:1">
+      <c r="A47" s="7" t="s">
         <v>53</v>
       </c>
-      <c r="B47" s="1"/>
-      <c r="C47" s="1"/>
-      <c r="D47" s="1"/>
-      <c r="E47" s="1"/>
-      <c r="F47" s="1"/>
-      <c r="G47" s="1"/>
-      <c r="H47" s="1"/>
-    </row>
-    <row r="48" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A48" s="1" t="s">
+    </row>
+    <row r="48" spans="1:1">
+      <c r="A48" s="7" t="s">
         <v>54</v>
       </c>
-      <c r="B48" s="1"/>
-      <c r="C48" s="1"/>
-      <c r="D48" s="1"/>
-      <c r="E48" s="1"/>
-      <c r="F48" s="1"/>
-      <c r="G48" s="1"/>
-      <c r="H48" s="1"/>
-    </row>
-    <row r="49" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A49" s="1" t="s">
+    </row>
+    <row r="49" spans="1:1">
+      <c r="A49" s="7" t="s">
         <v>55</v>
       </c>
-      <c r="B49" s="1"/>
-      <c r="C49" s="1"/>
-      <c r="D49" s="1"/>
-      <c r="E49" s="1"/>
-      <c r="F49" s="1"/>
-      <c r="G49" s="1"/>
-      <c r="H49" s="1"/>
-    </row>
-    <row r="50" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A50" s="1" t="s">
+    </row>
+    <row r="50" spans="1:1">
+      <c r="A50" s="7" t="s">
         <v>56</v>
       </c>
-      <c r="B50" s="1"/>
-      <c r="C50" s="1"/>
-      <c r="D50" s="1"/>
-      <c r="E50" s="1"/>
-      <c r="F50" s="1"/>
-      <c r="G50" s="1"/>
-      <c r="H50" s="1"/>
-    </row>
-    <row r="51" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A51" s="1" t="s">
+    </row>
+    <row r="51" spans="1:1">
+      <c r="A51" s="7" t="s">
         <v>57</v>
       </c>
-      <c r="B51" s="1"/>
-      <c r="C51" s="1"/>
-      <c r="D51" s="1"/>
-      <c r="E51" s="1"/>
-      <c r="F51" s="1"/>
-      <c r="G51" s="1"/>
-      <c r="H51" s="1"/>
-    </row>
-    <row r="52" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A52" s="1" t="s">
+    </row>
+    <row r="52" spans="1:1">
+      <c r="A52" s="7" t="s">
         <v>58</v>
       </c>
-      <c r="B52" s="1"/>
-      <c r="C52" s="1"/>
-      <c r="D52" s="1"/>
-      <c r="E52" s="1"/>
-      <c r="F52" s="1"/>
-      <c r="G52" s="1"/>
-      <c r="H52" s="1"/>
-    </row>
-    <row r="53" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A53" s="1" t="s">
+    </row>
+    <row r="53" spans="1:1">
+      <c r="A53" s="7" t="s">
         <v>59</v>
       </c>
-      <c r="B53" s="1"/>
-      <c r="C53" s="1"/>
-      <c r="D53" s="1"/>
-      <c r="E53" s="1"/>
-      <c r="F53" s="1"/>
-      <c r="G53" s="1"/>
-      <c r="H53" s="1"/>
-    </row>
-    <row r="54" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A54" s="1" t="s">
+    </row>
+    <row r="54" spans="1:1">
+      <c r="A54" s="7" t="s">
         <v>60</v>
       </c>
-      <c r="B54" s="1"/>
-      <c r="C54" s="1"/>
-      <c r="D54" s="1"/>
-      <c r="E54" s="1"/>
-      <c r="F54" s="1"/>
-      <c r="G54" s="1"/>
-      <c r="H54" s="1"/>
-    </row>
-    <row r="55" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A55" s="1" t="s">
+    </row>
+    <row r="55" spans="1:1">
+      <c r="A55" s="7" t="s">
         <v>61</v>
       </c>
-      <c r="B55" s="1"/>
-      <c r="C55" s="1"/>
-      <c r="D55" s="1"/>
-      <c r="E55" s="1"/>
-      <c r="F55" s="1"/>
-      <c r="G55" s="1"/>
-      <c r="H55" s="1"/>
-    </row>
-    <row r="56" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A56" s="1" t="s">
+    </row>
+    <row r="56" spans="1:1">
+      <c r="A56" s="7" t="s">
         <v>62</v>
       </c>
-      <c r="B56" s="1"/>
-      <c r="C56" s="1"/>
-      <c r="D56" s="1"/>
-      <c r="E56" s="1"/>
-      <c r="F56" s="1"/>
-      <c r="G56" s="1"/>
-      <c r="H56" s="1"/>
-    </row>
-    <row r="57" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A57" s="1" t="s">
+    </row>
+    <row r="57" spans="1:1">
+      <c r="A57" s="7" t="s">
         <v>63</v>
       </c>
-      <c r="B57" s="1"/>
-      <c r="C57" s="1"/>
-      <c r="D57" s="1"/>
-      <c r="E57" s="1"/>
-      <c r="F57" s="1"/>
-      <c r="G57" s="1"/>
-      <c r="H57" s="1"/>
-    </row>
-    <row r="58" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A58" s="1" t="s">
+    </row>
+    <row r="58" spans="1:1">
+      <c r="A58" s="7" t="s">
         <v>64</v>
       </c>
-      <c r="B58" s="1"/>
-      <c r="C58" s="1"/>
-      <c r="D58" s="1"/>
-      <c r="E58" s="1"/>
-      <c r="F58" s="1"/>
-      <c r="G58" s="1"/>
-      <c r="H58" s="1"/>
-    </row>
-    <row r="59" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A59" s="1" t="s">
+    </row>
+    <row r="59" spans="1:1">
+      <c r="A59" s="7" t="s">
         <v>65</v>
       </c>
-      <c r="B59" s="1"/>
-      <c r="C59" s="1"/>
-      <c r="D59" s="1"/>
-      <c r="E59" s="1"/>
-      <c r="F59" s="1"/>
-      <c r="G59" s="1"/>
-      <c r="H59" s="1"/>
-    </row>
-    <row r="60" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A60" s="1" t="s">
+    </row>
+    <row r="60" spans="1:1">
+      <c r="A60" s="7" t="s">
         <v>66</v>
       </c>
-      <c r="B60" s="1"/>
-      <c r="C60" s="1"/>
-      <c r="D60" s="1"/>
-      <c r="E60" s="1"/>
-      <c r="F60" s="1"/>
-      <c r="G60" s="1"/>
-      <c r="H60" s="1"/>
-    </row>
-    <row r="61" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A61" s="1" t="s">
+    </row>
+    <row r="61" spans="1:1">
+      <c r="A61" s="7" t="s">
         <v>67</v>
       </c>
-      <c r="B61" s="1"/>
-      <c r="C61" s="1"/>
-      <c r="D61" s="1"/>
-      <c r="E61" s="1"/>
-      <c r="F61" s="1"/>
-      <c r="G61" s="1"/>
-      <c r="H61" s="1"/>
-    </row>
-    <row r="62" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A62" s="1" t="s">
+    </row>
+    <row r="62" spans="1:1">
+      <c r="A62" s="7" t="s">
         <v>68</v>
       </c>
-      <c r="B62" s="1"/>
-      <c r="C62" s="1"/>
-      <c r="D62" s="1"/>
-      <c r="E62" s="1"/>
-      <c r="F62" s="1"/>
-      <c r="G62" s="1"/>
-      <c r="H62" s="1"/>
-    </row>
-    <row r="63" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A63" s="1" t="s">
+    </row>
+    <row r="63" spans="1:1">
+      <c r="A63" s="7" t="s">
         <v>69</v>
       </c>
-      <c r="B63" s="1"/>
-      <c r="C63" s="1"/>
-      <c r="D63" s="1"/>
-      <c r="E63" s="1"/>
-      <c r="F63" s="1"/>
-      <c r="G63" s="1"/>
-      <c r="H63" s="1"/>
-    </row>
-    <row r="64" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A64" s="1" t="s">
+    </row>
+    <row r="64" spans="1:1">
+      <c r="A64" s="7" t="s">
         <v>70</v>
       </c>
-      <c r="B64" s="1"/>
-      <c r="C64" s="1"/>
-      <c r="D64" s="1"/>
-      <c r="E64" s="1"/>
-      <c r="F64" s="1"/>
-      <c r="G64" s="1"/>
-      <c r="H64" s="1"/>
-    </row>
-    <row r="65" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A65" s="1" t="s">
+    </row>
+    <row r="65" spans="1:1">
+      <c r="A65" s="7" t="s">
         <v>71</v>
       </c>
-      <c r="B65" s="1"/>
-      <c r="C65" s="1"/>
-      <c r="D65" s="1"/>
-      <c r="E65" s="1"/>
-      <c r="F65" s="1"/>
-      <c r="G65" s="1"/>
-      <c r="H65" s="1"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
@@ -1633,39 +1745,148 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C086C4B5-20B2-46D0-A0EB-C416BC74F84E}">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C6AC125B-B207-4C5D-B180-5A5DE8B6A191}">
+  <dimension ref="A1:B7"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E12" sqref="E12"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
-  <sheetData/>
+  <sheetFormatPr defaultRowHeight="16.5"/>
+  <cols>
+    <col min="1" max="1" width="16.875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2">
+      <c r="A1" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2">
+      <c r="B2" s="2" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="B3" s="2" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="B4" s="2" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="B5" s="2" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2">
+      <c r="B6" s="2" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2">
+      <c r="B7" s="2" t="s">
+        <v>85</v>
+      </c>
+    </row>
+  </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C16E1E9C-FCDE-47C6-9B5D-6A4BC307443A}">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C086C4B5-20B2-46D0-A0EB-C416BC74F84E}">
+  <dimension ref="A1:F1"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D6" sqref="D6"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
-  <sheetData/>
+  <sheetFormatPr defaultRowHeight="16.5"/>
+  <cols>
+    <col min="3" max="3" width="12.375" customWidth="1"/>
+    <col min="5" max="6" width="13.75" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6">
+      <c r="A1" s="5" t="s">
+        <v>116</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>117</v>
+      </c>
+      <c r="C1" s="4" t="s">
+        <v>118</v>
+      </c>
+      <c r="D1" s="4" t="s">
+        <v>119</v>
+      </c>
+      <c r="E1" s="4" t="s">
+        <v>120</v>
+      </c>
+      <c r="F1" s="4" t="s">
+        <v>121</v>
+      </c>
+    </row>
+  </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C16E1E9C-FCDE-47C6-9B5D-6A4BC307443A}">
+  <dimension ref="A1:B1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E10" sqref="E10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5"/>
+  <cols>
+    <col min="2" max="2" width="13.25" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2">
+      <c r="A1" s="3" t="s">
+        <v>116</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>122</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CBDB54CC-A3E3-4D0D-BE00-BC95561308CD}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D12" sqref="D12"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
-  <sheetData/>
+  <sheetFormatPr defaultRowHeight="16.5"/>
+  <cols>
+    <col min="1" max="1" width="14.75" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:1">
+      <c r="A1" s="3" t="s">
+        <v>122</v>
+      </c>
+    </row>
+  </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/설계/DB/어류 데이터베이스.xlsx
+++ b/설계/DB/어류 데이터베이스.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\FishDic\설계\DB\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4906D9A4-E4F7-47A0-93AE-464FEF2A57EB}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ED7563E3-2196-4A2C-9569-7EA3773F6248}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="16095" yWindow="1200" windowWidth="12630" windowHeight="13005" xr2:uid="{452F07AA-5EAA-4817-B43C-48B61E7F79A8}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{452F07AA-5EAA-4817-B43C-48B61E7F79A8}"/>
   </bookViews>
   <sheets>
     <sheet name="어류 테이블" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="196" uniqueCount="171">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="479" uniqueCount="414">
   <si>
     <t>이름(국명)</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -185,9 +185,6 @@
     <t>키조개</t>
   </si>
   <si>
-    <t>전복류</t>
-  </si>
-  <si>
     <t>쥐노래미</t>
   </si>
   <si>
@@ -197,9 +194,6 @@
     <t>명태</t>
   </si>
   <si>
-    <t>가리비</t>
-  </si>
-  <si>
     <t>코끼리조개</t>
   </si>
   <si>
@@ -579,13 +573,768 @@
   </si>
   <si>
     <t>냉수성 어종으로 수온이 2∼10℃ 인 저층 냉수대에서 서식한다.</t>
+  </si>
+  <si>
+    <t>Dentex tumifrons</t>
+  </si>
+  <si>
+    <t>몸은 측편형이며, 체고가 비교적 높다. 눈은 크고 양눈 사이는 앞쪽으로 융기되어 있다. 안전골의 폭이 매우 크다. 콧구멍은 2쌍이다. 입은 크고 약간 경사져 있으며, 위턱의 뒤끝은 눈 앞가장자리를 조금 지난다. 등지느러미는 1개로 극조부와 연조부의 경계가 불확실하다. 등지느러미 4번째 가시가 가장 길고 1번째에서 3번째 가시까지는 일정하게 길어진다. 가슴지느러미는 매우 길어 뒷지느러미 기부를 지난다. 배지느러미는 적당한 크기로 항문 가운데 지점에 달한다. 꼬리지느러미는 가랑이형이다.</t>
+  </si>
+  <si>
+    <t>태평양 서부 (한국 남부, 일본에서 동중국해, 호주 북부)</t>
+  </si>
+  <si>
+    <t>만 1년이면 가랑이체장 11cm, 2년 16cm, 3년 20cm, 4년 23cm, 5년 26cm, 6년 28cm, 7년 30cm. 체장 35cm</t>
+  </si>
+  <si>
+    <t>대륙붕 수역에 분포한다.</t>
+  </si>
+  <si>
+    <t>Takifugu obscurus</t>
+  </si>
+  <si>
+    <t>등쪽과 배쪽의 피부극이 어릴 때는 가슴지느러미 앞뒤에서 분리되어 있으나 성어는 서로 연결되어 있다. 콧구멍은 짧고 융기되어 있다.</t>
+  </si>
+  <si>
+    <t>우리나라의 금강, 한강, 임진강 등의 서남 연안과 하천 하류, 황해 및 중국</t>
+  </si>
+  <si>
+    <t>우리나라의 서해안에서 중국 남부의 흐르는 강의 중·하류와 그 해역에 서식한다.</t>
+  </si>
+  <si>
+    <t>부화 직후의 새끼는 대략 전장 3.1∼3.4mm의 크기이며 부화 10일 후에 가슴지느러미가 생기고 부화 18일 후(대략 7∼8mm)에 다른 지느러미도 생긴다. 체장 45cm까지 채집되는 중형 복어류이다.</t>
+  </si>
+  <si>
+    <t>Gadus macrocephalus</t>
+  </si>
+  <si>
+    <t>북태평양(한국 전 연안, 일본, 오호츠크해, 베링해, 미국 남부)</t>
+  </si>
+  <si>
+    <t>몸은 앞쪽이 두툼하고 뒤쪽으로 갈수록 측편된다. 눈은 크며 머리 등쪽에 가까이 위치한다. 입은 크며 위턱의 뒤끝은 눈의 앞가장자리를 지난다. 위턱이 아래턱보다 앞쪽으로 돌출해 있으며, 아래턱의 앞끝에는 1개의 긴 수염이 있다. 등지느러미는 3개, 뒷지느러미는 2개로 잘 분리되어 있고 1번째 뒷지느러미의 기부는 제 2등지느러미 기부보다 뒤쪽에 위치한다. 배지느러미는 비교적 작고 가장 앞쪽에 위치하며, 꼬리지느러미는 수직형이다. 몸은 둥근비늘로 덮여 있다.</t>
+  </si>
+  <si>
+    <t>수온 5∼12℃ 되는 수심 45∼450m 되는 깊은 바다에 떼를 지어 살며, 야행성으로 낮에는 바닥에 몸을 숨긴다.</t>
+  </si>
+  <si>
+    <t>동해산은 부화 후 만 1년이면 체장 20∼27cm, 2년이면 30∼48cm, 5년이면 80cm, 6년이면 90cm 내외로 자란다. 최대 전장 100cm</t>
+  </si>
+  <si>
+    <t>Todarodes pacificus</t>
+  </si>
+  <si>
+    <t>외투장은 30cm이상, 외투막은 가는 원통형, 미부는 원추형이다. 지느러미는 옆으로 긴 마름모꼴이고 뒤끝에 붙어 있으며, 길이는 외투장의 30% 정도이나 뒤끝으로 갈수록 안으로 패여 좁아진다. 전배연 돌기는 돌출하지 않아 둥글게 보이며, 전복연 돌기는 약간 돌출하였으나 매우 약하여 고정된 표본에서는 둥글게 보인다. 완장식은 2&gt;3&gt;1&gt;4이며, 최장 완은 외투장의 40% 정도이고 전완에는 넓은 보호막이 있다. 흡반열은 2열이다. 촉완은 외투장의 1/2, 흡반은 4줄이며, 중앙부의 2줄은 특히 크다. 외투 등쪽 중앙에 넓고 검은 띠가 있으며, 복벽에는 융기선이 없다.</t>
+  </si>
+  <si>
+    <t> 두족류</t>
+  </si>
+  <si>
+    <t>수표면~100m 에 서식하는 회유성 어종으로 먹이를 따라 이동하며, 유영속도는 1마일/1일이나 남하군은 10~30마일/1일. 서식수온은 10~21℃이다.</t>
+  </si>
+  <si>
+    <t>동중국해, 홍콩, 한국, 일본, 쿠릴 열도</t>
+  </si>
+  <si>
+    <t>최대 외투장 길이는 50cm, 중량 0.5kg (성성숙 동장 : 암컷 20∼25cm, 수컷 17∼19cm)</t>
+  </si>
+  <si>
+    <t>Erimacrus isenbeckii</t>
+  </si>
+  <si>
+    <t>미분류</t>
+  </si>
+  <si>
+    <t>전체적으로 분홍색을 띄며 다리와 갑각을 비롯한 몸 전체에 붉은색 과립과 함께 이름처럼 밤색 강모가 나있는데, 다리 안쪽과 입 주변에는 강모가 더 길고 숱이 많다. 갑각은 전체적으로 둥근 형상에 가장자리로 이가 6쌍 나있으며 눈구멍 주변에도 3쌍이 나있다. 집게다리는 걷는다리에 비해 크게 짧고 두껍다.</t>
+  </si>
+  <si>
+    <t> 오호츠크 해와 베링 해를 비롯한 북태평양</t>
+  </si>
+  <si>
+    <t>성체의 갑각 길이는 120 mm</t>
+  </si>
+  <si>
+    <t>15 m에서 350 m 깊이의 수심에서 진흙, 모래 바닥에 서식</t>
+  </si>
+  <si>
+    <t>Scomber japonicus</t>
+  </si>
+  <si>
+    <t>눈은 크며 기름눈꺼풀이 잘 발달되어 있고 동공부위는 노출되어 있다.등지느러미와 뒷지느러미 후방으로 5개씩의 토막 지느러미가 있고, 꼬리자루는 매우 잘록하다.꼬리지느러미는 잘 발달된 가랑이형이다. 1번째 등지느러미는 제 2가시가 가장 길다.</t>
+  </si>
+  <si>
+    <t>한국, 전 대양의 열대 및 온대 해역</t>
+  </si>
+  <si>
+    <t>성장속도가 빨라 만 1년이면 가랑이체장 25∼30cm, 2년이면 32∼35cm, 3년이면 35cm 이상으로 자란다. 체장 40cm</t>
+  </si>
+  <si>
+    <t>주요 서식지로서 제주도 주변 해역에서 산란 후 동해와 서해에 서식한다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Acanthopagrus schlegelii</t>
+  </si>
+  <si>
+    <t>경골어류</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>몸은 타원형으로 측편하며, 주둥이는 약간 돌출한다. 양 턱의 앞쪽에는 각각 3쌍의 앞니 모양의 송곳니가 있고, 그 뒤쪽에는 어금니가 발달하여 위턱의 옆쪽으로 4∼5줄, 아래턱에는 3∼4줄이 있다. 비늘은 빗비늘이며, 두 눈 사이와 아가미뚜껑 아래부분에 비늘이 없다. 등지느러미 가시부 기저 중앙에서 옆줄까지의 비늘수가 6∼7개로 다른 종과 구별된다. 등지느러미 가시는 비교적 짧고 두꺼운 것과 가는몸 빛깔은 금속 광택을 띤 회흑색으로 배쪽은 연하다. 몸은 타원형으로 측편하며, 주둥이는 약간 돌출한다. 양 턱의 앞쪽에는 각각 3쌍의 앞니 모양의 송곳니가 있고, 그 뒤쪽에는 어금니가 발달하여 위턱의 옆쪽으로 4∼5줄, 아래턱에는 3∼4줄이 있다. 비늘은 빗비늘이며, 두 눈 사이와 아가미뚜껑 아래부분에 비늘이 없다. 등지느러미 가시부 기저 중앙에서 옆줄까지의 비늘수가 6∼7개로 다른 종과 구별된다. 등지느러미 가시는 비교적 짧고 두꺼운 것과 가는 것이 교대로 배열되어 있다.</t>
+  </si>
+  <si>
+    <t>수컷은 체장 17cm (2년), 암컷은 20cm</t>
+  </si>
+  <si>
+    <t>수심 50m 이내인 바닥이 해조류가 있는 모래질이거나 암초지대인 연안에 주로 서식한다.</t>
+  </si>
+  <si>
+    <t>Thamnaconus modestus</t>
+  </si>
+  <si>
+    <t>몸은 심하게 측편되어 있으며 체고는 배지느러미기부에서 가장 높다. 머리 앞끝은 뾰족하며 주둥이는 길게 돌출되어 있다. 눈은 작고, 눈 위쪽에는 1개의 긴 등지느러미 가시가 있으며 바로 뒤쪽에 작은 2번째 가시가 있다. 입은 매우 작고, 위턱에는 5개의 작고 날카로운 가시가 노출되어 있으며 아래턱에는 모든 이빨이 융합되어 마치 새의 부리모양으로 발달되어 있다. 새열은 칼로 찢은 형태로써 눈 뒷가장자리 아래쪽에 위치하며 바로 뒷쪽에는 가슴지느러미가 위치한다. 제2등지느러미는 몸의 중앙에서 시작되며, 뒷지느러미는 조금 뒤쪽에서 시작된다. 꼬리지느러미는 수직형에 가까운 둥근형이다.</t>
+  </si>
+  <si>
+    <t>태평양 서부(한국, 일본, 동중국해, 남중국해)</t>
+  </si>
+  <si>
+    <t>최소 성숙체장은 18cm 정도이다. 부화 후 1년이면 체장 18cm, 2년생 22cm, 3년생은 25∼26cm 까지 성장한다. 최대 전장 35cm 까지 성장한다.</t>
+  </si>
+  <si>
+    <t>군집성이 강한 어종으로, 수심 70∼100m 수층에서 무리를 이루어 생활한다.</t>
+  </si>
+  <si>
+    <t>Raja pulchra</t>
+  </si>
+  <si>
+    <t>연골어류</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>체반의 가장자리는 2번의 만입되는 부위를 가지며, 가슴지느러미에서 급격하게 꺽인 후 일직선으로 된다. 꼬리가 시작되는 지점에서 등쪽 정중선을 따라 날카로운 뿔 모양의 가시가 1줄로 나 있다.가슴지느러미 가운데 부위에는 날카로은 극이 2줄로 나있다. 배지느러미는 전엽보다 후엽이 더 길다.</t>
+  </si>
+  <si>
+    <t>북서태평양(한국, 일본, 오호츠크해 및 동중국해)</t>
+  </si>
+  <si>
+    <t>주 산란기는 5~6월과 11~12월(연 2회)이다.</t>
+  </si>
+  <si>
+    <t>최대 1.12m까지 자랄 수 있다.</t>
+  </si>
+  <si>
+    <t>Portunus trituberculatus</t>
+  </si>
+  <si>
+    <t>미분류</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>갑각은 옆으로 퍼진 마름모꼴이다.이마에 3개의 돌기가 있으며 가운데 돌기는 아래쪽으로 휘어져 있다.갑각의 어깨에는 9개의 톱니모양 이가 있는데, 끝에난 이는 크고 날카로우며 옆으로튀어나왔다.집게다리는 크고 억셈, 긴마디 앞모서리에 4개의 날카로운 나시가 있다.마지막 다리의 끝부분은 넓적해서 헤엄치기에 알맞다.다리수는 5쌍이다.</t>
+  </si>
+  <si>
+    <t>성숙체장은 11,0cm (갑폭)이다</t>
+  </si>
+  <si>
+    <t>우리나라 서·남해, 일본 북해도 이남, 발해, 황해, 동중국해</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>한국, 중국, 일본, 대만</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>수심 2~110m 연안해역의 모래나 모래진흙에서 서식한다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Batillus cornutus</t>
+  </si>
+  <si>
+    <t>복족류</t>
+  </si>
+  <si>
+    <t>패각은 방추형, 나탑은 높은 원추형, 나층은 7층, 각 층은 둥글게 부풀고 봉합은 매우 깊고 명확하다. 체층에는 5줄 내외의 굵고 낮은 나륵이 있는데 이 중 견각과 주연을 이루는 나륵에는 대단히 크고 긴 가시모양의 관상돌기가 있다. 각저는 약간 팽윤되어 있고 2~3줄의 나륵이 있으나 융기선이 낮아서 명확치 않다. 패각 전면에는 낮고 세밀한 판상의 성장맥이 있어 표면은 거칠고 광택이 없다. 패각 표면은 갈색 또는 녹갈색을 띈다. 각구는 둥글고 외순은 얇으며 내면은 백색으로 진주광택이 난다. 뚜껑은 석회질로 둥글고 소선형으로 표면에는 돌기가 밀생하는데 어떤 돌기는 짧고 얕으나 중낭에 있는 돌기는 길고 분지되어 있다. 우리나라에 서식하는 소라는 관상돌기의 줄 수가 2줄이다.</t>
+  </si>
+  <si>
+    <t>한국, 일본(홋카이도 남부, 혼슈우, 시코쿠, 큐우슈우, 카메키쇼, 이주오오시마, 쿠모미, 칸토, 세토 내해, 토오시마, 쵸시), 중국, 대만, 홍콩</t>
+  </si>
+  <si>
+    <t>각고 32.5mm, 각폭 22.6mm</t>
+  </si>
+  <si>
+    <t>조간대로부터 수심 20m 사이의 바위에 붙어 서식한다.</t>
+  </si>
+  <si>
+    <t>Linuparus trigonus</t>
+  </si>
+  <si>
+    <t>갑각류-십각류</t>
+  </si>
+  <si>
+    <t>두흉갑 등면의 윤곽은 직사각형이고, 뚜렷한 목홈으로서 앞 뒤로 나누어지며 목홈 뒤의 두흉갑 등면에는 등 정중선과 양 옆면에 3줄의 마루가 있다. 이마뿔은 편평한 삼각형판 2개로 되어 있고, 각 2개의 이를 가진다. 더듬이는 매우 굵고 길다. 꼬리부채를 이루는 꼬리다리와 꼬리마디는 편평하고 잎모양을 이룬다. 큰 턱은 매우 억세게 생겼으며 수염은 짧고 3개의 마디로 되어 있다. 첫번째 가슴다리는 가슴다리 중에서 가장 굵고 짧다. 수컷의 생식공은 다섯번째 가슴다리의 바닥마디에서 안쪽으로 돌출한 돌기에 열려있다. 이 생식공에는 2개의 판막이 있어 집게모양을 이룬다. 첫번째 배마디에는 배다리가 없으며, 두번째~다섯번째 배마디의 배다리에는 안다리가 없고 바깥다리는 잎모양이다.</t>
+  </si>
+  <si>
+    <t>우리나라 제주도 부근에서 주로 분포한다. 동중국해, 일본의 치바현, 시마네현∼규슈의 양쪽 연안해역, 아프리카 동안과 오스트레일리아 동남연안에서도 분포한다.</t>
+  </si>
+  <si>
+    <t>주로 진흙질의 해저에 서식</t>
+  </si>
+  <si>
+    <t>전장 20cm</t>
+  </si>
+  <si>
+    <t>Chionoecetes opilio</t>
+  </si>
+  <si>
+    <t>전체적으로 둥근 삼각형을 이룬다. 배갑 위에는 작은 결절들이 흩어져 나있고 배갑의 가장자리에는 삼각형의 가시가 일렬로 늘어서 있다. 이마뿔은 배갑에서 평평하게 진출하며 가운데가 갈라져 둘로 나뉜다. 눈 주변은 넓게 파여있다. 집게다리는 대칭이며 걷는다리에 비해 짧은데, 끝마디가 앞으로 휘어져서 접었을 때 입을 향한다. 걷는다리는 길고 납작한데 가장 긴 것은 배갑 너비의 2.5배 가까이 길다. 마지막 걷는다리는 비교적 작다. 걷는다리는 평소에 눕혀두다가 사용할 때 세운다.</t>
+  </si>
+  <si>
+    <t>배갑 너비는 일반적으로 수컷은 7 cm, 암컷은 5 cm</t>
+  </si>
+  <si>
+    <t>Trichiurus lepturus</t>
+  </si>
+  <si>
+    <t>몸은 마치 리본처럼 길게 연장되어 있고 특히 꼬리지느러미는 소실되어 없다. 눈은 매우 크며 머리 등쪽 가장자리 가까이 위치한다. 양안 사이는 약간 함입되어 있다. 비공은 1쌍이다. 입은 매우 크고, 위턱의 뒤끝은 눈 뒷가장자리에 달한다. 아래턱이 위턱보다 돌출되어 있으며, 양턱 앞에는 갈고리 모양의 강한 이빨이 나있다. 등지느러미는 전새개골 위에서 시작되어 꼬리에 달한다. 가슴지느러미는 주새개골의 끝보다 약간 앞쪽에서 시작되며 45°위로 경사져 있다. 측선은 주새개골 위에서 시작되어 완만한 경사로 휘어져 있고 가슴지느러미의 후방에서 일직선 형태로 된다. 항문은 몸의 중앙부보다 앞쪽에 있고 항문 바로 뒤쪽으로 매몰된 뒷지느러미가 있어 손으로 만지면 까끌까끌하다.</t>
+  </si>
+  <si>
+    <t>전 대양의 열대, 온대 해역</t>
+  </si>
+  <si>
+    <t>대륙붕상의 전 수층에서 서식하나 주로 연안 수역에 많이 분포한다.</t>
+  </si>
+  <si>
+    <t>성장은 1년생이 두동장 12cm, 3년생 28cm, 5년생 40cm 정도이며, 최대 150cm 까지 성장한다.</t>
+  </si>
+  <si>
+    <t>Larimichthys polyactis</t>
+  </si>
+  <si>
+    <t>후두부에 골질돌기가 없다. 뒷지느러미는 기저의 길이가 짧고, 2극 9~10연조이다. 아래턱에는 어떠한 수염도 없다. 아래턱의 배쪽 앞부분에는 6개의 감각공이 있다. 아래턱의 내열치가 외열치보다 크다. 등지느러미와 뒷지느러미 연조부의 기저에서 2/3 지점까지 비늘이 덮고 있다.</t>
+  </si>
+  <si>
+    <t>북서태평양 (한국, 일본 남부, 동중국해, 대만)</t>
+  </si>
+  <si>
+    <t>연안성 어류로 수심 40∼200m 의 바닥이 모래나 펄인 해역에 서식한다.</t>
+  </si>
+  <si>
+    <t>1년이면 전장 15cm, 2년이면 24cm,3년이면 29cm,4년이면, 33cm, 5년이면 35cm까지 성장한다. 체장 40cm.</t>
+  </si>
+  <si>
+    <t>Meretrix lusoria</t>
+  </si>
+  <si>
+    <t>흰빛을 띤 잿빛 갈색에 붉은 갈색의 세로무늬가 있고 매끄러우며 안쪽은 희다.</t>
+  </si>
+  <si>
+    <t>껍데기는 길이가 8.5cm, 높이가 6.5cm, 폭이 4cm 정도이다.</t>
+  </si>
+  <si>
+    <t>Cynoglossus robustus</t>
+  </si>
+  <si>
+    <t>몸은 심하게 측편되어 있고, 눈이 있는 쪽은 빗비늘, 눈이 없는 쪽은 둥근비늘로 덮여 있다. 눈은 작고, 두 눈 사이 간격은 동공 크기이다. 입은 아래쪽 눈을 조금 지난다. 입은 현저하게 굴곡되어 있다. 윗입술에는 돌기물이 없다. 눈이 없는 쪽은 유공측선린이 없다. 눈이 있는 쪽에는 측선린이 2줄이다.</t>
+  </si>
+  <si>
+    <t>태평양 서부(한국, 일본 남부, 동중국해, 남중국해)</t>
+  </si>
+  <si>
+    <t>부화 후 만 1년이면 체장 14cm, 2년이면 22cm, 3년이면 26cm, 4년이면 31cm 전후로 자란다.체장은 40cm.</t>
+  </si>
+  <si>
+    <t>우리나라 남해안과 서해안으로 회유해 오는 무리는 겨울철에 제주도 서방 또는 남방해역의 깊은 곳에서 월동하고봄이 되면 연안으로 이동하여 산란 또는 서식한다.</t>
+  </si>
+  <si>
+    <t>Panulirus japonicus</t>
+  </si>
+  <si>
+    <t>두흉갑이나 배의 외골격은 매우 단단하다. 머리기둥은 원기둥 모양에 가깝고 배는 납작하다. 두흉갑의 등에는 앞을 향하는 가시가 많이 있는데 이는 앞의 것일수록 크다. 이마뿔은 없고 1쌍의 앞쪽을 향한 커다란 가시가 이마에 있다. 꼬리마디는 직사각형이고 그 길이는 나비의 1.7배 정도이며 뒷가장자리 양 모퉁이는 둥그스름하다. 더듬이는 매우 굵고 길어서 몸길이의 2배 이상이며, 더듬이 자루에는 큰 가시가 채찍에는 작은 가시들이 많으며, 더듬이 자루의 안쪽 기부에는 발음기가 있다. 가슴다리는 집게를 이루지 않으며, 첫번째 가슴다리는 가슴다리 중 가장 굵고 두번째 가슴다리 보다 짧다. 두번째~다섯번째 가슴다리는 모양이 비슷하고 뒤의 것일수록 짧다.</t>
+  </si>
+  <si>
+    <t>암초성 천해종으로 우리나라 제주도 부근에서 주로 분포하며, 전 세계에서는 일본의 큐우슈우 서안해역, 대만과 이 외에 인도 태평양에 널리 분포한다.</t>
+  </si>
+  <si>
+    <t>주로 암초지대에 서식한다.</t>
+  </si>
+  <si>
+    <t>전장 30cm</t>
+  </si>
+  <si>
+    <t>Sulculus diversicolor</t>
+  </si>
+  <si>
+    <t>패각은 타원형, 나탑은 3층으로 낮다. 각정은 각장의 뒤쪽 1/5 거리에서 우측으로 치우쳐 있다. 패각은 평평하며, 체층은 갑자기 커져서 패각의 대부분을 차지한다. 패각은 적갈색 바탕에 녹갈색 띠가 각정으로부터 방사상으로 퍼져 있고 사이사이에 약한 황색무늬가 섞여 있다. 공열은 올라오지 않아 구멍만 뚫려 있고 앞에서부터 7~9개가 열려 있다. 나선맥은 어린 개체에서는 조밀한 융기선이 뚜렷하고 성장맥은 굵어서 굴곡을 이루고 있으나 성숙한 개체에서는 나선맥이나 성장맥이 모두 약해져서 거의 편평해지고 부분적으로 흔적만 남는 것도 있다. 각구는 타원형으로 내순은 폭이 거의 일정하며 외순은 약간 밖으로 굽어 있다. 패각의 내면은 회은색 바탕에 약간의 진주광택이 비친다. 공열은 7~8개가 열려 있고 성장맥이 없어 나선맥이 거칠지 않다.</t>
+  </si>
+  <si>
+    <t>한국, 일본(나가사키, 오하라)</t>
+  </si>
+  <si>
+    <t>각장 72mm, 각폭 54mm, 각고 14mm</t>
+  </si>
+  <si>
+    <t>외양에 면한 조간대의 바위에 붙어산다.</t>
+  </si>
+  <si>
+    <t>Atrina pectinata</t>
+  </si>
+  <si>
+    <t>패각은 각정이 뾰족하고 전배연은 직선, 후배연은 원호를 그리나 후연과 거의 직각을 이루고, 후연은 직선이다. 전연은 직선이나 안으로 약간 휘어들어가 각정이 앞쪽으로 굽어 있다. 표면은 회갈색으로 광택이 있고, 패각은 매우 얇다. 성장맥은 약하고 불규칙하며, 방사륵은 각정으로부터 약한 굴곡을 이루며 직선으로 뻗어 있다. 어린 개체에서는 방사륵에 가시모양의 약한 돌기가 있는 것도 있으나 성체에서는 방사륵도 약해져서 후연에서는 거의 없어진다. 이 종의 패주는 식용으로 애용하고 있다.</t>
+  </si>
+  <si>
+    <t>인도, 태평양, 동인도, 필리핀, 남동 중국해, 홍콩, 하이난, 대만, 황해, 발해, 한국, 일본(혼슈)</t>
+  </si>
+  <si>
+    <t>각장 146.9mm, 각고 296.2mm</t>
+  </si>
+  <si>
+    <t>둥근전복</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>말전복</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>왕전복</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Nordotis discus discus</t>
+  </si>
+  <si>
+    <t>패각은 장타원형, 어린 개체의 패각은 얇으나 성체의 것은 두껍고 단단하다. 각정은 각축을 중심으로 2/13 에서 우측으로 많이 치우쳐 있다. 나층은 작고 체층보다 뾰족하게 올라와 있다. 공열은 체층보다 올라와 있으며 간격이 넓은 편이고 앞쪽의 3~5개만이 열려 있다. 각구는 타원형. 외순은 좁고 안으로 말려 있다. 패각 내면은 회은색으로 진주광택을 띤다. 공열이 높고 경사면에 나선맥이 없다.</t>
+  </si>
+  <si>
+    <t>한국, 일본, 중국, 대만</t>
+  </si>
+  <si>
+    <t>각장 133mm, 각폭 97mm, 각고 42mm(최대크기: 각장 약 200mm, 전체중량 1kg)</t>
+  </si>
+  <si>
+    <t>조간대~수심 30m 바위에 붙어산다. 수온 10~23℃(적수온 15~20℃), 비중 1.020~1.035</t>
+  </si>
+  <si>
+    <t>Nordotis gigantea</t>
+  </si>
+  <si>
+    <t>패각은 타원형, 두껍고 단단하며, 등쪽이 둥글게 부풀어 올라와 있거나 편평하여 납작한 것도 있다. 각정은 각축의 뒤쪽 1/20 위치에서 오른쪽으로 약간 치우쳐 있다. 체층이 특히 발달하여 패각의 거의 대부분을 차지하고 나층은 낮고 작으며, 성체에서는 거의 달아 없어져 차체층 일부만 남아 있다. 체층의 나선맥은 25줄 내외의 융기선으로 되어 있고, 성장맥은 가늘고 균일하게 분포되어 있으며, 성장에 따라 몇 개의 층을 이룬다. 공열은 왕전복의 것보다 많고 앞쪽 4개만이 뚫려 있다. 공열의 좌측 경사면은 둥글게 팽윤되어 있고 강한 나선맥이 없이 평평하다. 패각의 표면은 적갈색, 각구의 내면은 강한 진주색 광택을 낸다. 각구의 내순은 넓으나 폭이 비교적 일정하고 외순은 두껍고 나선맥에 따라 약간의 굴곡을 보인다. 왕전복과 비슷하여 혼동하기 쉬우나 공열이 가늘고 낮으며 좌측 경사면이 낮아 구별된다.</t>
+  </si>
+  <si>
+    <t>한국, 일본(홋카이도 남부, 혼슈, 시코쿠, 큐우슈우, 세토 내해, 야마구찌, 쵸시)</t>
+  </si>
+  <si>
+    <t>각장 201mm, 각폭 97mm, 각고 53mm</t>
+  </si>
+  <si>
+    <t>조간대로부터 수심 30m 사이의 외양성 암초지대에 갈조류가 많은 곳에 산다.</t>
+  </si>
+  <si>
+    <t>Nordotis madaka</t>
+  </si>
+  <si>
+    <t>패각은 난원형, 견고하고 두꺼우며 등쪽이 불룩하게 부풀어 있다. 각정은 각축의 우후방에 치우쳐 있고 각축의 5/6 위치에 있다. 나층은 비교적 작고 낮다. 체층이 발달하여 패각의 대부분을 차지하고 공열은 굵고 높으며, 앞쪽의 4~5개만이 뚫려 있고, 패각의 좌측 경사면은 완만하고 넓고 강한 나맥선이 한 줄 있다. 패각 표면의 나맥선은 굵고, 성장맥과 교차되어 불규칙한 결절을 이룬다. 패각은 암갈색, 통상 부착물이 많이 붙어 있어 거칠게 보인다. 각구는 크고 내순은 넓으며 외순은 두껍고 강하며, 가장자리가 굴곡되어 있어 불규칙하다. 패각의 내면은 옅은 진주광택을 띤다. 경사면에 결절열이 있고 공열이 높고 거칠다.</t>
+  </si>
+  <si>
+    <t>한국 남부, 일본(홋카이도 남부, 큐우슈우, 세토 내해)</t>
+  </si>
+  <si>
+    <t>Hexagrammos otakii</t>
+  </si>
+  <si>
+    <t>체고는 낮고 몸은 측편되어 있다. 두 눈 사이는 약간 융기되어 있다. 입술이 잘 발달되어 있으며 양턱의 앞 부분에는 날카로운 송곳니가 무리지어 있고 측면에는 1줄로 나있다. 아래턱의 배쪽면에는 5쌍의 감각공이 1줄로 줄지어 있으며 새막은 협부와 연결되어 있다. 눈 윗부분에 1쌍의 촉수가 나있다. 등지느러미는 1개로 극조부와 연조부의 경계가 조금 패여 있다. 체측에는 모두 5줄의 측선이 있는데 등쪽으로 3줄이 있으며 배쪽으로 2줄이 있다. 1번째 측선은 등지느러미 연조부의 중앙 아래에서 끝난다. 몸과 머리는 작은 빗비늘로 덮여 있는데 머리 경우는 주둥이, 입술, 안전골, 안하골, 아래턱의 배쪽면만 노출되어 있다.</t>
+  </si>
+  <si>
+    <t>북서태평양 (한국, 일본, 황해, 동중국해)</t>
+  </si>
+  <si>
+    <t>부화 후 만 1년이면 체장 11∼13cm, 2년이면 17∼21cm, 3년이면 24∼29cm, 4년이면 30∼38cm로 자란다. 체장은 약 50cm</t>
+  </si>
+  <si>
+    <t>연안 정착성 어류로서 바닥이 암초지대이거나 해조류가 무성한 곳, 또는 모래와 펄이 섞인 암초지대 등연안 정착성 어류로서 바닥이 암초지대이거나 해조류가 무성한 곳, 또는 모래와 펄이 섞인 암초지대 등에 세력권을 형성한다.</t>
+  </si>
+  <si>
+    <t>Pleuronectes yokohamae</t>
+  </si>
+  <si>
+    <t>몸은 짧고 체고는 높으며 심하게 측편되어 있다. 눈은 몸의 오른쪽에 치우쳐 있으며 오른쪽 눈 윗가장자리는 등쪽 가장자리에 근접한다. 두 눈 사이는 매우 좁고 융기되어 있으며 비늘이 나타난다. 양턱에는 8∼20개의 작은 이빨이 1줄로 나타나며 아래턱이 위턱보다 돌출되어 있고, 위턱의 뒤끝은 눈 앞가장자리에 달한다. 입은 작고 약 45°경사져 있다. 새개부의 뒷가장자리는 부드럽다. 등지느러미는 동공의 중앙에서 시작되어 길게 뻗어 있으며, 가슴지느러미는 작고 주새개골의 끝보다 조금 아래쪽에서 시작된다. 몸 중앙의 측선은 일직선으로 뻗어 있지만 가슴지느러미 부위에서 등쪽으로 약간 휘어져있다. 꼬리지느러미는 수직형에 가까운 둥근형이다. 꼬리자루높이는 꼬리자루길이의 약 2배에 달한다.</t>
+  </si>
+  <si>
+    <t>북서태평양(한국, 일본, 동중국해)</t>
+  </si>
+  <si>
+    <t>부화 후 1년이면 체장 8∼10cm, 2년생 15∼20cm, 3년생은 18∼23cm 까지 성장한다.</t>
+  </si>
+  <si>
+    <t>수심 100m 이내의 사질해역에 주로 서식하며 우리 나라 전해역과 일본 훗카이도 이남, 동중국해까지 분포한다.</t>
+  </si>
+  <si>
+    <t>Theragra chalcogramma</t>
+  </si>
+  <si>
+    <t>등지느러미는 3개, 뒷지느러미는 2개로 체고는 다소 낮고 몸은 측편되어 있다. 눈은 크며 머리의 등쪽 가장자리와 접한다. 아래턱이 위턱보다 앞쪽으로 돌출되어 있으며, 아래턱의 앞끝에는 1개의 흔적적인 수염이 있다. 가슴지느러미는 비교적 길어서 제1등지느러미 기저의 뒤끝을 지나며, 꼬리지느러미는 수직형이다.</t>
+  </si>
+  <si>
+    <t>북태평양(한국 동해, 일본, 오호츠크해, 베링해, 미국 북부)</t>
+  </si>
+  <si>
+    <t>부화 후 만 1년이면 체장 10~16cm. 2년이면 14~30cm. 3년이면 20~30cm. 4년이면 26~42cm.5년이면 30~42cm로 자란다. 체장 60cm</t>
+  </si>
+  <si>
+    <t>Patinopeten yessoensis</t>
+  </si>
+  <si>
+    <t>큰가리비</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>중국(발해), 한국, 일본(홋카이도), 쿠릴열도</t>
+  </si>
+  <si>
+    <t>패각은 원형에 가까우며, 전이와 후이는 크게 발달하였다. 우각은 백색으로 약간 부풀었고, 표면에는 20줄 내외의 낮은 방사륵이 있으며, 작은 비듬모양의 조각이 있다. 좌각은 자갈색으로 표면은 거칠고 방사륵도 낮다. 부푼 정도가 낮아 평면에 가까우며, 패각의 주연은 매끈하지 못하다. 패각은 굴의 채묘에 쓰이고, 패각근은 식용한다. 패각이 대체로 둥글며 방사륵은 20줄 내외이다.</t>
+  </si>
+  <si>
+    <t>각장 113mm, 각고 114mm, 각폭(합각) 31.8mm(모패크기 : 각장 210mm)</t>
+  </si>
+  <si>
+    <t>수심 10~50m 의 모래, 자갈 바닥에 산다. 수온 -2~22℃(적수온 15~20℃), 비중 1.020~1.025.</t>
+  </si>
+  <si>
+    <t>Panopea japonica</t>
+  </si>
+  <si>
+    <t>패각은 직사각형을 하고 있으며, 전연은 둥글지만 후연은 직선에 가깝다. 껍질은 얇고 각표에는 성장륵이 있으나 불규칙하여 표면이 고르지 못하다. 패각의 전연, 후연부가 모두 열려 있다. 특히 복연 가까이에서는 성장륵이 치밀하게 나 있어 표면이 매우 거칠다. 내면은 흰색으로 주치는 작고 매우 뾰족하게 돌출해 있다. 외투선은 두께가 두꺼우며 삼각형으로 깊게 패여 있다. 직사각형 모양의 패각을 가지고 있으며, 전연부, 후연부가 모두 열려 있다.</t>
+  </si>
+  <si>
+    <t>각장 105.7mm, 각고 65.4mm, 각폭(합각) 49.7mm</t>
+  </si>
+  <si>
+    <t>동중국해, 산동, 대만, 황해, 한국, 베링해</t>
+  </si>
+  <si>
+    <t>조하대~30m 의 고운 모래나 펄에 서식한다.</t>
+  </si>
+  <si>
+    <t>Scomberomorus niphonius</t>
+  </si>
+  <si>
+    <t>체고는 낮아서 두장보다 작고 몸은 측편되어 있다. 아래턱이 위턱보다 돌출되어 있으며, 비공은 2쌍이다. 위턱의 뒤끝은 눈 뒷가장자리를 조금 지나며, 양턱에는 잘 발달된 삼각형 이빨이 1줄로 나있고, 서골과 구개골에는 융모치가 있다. 제1등지느러미는 기저의 길이가 매우 길며 바깥쪽 가장자리는 뒤쪽으로 갈수록 서서히 경사진다. 가슴지느러미 부위는 움푹 패여 있어 가슴지느러미가 최대한 몸에 밀착될 수 있다. 측선은 일직선에 가깝지만 약간 물결 모양을 하고 있으며, 측선 주위로는 분지된 가지가 없다. 몸은 매우 작은 비늘로 덮여 있다. 부레는 없다.</t>
+  </si>
+  <si>
+    <t>북서태평양 (한국, 일본, 중국, 러시아 남부)</t>
+  </si>
+  <si>
+    <t>연근해의 아표층에 서식하는 온대성 또는 아열대성 어류이다.</t>
+  </si>
+  <si>
+    <t>Octopus vulgaris</t>
+  </si>
+  <si>
+    <t>대형종으로 체형이 통통한 형이다. 팔은 단단하고 거의 같은 크기이며, 수컷의 경우 오른쪽 3번째 팔이 교접기화되어 있고 다른 팔에 비해 짧으며 교접혀는 스푼형으로 매우 작다. 각 눈의 윗부분에는 4개씩의 육질돌기가 나있다.</t>
+  </si>
+  <si>
+    <t>전세계의 온대-열대해역</t>
+  </si>
+  <si>
+    <t>최대 전장 1.3m, 최대 중량 10kg (성성숙동장 암컷 13.5cm, 수컷 9.5cm)</t>
+  </si>
+  <si>
+    <t>연안저서종으로 200m 수심까지 서식한다. 7℃ 이하의 찬물에서는 활동하지 못하며 최적수온은 20∼25℃이다.</t>
+  </si>
+  <si>
+    <t>Penaeus orientalis</t>
+  </si>
+  <si>
+    <t>이마뿔은 길고 끝부분이 위를 향하며, 윗가장자리에는 6∼9개의 이가 있고 이 부분에는 작은 강모가 나 있으며, 아랫가장자리에는 3∼6개의 작은 이들이 있다. 수컷이 암컷보다 작다. 암컷의 교접기는 앞조각과 뒷조각으로 되어있다. 앞조각은 석회질화가 잘된 돌기를 지니는데이마뿔은 길고 끝부분이 위를 향하며, 윗가장자리에는 6∼9개의 이가 있고 이 부분에는 작은 강모가 나 있으며, 아랫가장자리에는 3∼6개의 작은 이들이 있다. 수컷이 암컷보다 작다. 암컷의 교접기는 앞조각과 뒷조각으로 되어있다. 앞조각은 석회질화가 잘된 돌기를 지니는데 그 끝은 둥근 형태를 보이고 뒷조각은 2개의 옆잎으로 되어 있으며 그 윤곽은 원형에 가까우며 길이가 너비보다 조금 더 크다. 수컷 교미기의 가운데 잎은 끝이 뾰족하고 옆잎의 끝을 지난다. 옆잎 바깥면의 끝쪽에는 강모가 세로로 줄을 짓는다.</t>
+  </si>
+  <si>
+    <t>전장 15cm</t>
+  </si>
+  <si>
+    <t>우리나라 서·남해에서 분포하며, 전 세계에서는 황해, 발해만 등지의 한국과 중국의 한정된 지역에서만 분포한다.</t>
+  </si>
+  <si>
+    <t>우리나라에서는 인천, 태안, 보령, 군산, 영광, 고흥, 여수 등지에서 출현한다. 우리나라 서해안의 경우 대하는 8∼10월까지는 연안에서 서식하다 수온 10℃ 이하로 내려가는 11∼12월경에 외해로 회유를 시작하고, 이듬해 수온이 10℃ 이상으로 상승하는 4월말경에 연안으로 접안하는 월동 회유를 한다.</t>
+  </si>
+  <si>
+    <t>Konosirus punctatus</t>
+  </si>
+  <si>
+    <t>눈 주위를 기름눈꺼풀이 덮고 있지만, 동공에는 홈이 있어 노출되어 있다. 입은 비스듬히 경사지며 위턱의 뒤끝은 눈 앞가장자리를 지난다. 새개골의 가장자리는 완만한 형태이다. 등지느러미는 몸의 중앙에 위치하며 기저의 길이가 짧고 마지막 연조가 매우 길게 연장되어 꼬리지느러미 근처에까지 뻗어 있다. 가슴지느러미는 배쪽에 치우쳐 있고, 배지느러미는 등지느러미 기저의 중앙 아래에 위치한다. 머리 뒤끝에서부터 뒷지느러미 기부에 이르기까지 몸의 배쪽 정중선을 따라 수십 개의 날카로운 모비늘이 나있다 (19＋14). 몸은 비교적 큰 둥근비늘로 덮여 있으며 탈락되기 쉽고, 머리에는 비늘이 없다. 주둥이 앞 부분에는 2쌍의 비공이 위치하며 경계지점에는 얇은 막이 있다.</t>
+  </si>
+  <si>
+    <t>태평양 서부 (한국, 일본, 중국, 동중국해, 대만, 홍콩)</t>
+  </si>
+  <si>
+    <t>내만성이 강한 어종이며 일반적으로 6∼9월에는 외만에, 10∼5월에는 내만에 많이 서식한다. 서식 수심은 보통 30m 이내이다.</t>
+  </si>
+  <si>
+    <t>초기의 엽상부는 단조의 대잎꼴이고 자라면 Ecklonia 꼴의 우상열편을 가진다. 이와 같은 초년의 엽상부는 줄기의 이행부의 생장대 부분까지 썩어 없어지고 생장대는 좌우로 엇비슷하게 자라서 마치 줄기가 차상분기한 꼴로되고 각각은 복우상으로 분기한 2년째의 엽상부를 가지게 된다. 뿌리는 수지상이며 윤생하고 원주상 내지 편원이며 길이는 서식처의 수심에 따라 다르다. 긴것은 1.5m 에 달한다. 지름은 2∼3cm 이고, 중앙부가 좀 굵고 실질이다. 엽면에는 용문이 있고 가장자리에는 톱니 또는 둔두의 치상이 있다. 색은 암황갈색이며 건조하면 흑색으로 된다. 질은 혁질이다.</t>
+  </si>
+  <si>
+    <t>Eisenia bicyclis</t>
+  </si>
+  <si>
+    <t>갈조류</t>
+  </si>
+  <si>
+    <t>일본에 분포되고 우리나라에서는 울릉도에 분포한다.</t>
+  </si>
+  <si>
+    <t>크기는 1~2m 내외이다.</t>
+  </si>
+  <si>
+    <t>조하대의 바위 위에서 생육한다. 수심 5~10m 부근에서 커다란 군락을 형성한다. 수심 10m 부근에서는 감태와 혼생한다.</t>
+  </si>
+  <si>
+    <t>Ecklonia cava</t>
+  </si>
+  <si>
+    <t>부착기는 육상식물 뿌리모양을 하며, 줄기는 원주상이며 충분히 자란것은 1 m 이상 되는 것도 있다. 엽상부는 하나의 타원형에서 여러 개로 찢어진 작은 가지를 나타낸다.</t>
+  </si>
+  <si>
+    <t>독도, 동해 연안의 울릉도, 월성, 감포, 부산시 기장</t>
+  </si>
+  <si>
+    <t>독도 지역 조하대의 깊은 곳에 생육한다. 5~10 m 부근의 수심에서 많이 번무하고, 대군락을 형성한다.</t>
+  </si>
+  <si>
+    <t>Ecklonia stolonifera</t>
+  </si>
+  <si>
+    <t>줄기는 원주상이고 길이 10∼25cm, 굵기 3∼5mm 이고 실질이며 단면에는 다소 불규칙하게 배열된 2층의 점액 강도가 있다. 잎은 대상이며 길이는 30cm∼1m 또는 그 이상, 폭은 5∼30cm, 대개는 단조인데 혹은 1회 우상으로 열편을 가지는 수도 있다. 잎의 기부는 쐐기꼴이고 주름이 있으며 가장자리에는 톱니가 있다. 뿌리는 포복경을 가지고 사방으로 길게 뻗어 나서 그 끝에 새로운 엽상체를 만든다. 따라서 다수 엉켜서 큰 군락을 이룬다.</t>
+  </si>
+  <si>
+    <t>동해의 특산이며, 남해도까지 분포한다.</t>
+  </si>
+  <si>
+    <t>크기는 30~1m 정도이며, 폭은 5~30 cm 정도까지 생장한다.</t>
+  </si>
+  <si>
+    <t>저조선 부근부터 조하대의 바위 위에 단단하게 부착하여 직립한다.</t>
+  </si>
+  <si>
+    <t>Amphioctopus fangsiao</t>
+  </si>
+  <si>
+    <t>전장이 30cm 정도인 소형종으로 외투막은 난원형이다. 배면에는 미세한 담갈색의 사각형 반점이 밀생하는데 수축된 표본에서는 작은 과립으로 되어 있다. 복면은 수축표본에서는 가운데가 얕게 패여 있고 측면에는 마름모꼴의 돌기가 띄엄띄엄 있다. 안상극은 2개가 뚜렷하며, 아래에도 작은 안상극이 있다. 누두는 작고 짧으며, 누두기는 W자형, 솔막은 A(제1완 사이), B(제1,2완 사이) 및 E(제4완 사이)는 얕고 C(제2,3완 사이), D(제3,4완 사이)구역은 깊다. 완장식은 1&gt;4&gt;2=3이고 흡반은 2열이다. 좌측 제2완 배면에 반달형 무늬가 있다.</t>
+  </si>
+  <si>
+    <t>중국, 한국, 일본(홋카이도 이남)</t>
+  </si>
+  <si>
+    <t>최대 외투장 8cm, 최대 전장 30cm, 최대 중량 0.5kg</t>
+  </si>
+  <si>
+    <t>연안 저서성 종으로 조간대~50m의 바위틈에 서식하며 야행성이다.</t>
+  </si>
+  <si>
+    <t>Octopus minor</t>
+  </si>
+  <si>
+    <t>몸은 가늘고 길며, 완은 몸에 비하여 매우 가늘고 길다. 외투장이 외투폭보다 길며 몸통은 난원형을 이루며 뒤끝은 약간 뾰족하나 끝은 예리하지 않고 둥글다. 완장식은 부등장으로서 1&gt;2&gt;3이며, 솔막은 A&gt;B&gt;C&gt;D&gt;E이다. 제1완 사이(A)는 제6흡반 쌍까지 이르며, 제1완은 다른 완에 비하여 현저히 길고 굵다. 제1완이 특히 길어 전장의 85%를 차지한다.</t>
+  </si>
+  <si>
+    <t>중국, 한국, 일본, 사할린</t>
+  </si>
+  <si>
+    <t>전장 440.5mm, 외투장 53.8mm</t>
+  </si>
+  <si>
+    <t>연안의 저서성 종으로 조간대~150m 의 펄에 서식한다.</t>
+  </si>
+  <si>
+    <t>Fulvia mutica</t>
+  </si>
+  <si>
+    <t>패각의 전, 후부는 다소 편평하나 중앙부는 둥글게 부풀어져 있고 껍질은 매우 얇다. 패각 표면에는 45개 정도의 방사륵이 있고 방사구의 깊이는 얕은 편이며, 짙은 갈색의 각피모가 일렬로 배열되어 있다. 패각 내면은 분홍색을 띄고 있으며, 표면에 난 방사륵의 흔적이 내면에까지 나타나 있다. 방사륵과 성장륵을 따라 각피모가 거칠게 나 있다.</t>
+  </si>
+  <si>
+    <t>동중국해, 홍콩, 황해, 산동, 한국, 일본(아마미, 혼슈)</t>
+  </si>
+  <si>
+    <t>10~50m 사이의 모래나 펄에 서식한다.</t>
+  </si>
+  <si>
+    <t>각장 78.0mm, 각고 72.0mm, 각폭(합각) 53.8mm</t>
+  </si>
+  <si>
+    <t>Stichopus japonicus</t>
+  </si>
+  <si>
+    <t>식용 해삼류로서 어초나 암반에서 주로 저서성 규조류를 갉아먹는 개체의 경우 몸통의 색상이 붉은 계통으로 띠게 되어 홍삼이라 불리며, 퇴적물 속의 유기물을 주로 섭식하는 경우 흑갈색을 띠게 되어 해삼이라 불린다.</t>
+  </si>
+  <si>
+    <t>인공어초뿐만 아니라 우리나라 연안 암초지대에서 비교적 흔히 발견된다.</t>
+  </si>
+  <si>
+    <t>Chionoecetes japonicus</t>
+  </si>
+  <si>
+    <t>성체 갑각길이 6~7 cm</t>
+  </si>
+  <si>
+    <t>수심 480~2300 m에 서식한다.</t>
+  </si>
+  <si>
+    <t>Branchiostegus japonicus</t>
+  </si>
+  <si>
+    <t>몸은 측편형으로 머리 앞가장자리는 심하게 휘어져 있어 마치 말머리 모양을 하고 있다. 눈 바로 앞에는 2쌍의 비공이 있다. 양턱에는 비교적 작은 송곳니가 띠를 형성한다. 전새개골의 뒷가장자리는 미세한 거치를 가지며 주새개골에는 약한 2개의 가시가 있다. 등지느러미는 1개로 잘 연결되어 있으며 가슴지느러미는 뒷지느러미의 기부에 달한다. 배지느러미는 비교적 작아서 항문에 달하지 않는다. 뒷지느러미는 몸 중앙에서 시작하여 길게 뻗어 있다. 몸은 비교적 큰 사각형의 빗비늘로 덮여 있으며, 머리에는 두 눈사이의 뒤쪽, 전새개골, 주새개골에만 비늘이 있다.</t>
+  </si>
+  <si>
+    <t>태평양 서부 (한국 남부, 일본, 남중국해, 아라푸라해)</t>
+  </si>
+  <si>
+    <t>암컷보다 수컷이 성장이 좋아 암컷은 31cm, 수컷은 35cm까지 자란다. 수명은 모두 8∼9년, 수컷은 만1년이면 12cm, 2년이면 18cm, 3년이면 22cm, 4년이면 26cm, 5년이면 28cm, 6년이면 30cm, 7년이면 31cm, 8년이면 32cm로 자란다.</t>
+  </si>
+  <si>
+    <t>수심 100∼300m 의 대륙붕 해역의 사질 또는 진흙질의 바닥에 서식한다.</t>
+  </si>
+  <si>
+    <t>뿌리는 반상, 줄기는 원주상에 가깝고 복차상으로 큰 각도로 분기하며, 줄기의 상부는 다소 편원으로 되고 크기는 5∼15cm, 분화된 기포를 따로 가지지 않고 상부의 가지가 팽대하여 기포의 작용을 한다. 원래 이 종은 체형의 변화가 많아서 Yendo(1907)은 f. typica, f. babingtonii, f. japonica 로 나누었고 오카무라(1913)도 이 종이 일본에서는 한류역에만 한해서 분포하는데 한국에서는 난류역의 남해안에 번무한다는 점과 일본의 그것에 비하여 왜소형이라고 하는 것을 지적하고 있으며 히가시의 표본에서는 f. japonica 를 적응시키고 있다. 그러나 노다(1966)는 신종 Pelvatia minor 로 취급하고 있다.</t>
+  </si>
+  <si>
+    <t>일본에 분포되고, 우리나라에는 남해안 전역에 분포한다.</t>
+  </si>
+  <si>
+    <t>조간대의 암상에 군락을 이룬다.</t>
+  </si>
+  <si>
+    <t>Silvetia siliquosa</t>
+  </si>
+  <si>
+    <t>Undaria peterseniana</t>
+  </si>
+  <si>
+    <t>뿌리는 섬유상이며 줄기는 길이 5~10cm 또는 30cm 에 달하고 폭은 10~15mm, 하부는 편원이며 중앙부 이상은 편압이고 양측에서 좁은 날개가 생긴다. 줄기의 상부는 잎으로 된다. 잎은 넓은 긴 대상이며 그 기부는 쐐기꼴 또는 심장형이고 길이 1~3.5m, 폭 25~30cm이며 그 짧은 것은 긴 타원형인 것도 있다. 중대부는 좀 두터우며 미역처럼 융기하지 않으나 넓으며 더러는 폭이 10cm 쯤 되는 수도 있다. 자낭군은 중대부에 따라 하부에서 차차 상부로 형성되고 잎의 양면을 덮게 된다. 엽상부의 주름과 크기는 서식처에 따라 차가 많고 외양성은 크고 주름이 적으나 조용한 곳에 생육하는 것은 매우 번무하고 엽상부가 둥글고 주름이 많다.</t>
+  </si>
+  <si>
+    <t>일본과 우리나라의 제주도의 우도 등지에 분포한다.</t>
+  </si>
+  <si>
+    <t>점심대의 깊은 곳에 있다.</t>
+  </si>
+  <si>
+    <t>Grateloupia spp.</t>
+  </si>
+  <si>
+    <t>짧은 줄기는 넓게 확대되고 불규칙하게 분열하여 같은 모양의 열편을 가진다. 표면은 어렸을 때는 매끈하나 성숙하면 다소 촘촘하게 주름이 생긴다.</t>
+  </si>
+  <si>
+    <t>우리나라에서는 울릉도, 속초, 울진, 월성, 주문진, 고리, 영일만, 제주도, 거제도, 흑산도, 광양만 등지에 분포한다.</t>
+  </si>
+  <si>
+    <t>몸은 30 cm, 또는 그 이상이며 폭은 3~10 cm 크기이다.</t>
+  </si>
+  <si>
+    <t>Oncorhynchus keta</t>
+  </si>
+  <si>
+    <t>몸은 약간 가늘고 긴 편으로 측편되고 꼬리자루는 가늘다. 양 턱의 이빨은 송곳니 모양으로 뾰족하다. 머리는 원추형이며 주둥이는 약간 뾰족한 편이다. 배지느러미는 배의 정중앙에 위치하며, 각 지느러미에는 가시가 없다. 기름지느러미가 있다. 비늘은 비교적 크다.</t>
+  </si>
+  <si>
+    <t>우리나라 동해, 일본, 오호츠크해, 북아메리카 서부</t>
+  </si>
+  <si>
+    <t>북태평양의 표층∼수심 80m에 주로 분포한다.</t>
+  </si>
+  <si>
+    <t>부화 후 만 1년이면 체장 25cm, 2년이면 45cm, 3년이면 57cm 내외로 자란다. 전장 70cm</t>
+  </si>
+  <si>
+    <t>Hizikia fusiformis</t>
+  </si>
+  <si>
+    <t>뿌리는 섬유상근이며, 줄기는 직립, 원주상, 1회 우상분기한다. 높이는 20cm∼1m, 잎은 하부에서만 볼 수 있고 편원의 다육질이며 가장자리에 톱니가 있고 조락성이다. 중앙의 작은가지는 잎이라고도 볼 수 있으며 그 모양은 여러모로 변화한다. 혹은 짧은 곤봉상이며 꼭대기가 부풀어서 가지모양의 기포를 이루거나 혹은 중실의 원주상이고 다만 양끝이 좀 가늘게 되는것도 있다. 때로는 상부는 좀 납작하고 톱니가 있어서 잎모양을 한 것도 있다. 가지는 처음은 잎 겨드랑이에서 나고 다수의 작은가지는 나선상으로 붙었다. 자라면 기부의 잎은 없어지고 가지는 대체로 짧고 길이는 5∼10cm 쯤 된다.</t>
+  </si>
+  <si>
+    <t>일본, 동지나해에 분포되고, 우리나라에서는 동해안 주문진 이남, 서해안 장산곶에 이르기까지이며 제주도와 서남해안에서 다산된다.</t>
+  </si>
+  <si>
+    <t>조간대 하부에 큰 군락을 이룬다.</t>
+  </si>
+  <si>
+    <t>크기는 20~100cm 정도로 자란다.</t>
+  </si>
+  <si>
+    <t>Kjellmaniella crassifolia</t>
+  </si>
+  <si>
+    <t>뿌리는 섬유상이며 기부에서 윤생하고 줄기는 실질이고 미끈하다. 하부는 거의 원주상이고 차차 윗쪽은 편원으로 되고 길이 4∼6cm, 지름 10∼12mm 이다. 줄기는 이어서 넓은 긴 대잎꼴의 엽상부로 되고 엽상부의 기부는 둥글며 중대부는 전체 폭의 1/3∼1/4 쯤 되고 두껍다. 중대부의 양측에는 용문상의 무늬가 크고 노성하면 좀 불명해진다. 길이 1∼2m, 폭 20∼30cm 이다. 질은 억세고 점질이 많다.</t>
+  </si>
+  <si>
+    <t>점심대의 깊은 곳에 생육한다.</t>
+  </si>
+  <si>
+    <t>Gelidium elegans</t>
+  </si>
+  <si>
+    <t>홍조류</t>
+  </si>
+  <si>
+    <t>몸은 더러는 크게 뭉쳐서 나고 사상 또는 가는 선상이며 편압하여 특히 하부는 양 가장자리가 엷다. 4∼5회 우상으로 분기하는데 가지는 호생 또는 대생이다. 특히 어릴 때는 다소 정확하게 우상으로 분기하여 원추상으로 되나 대체로 분기는 다소 불규칙하다. 가지는 다소 굴곡하나 간혹 똑바른 것도 있다. 작은가지는 길고 짧은 것이 섞여 있고 긴 것은 단조 또는 다시 분기한다. 가지의 끝은 다 뾰족하다. 얕은 곳에 있는 것은 짧고 불규칙하게 분기하고 가지는 서로 가까이 나나 깊은 곳의 것은 길고 가지는 드물게 난다. 몸의 하부는 늘 편압되고 양 가장자리가 엷으나 상부는 더러 원주상이다.사분포자낭이 있는 작은가지는 긴 난형 또는 긴 주걱모양이고 때로는 그 작은 가지가 같은 길이로 2∼3회 우상분기하는 수가 있다. 낭과의 작은 가지는 꼭대기 아래가 팽대하고 끝은 뾰몸은 더러는 크게 뭉쳐서 나고 사상 또는 가는 선상이며 편압하여 특히 하부는 양 가장자리가 엷다. 4∼5회 우상으로 분기하는데 가지는 호생 또는 대생이다. 특히 어릴 때는 다소 정확하게 우상으로 분기하여 원추상으로 되나 대체로 분기는 다소 불규칙하다. 가지는 다소 굴곡하나 간혹 똑바른 것도 있다. 작은가지는 길고 짧은 것이 섞여 있고 긴 것은 단조 또는 다시 분기한다. 가지의 끝은 다 뾰족하다. 얕은 곳에 있는 것은 짧고 불규칙하게 분기하고 가지는 서로 가까이 나나 깊은 곳의 것은 길고 가지는 드물게 난다.몸의 하부는 늘 편압되고 양 가장자리가 엷으나 상부는 더러 원주상이다.사분포자낭이 있는 작은가지는 긴 난형 또는 긴 주걱모양이고 때로는 그 작은 가지가 같은 길이로 2∼3회 우상분기하는 수가 있다. 낭과의 작은 가지는 꼭대기 아래가 팽대하고 끝은 뾰족하거나 분기한다. 체형의 변화가 많아서 오카무라의 5변형으로 구별했다.</t>
+  </si>
+  <si>
+    <t>일본, 인도네시아, 인도양, 대서양에 분포되고, 한국의 전 연안 각지, 특히 경북 연안에 많이 난다.</t>
+  </si>
+  <si>
+    <t>생육장소는 대체로 외해에 면한 저조선 이하의 암초상이며 조류가 잘 소통이 되고 맑은 곳에 많다.</t>
+  </si>
+  <si>
+    <t>크기는 10~30cm 정도로 자란다.</t>
+  </si>
+  <si>
+    <t>부족류(이매패류)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>수심 5m 이상의 깊은 곳의 펄 바닥에 군서한다고 알려져 있다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>각장 183mm, 각폭 151mm, 각고 56mm</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>외양의 10~50m 수심에 산다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>냉수성 어류로서 수심 50~450m 되는 수층에서 수컷은 중층, 암컷은 저층에서 떼를 지어다니며 생활한다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>최대 체장 100cm, 체중 4.5kg까지 성장한다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>갑각은 전체적으로 둥근 삼각형을 이룬다. 아가미구역이 팽만이 심해 배갑의 후면이 급격히 경사진다. 배갑 위에는 작은 결절들이 흩어져 나있고 배갑의 가장자리에는 삼각형의 가시가 일렬로 늘어서 있다. 이마뿔은 배갑에서 평평하게 진출하며 가운데가 갈라져 둘로 나뉜다. 집게다리는 대칭이며 걷는다리에 비해 짧다. 걷는다리는 길고 납작하다. 같은 속의 대게와 형태적으로 유사하나 아가미구역이 부풀어 오른 정도와 이마뿔이 갈라진 형상에서 구분할 수 있다.</t>
+  </si>
+  <si>
+    <t>홋카이도, 사할린, 쿠릴열도에 분포하고 우리나라에서는 강릉 이북의 동해 연안에 분포한다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>북태평양 및 북서대서양이다. 정확히 따지면 한국의 동해안과 일본, 오호츠크 해, 베링 해협, 알류샨 열도, 알래스카, 그린란드, 메인 만, 뉴펀들랜드 섬 등지에 분포</t>
+  </si>
+  <si>
+    <t>−1~5 ℃ 정도의 낮은 수온을 선호하며 수심이 다양한 대륙붕과 대륙사면의 모래 혹은 진흙 바닥에 산다. 평균적으로 110 m의 수심에서 발견된다.</t>
+  </si>
+  <si>
+    <t>전라북도 부안군</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>NLL과 울릉도의 심해</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="10">
+  <fonts count="12" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -662,6 +1411,23 @@
       <charset val="129"/>
       <scheme val="major"/>
     </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="맑은 고딕"/>
+      <family val="2"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <name val="맑은 고딕"/>
+      <family val="3"/>
+      <charset val="129"/>
+      <scheme val="major"/>
+    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -701,12 +1467,15 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -737,9 +1506,16 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="1" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
     <cellStyle name="표준" xfId="0" builtinId="0"/>
+    <cellStyle name="하이퍼링크" xfId="1" builtinId="8"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -1051,26 +1827,26 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6859F81F-E7DF-4FE9-A44A-BB6554C98BD1}">
-  <dimension ref="A1:H65"/>
+  <dimension ref="A1:H67"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="H19" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="H22" sqref="H22"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="E11" sqref="E11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5"/>
+  <sheetFormatPr defaultColWidth="7.25" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="12.125" style="7" customWidth="1"/>
-    <col min="2" max="2" width="23.5" style="7" customWidth="1"/>
-    <col min="3" max="3" width="13.875" style="7" customWidth="1"/>
-    <col min="4" max="4" width="9" style="7"/>
-    <col min="5" max="5" width="24.5" style="7" customWidth="1"/>
-    <col min="6" max="6" width="32" style="7" customWidth="1"/>
-    <col min="7" max="7" width="46.375" style="7" customWidth="1"/>
-    <col min="8" max="8" width="59.375" style="7" customWidth="1"/>
-    <col min="9" max="16384" width="9" style="7"/>
+    <col min="1" max="1" width="11" style="7" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="26" style="7" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="16.5" style="7" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="7.125" style="7" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="255.625" style="7" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="149.625" style="7" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="214.5" style="7" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="255.625" style="7" bestFit="1" customWidth="1"/>
+    <col min="9" max="16384" width="7.25" style="7"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A1" s="9" t="s">
         <v>0</v>
       </c>
@@ -1096,651 +1872,1507 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:8">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A2" s="7" t="s">
         <v>8</v>
       </c>
       <c r="B2" s="7" t="s">
+        <v>70</v>
+      </c>
+      <c r="C2" s="7" t="s">
+        <v>71</v>
+      </c>
+      <c r="E2" s="7" t="s">
         <v>72</v>
       </c>
-      <c r="C2" s="7" t="s">
+      <c r="F2" s="7" t="s">
         <v>73</v>
       </c>
-      <c r="E2" s="7" t="s">
+      <c r="G2" s="7" t="s">
         <v>74</v>
       </c>
-      <c r="F2" s="7" t="s">
+      <c r="H2" s="7" t="s">
         <v>75</v>
       </c>
-      <c r="G2" s="7" t="s">
-        <v>76</v>
-      </c>
-      <c r="H2" s="7" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8">
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A3" s="7" t="s">
         <v>9</v>
       </c>
       <c r="B3" s="7" t="s">
+        <v>76</v>
+      </c>
+      <c r="C3" s="7" t="s">
+        <v>77</v>
+      </c>
+      <c r="E3" s="7" t="s">
         <v>78</v>
       </c>
-      <c r="C3" s="7" t="s">
+      <c r="F3" s="7" t="s">
         <v>79</v>
       </c>
-      <c r="E3" s="7" t="s">
+      <c r="G3" s="7" t="s">
         <v>80</v>
       </c>
-      <c r="F3" s="7" t="s">
+      <c r="H3" s="7" t="s">
         <v>81</v>
       </c>
-      <c r="G3" s="7" t="s">
-        <v>82</v>
-      </c>
-      <c r="H3" s="7" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" ht="17.25" thickBot="1">
+    </row>
+    <row r="4" spans="1:8" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A4" s="7" t="s">
         <v>10</v>
       </c>
       <c r="B4" s="7" t="s">
+        <v>82</v>
+      </c>
+      <c r="C4" s="7" t="s">
+        <v>83</v>
+      </c>
+      <c r="E4" s="7" t="s">
         <v>84</v>
       </c>
-      <c r="C4" s="7" t="s">
+      <c r="F4" s="7" t="s">
         <v>85</v>
       </c>
-      <c r="E4" s="7" t="s">
+      <c r="G4" s="7" t="s">
         <v>86</v>
       </c>
-      <c r="F4" s="7" t="s">
+      <c r="H4" s="7" t="s">
         <v>87</v>
       </c>
-      <c r="G4" s="7" t="s">
-        <v>88</v>
-      </c>
-      <c r="H4" s="7" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" ht="54" customHeight="1" thickBot="1">
+    </row>
+    <row r="5" spans="1:8" ht="33.75" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A5" s="7" t="s">
         <v>11</v>
       </c>
       <c r="B5" s="7" t="s">
+        <v>88</v>
+      </c>
+      <c r="C5" s="7" t="s">
+        <v>83</v>
+      </c>
+      <c r="E5" s="8" t="s">
+        <v>89</v>
+      </c>
+      <c r="F5" s="7" t="s">
+        <v>97</v>
+      </c>
+      <c r="G5" s="7" t="s">
         <v>90</v>
       </c>
-      <c r="C5" s="7" t="s">
-        <v>85</v>
-      </c>
-      <c r="E5" s="8" t="s">
+      <c r="H5" s="8" t="s">
         <v>91</v>
       </c>
-      <c r="F5" s="7" t="s">
-        <v>99</v>
-      </c>
-      <c r="G5" s="7" t="s">
-        <v>92</v>
-      </c>
-      <c r="H5" s="8" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8" ht="33.75" thickBot="1">
+    </row>
+    <row r="6" spans="1:8" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A6" s="7" t="s">
         <v>12</v>
       </c>
       <c r="B6" s="7" t="s">
+        <v>92</v>
+      </c>
+      <c r="C6" s="7" t="s">
+        <v>83</v>
+      </c>
+      <c r="E6" s="7" t="s">
+        <v>93</v>
+      </c>
+      <c r="F6" s="7" t="s">
         <v>94</v>
       </c>
-      <c r="C6" s="7" t="s">
-        <v>85</v>
-      </c>
-      <c r="E6" s="7" t="s">
+      <c r="G6" s="7" t="s">
         <v>95</v>
       </c>
-      <c r="F6" s="7" t="s">
+      <c r="H6" s="8" t="s">
         <v>96</v>
       </c>
-      <c r="G6" s="7" t="s">
-        <v>97</v>
-      </c>
-      <c r="H6" s="8" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8" ht="17.25" thickBot="1">
+    </row>
+    <row r="7" spans="1:8" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A7" s="7" t="s">
         <v>13</v>
       </c>
       <c r="B7" s="7" t="s">
+        <v>98</v>
+      </c>
+      <c r="C7" s="7" t="s">
+        <v>83</v>
+      </c>
+      <c r="E7" s="7" t="s">
+        <v>99</v>
+      </c>
+      <c r="F7" s="7" t="s">
         <v>100</v>
       </c>
-      <c r="C7" s="7" t="s">
-        <v>85</v>
-      </c>
-      <c r="E7" s="7" t="s">
+      <c r="G7" s="7" t="s">
         <v>101</v>
       </c>
-      <c r="F7" s="7" t="s">
+      <c r="H7" s="8" t="s">
         <v>102</v>
       </c>
-      <c r="G7" s="7" t="s">
-        <v>103</v>
-      </c>
-      <c r="H7" s="8" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8" ht="33.75" thickBot="1">
+    </row>
+    <row r="8" spans="1:8" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A8" s="7" t="s">
         <v>14</v>
       </c>
       <c r="B8" s="7" t="s">
+        <v>103</v>
+      </c>
+      <c r="C8" s="7" t="s">
+        <v>104</v>
+      </c>
+      <c r="E8" s="7" t="s">
         <v>105</v>
       </c>
-      <c r="C8" s="7" t="s">
+      <c r="F8" s="8" t="s">
         <v>106</v>
       </c>
-      <c r="E8" s="7" t="s">
+      <c r="G8" s="7" t="s">
         <v>107</v>
       </c>
-      <c r="F8" s="8" t="s">
+      <c r="H8" s="8" t="s">
         <v>108</v>
       </c>
-      <c r="G8" s="7" t="s">
-        <v>109</v>
-      </c>
-      <c r="H8" s="8" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8" ht="33.75" thickBot="1">
+    </row>
+    <row r="9" spans="1:8" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A9" s="7" t="s">
         <v>15</v>
       </c>
       <c r="B9" s="7" t="s">
+        <v>109</v>
+      </c>
+      <c r="C9" s="7" t="s">
+        <v>83</v>
+      </c>
+      <c r="E9" s="7" t="s">
+        <v>110</v>
+      </c>
+      <c r="F9" s="8" t="s">
         <v>111</v>
       </c>
-      <c r="C9" s="7" t="s">
-        <v>85</v>
-      </c>
-      <c r="E9" s="7" t="s">
+      <c r="G9" s="7" t="s">
         <v>112</v>
       </c>
-      <c r="F9" s="8" t="s">
+      <c r="H9" s="7" t="s">
         <v>113</v>
       </c>
-      <c r="G9" s="7" t="s">
-        <v>114</v>
-      </c>
-      <c r="H9" s="7" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8" ht="38.25" customHeight="1" thickBot="1">
+    </row>
+    <row r="10" spans="1:8" ht="33.75" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A10" s="7" t="s">
         <v>16</v>
       </c>
       <c r="B10" s="8" t="s">
+        <v>121</v>
+      </c>
+      <c r="C10" s="7" t="s">
+        <v>83</v>
+      </c>
+      <c r="E10" s="8" t="s">
+        <v>122</v>
+      </c>
+      <c r="F10" s="8" t="s">
         <v>123</v>
       </c>
-      <c r="C10" s="7" t="s">
-        <v>85</v>
-      </c>
-      <c r="E10" s="8" t="s">
+      <c r="G10" s="7" t="s">
         <v>124</v>
       </c>
-      <c r="F10" s="8" t="s">
+      <c r="H10" s="8" t="s">
         <v>125</v>
       </c>
-      <c r="G10" s="7" t="s">
-        <v>126</v>
-      </c>
-      <c r="H10" s="8" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8" ht="49.5" customHeight="1" thickBot="1">
+    </row>
+    <row r="11" spans="1:8" ht="50.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A11" s="7" t="s">
         <v>17</v>
       </c>
       <c r="B11" s="8" t="s">
+        <v>126</v>
+      </c>
+      <c r="C11" s="7" t="s">
+        <v>83</v>
+      </c>
+      <c r="E11" s="8" t="s">
+        <v>127</v>
+      </c>
+      <c r="F11" s="8" t="s">
+        <v>129</v>
+      </c>
+      <c r="G11" s="7" t="s">
         <v>128</v>
       </c>
-      <c r="C11" s="7" t="s">
-        <v>85</v>
-      </c>
-      <c r="E11" s="8" t="s">
-        <v>129</v>
-      </c>
-      <c r="F11" s="8" t="s">
-        <v>131</v>
-      </c>
-      <c r="G11" s="7" t="s">
+      <c r="H11" s="7" t="s">
         <v>130</v>
       </c>
-      <c r="H11" s="7" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8" ht="17.25" thickBot="1">
+    </row>
+    <row r="12" spans="1:8" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A12" s="7" t="s">
         <v>18</v>
       </c>
       <c r="B12" s="7" t="s">
+        <v>131</v>
+      </c>
+      <c r="C12" s="7" t="s">
+        <v>83</v>
+      </c>
+      <c r="E12" s="7" t="s">
+        <v>132</v>
+      </c>
+      <c r="F12" s="8" t="s">
         <v>133</v>
       </c>
-      <c r="C12" s="7" t="s">
-        <v>85</v>
-      </c>
-      <c r="E12" s="7" t="s">
+      <c r="G12" s="7" t="s">
         <v>134</v>
       </c>
-      <c r="F12" s="8" t="s">
+      <c r="H12" s="8" t="s">
         <v>135</v>
       </c>
-      <c r="G12" s="7" t="s">
-        <v>136</v>
-      </c>
-      <c r="H12" s="8" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8" ht="17.25" thickBot="1">
+    </row>
+    <row r="13" spans="1:8" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A13" s="7" t="s">
         <v>19</v>
       </c>
       <c r="B13" s="8" t="s">
+        <v>136</v>
+      </c>
+      <c r="C13" s="7" t="s">
+        <v>83</v>
+      </c>
+      <c r="E13" s="7" t="s">
+        <v>137</v>
+      </c>
+      <c r="F13" s="7" t="s">
         <v>138</v>
       </c>
-      <c r="C13" s="7" t="s">
-        <v>85</v>
-      </c>
-      <c r="E13" s="7" t="s">
+      <c r="G13" s="7" t="s">
         <v>139</v>
       </c>
-      <c r="F13" s="7" t="s">
+      <c r="H13" s="7" t="s">
         <v>140</v>
       </c>
-      <c r="G13" s="7" t="s">
-        <v>141</v>
-      </c>
-      <c r="H13" s="7" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8" ht="17.25" thickBot="1">
+    </row>
+    <row r="14" spans="1:8" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A14" s="7" t="s">
         <v>20</v>
       </c>
       <c r="B14" s="8" t="s">
+        <v>142</v>
+      </c>
+      <c r="C14" s="7" t="s">
+        <v>83</v>
+      </c>
+      <c r="E14" s="7" t="s">
+        <v>141</v>
+      </c>
+      <c r="F14" s="7" t="s">
+        <v>143</v>
+      </c>
+      <c r="G14" s="7" t="s">
         <v>144</v>
       </c>
-      <c r="C14" s="7" t="s">
-        <v>85</v>
-      </c>
-      <c r="E14" s="7" t="s">
-        <v>143</v>
-      </c>
-      <c r="F14" s="7" t="s">
+      <c r="H14" s="7" t="s">
         <v>145</v>
       </c>
-      <c r="G14" s="7" t="s">
-        <v>146</v>
-      </c>
-      <c r="H14" s="7" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8" ht="33.75" thickBot="1">
+    </row>
+    <row r="15" spans="1:8" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A15" s="7" t="s">
         <v>21</v>
       </c>
       <c r="B15" s="8" t="s">
+        <v>146</v>
+      </c>
+      <c r="C15" s="7" t="s">
+        <v>83</v>
+      </c>
+      <c r="E15" s="7" t="s">
+        <v>147</v>
+      </c>
+      <c r="F15" s="8" t="s">
         <v>148</v>
       </c>
-      <c r="C15" s="7" t="s">
-        <v>85</v>
-      </c>
-      <c r="E15" s="7" t="s">
+      <c r="G15" s="7" t="s">
         <v>149</v>
       </c>
-      <c r="F15" s="8" t="s">
-        <v>150</v>
-      </c>
-      <c r="G15" s="7" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="16" spans="1:8" ht="27.75" customHeight="1" thickBot="1">
+    </row>
+    <row r="16" spans="1:8" ht="50.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A16" s="7" t="s">
         <v>22</v>
       </c>
       <c r="B16" s="8" t="s">
+        <v>150</v>
+      </c>
+      <c r="C16" s="7" t="s">
+        <v>83</v>
+      </c>
+      <c r="E16" s="8" t="s">
+        <v>151</v>
+      </c>
+      <c r="F16" s="7" t="s">
         <v>152</v>
       </c>
-      <c r="C16" s="7" t="s">
-        <v>85</v>
-      </c>
-      <c r="E16" s="8" t="s">
+      <c r="G16" s="7" t="s">
         <v>153</v>
       </c>
-      <c r="F16" s="7" t="s">
+      <c r="H16" s="7" t="s">
         <v>154</v>
       </c>
-      <c r="G16" s="7" t="s">
-        <v>155</v>
-      </c>
-      <c r="H16" s="7" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="17" spans="1:8" ht="17.25" thickBot="1">
+    </row>
+    <row r="17" spans="1:8" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A17" s="7" t="s">
         <v>23</v>
       </c>
       <c r="B17" s="7" t="s">
+        <v>155</v>
+      </c>
+      <c r="C17" s="7" t="s">
+        <v>83</v>
+      </c>
+      <c r="E17" s="7" t="s">
+        <v>156</v>
+      </c>
+      <c r="F17" s="7" t="s">
         <v>157</v>
       </c>
-      <c r="C17" s="7" t="s">
-        <v>85</v>
-      </c>
-      <c r="E17" s="7" t="s">
+      <c r="G17" s="7" t="s">
+        <v>124</v>
+      </c>
+      <c r="H17" s="7" t="s">
         <v>158</v>
       </c>
-      <c r="F17" s="7" t="s">
-        <v>159</v>
-      </c>
-      <c r="G17" s="7" t="s">
-        <v>126</v>
-      </c>
-      <c r="H17" s="7" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="18" spans="1:8" ht="380.25" thickBot="1">
+    </row>
+    <row r="18" spans="1:8" ht="50.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A18" s="7" t="s">
         <v>24</v>
       </c>
       <c r="B18" s="8" t="s">
+        <v>159</v>
+      </c>
+      <c r="C18" s="7" t="s">
+        <v>83</v>
+      </c>
+      <c r="E18" s="8" t="s">
+        <v>160</v>
+      </c>
+      <c r="F18" s="8" t="s">
         <v>161</v>
       </c>
-      <c r="C18" s="7" t="s">
-        <v>85</v>
-      </c>
-      <c r="E18" s="8" t="s">
+      <c r="G18" s="8" t="s">
         <v>162</v>
       </c>
-      <c r="F18" s="8" t="s">
+      <c r="H18" s="8" t="s">
         <v>163</v>
       </c>
-      <c r="G18" s="8" t="s">
-        <v>164</v>
-      </c>
-      <c r="H18" s="8" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="19" spans="1:8" ht="17.25" thickBot="1">
+    </row>
+    <row r="19" spans="1:8" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A19" s="7" t="s">
         <v>25</v>
       </c>
       <c r="B19" s="8" t="s">
+        <v>164</v>
+      </c>
+      <c r="C19" s="7" t="s">
+        <v>83</v>
+      </c>
+      <c r="E19" s="7" t="s">
+        <v>165</v>
+      </c>
+      <c r="F19" s="7" t="s">
         <v>166</v>
       </c>
-      <c r="C19" s="7" t="s">
-        <v>85</v>
-      </c>
-      <c r="E19" s="7" t="s">
+      <c r="G19" s="7" t="s">
         <v>167</v>
       </c>
-      <c r="F19" s="7" t="s">
+      <c r="H19" s="7" t="s">
         <v>168</v>
       </c>
-      <c r="G19" s="7" t="s">
-        <v>169</v>
-      </c>
-      <c r="H19" s="7" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="20" spans="1:8">
+    </row>
+    <row r="20" spans="1:8" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A20" s="7" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="21" spans="1:8">
+      <c r="B20" s="7" t="s">
+        <v>169</v>
+      </c>
+      <c r="C20" s="7" t="s">
+        <v>83</v>
+      </c>
+      <c r="E20" s="7" t="s">
+        <v>170</v>
+      </c>
+      <c r="F20" s="8" t="s">
+        <v>171</v>
+      </c>
+      <c r="G20" s="7" t="s">
+        <v>172</v>
+      </c>
+      <c r="H20" s="7" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A21" s="7" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="22" spans="1:8">
+      <c r="B21" s="8" t="s">
+        <v>174</v>
+      </c>
+      <c r="C21" s="7" t="s">
+        <v>83</v>
+      </c>
+      <c r="E21" s="7" t="s">
+        <v>175</v>
+      </c>
+      <c r="F21" s="7" t="s">
+        <v>176</v>
+      </c>
+      <c r="G21" s="7" t="s">
+        <v>178</v>
+      </c>
+      <c r="H21" s="7" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" ht="33.75" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A22" s="7" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="23" spans="1:8">
+      <c r="B22" s="8" t="s">
+        <v>179</v>
+      </c>
+      <c r="C22" s="7" t="s">
+        <v>83</v>
+      </c>
+      <c r="E22" s="8" t="s">
+        <v>181</v>
+      </c>
+      <c r="F22" s="7" t="s">
+        <v>180</v>
+      </c>
+      <c r="G22" s="7" t="s">
+        <v>183</v>
+      </c>
+      <c r="H22" s="8" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A23" s="7" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="24" spans="1:8">
+      <c r="B23" s="7" t="s">
+        <v>184</v>
+      </c>
+      <c r="C23" s="7" t="s">
+        <v>186</v>
+      </c>
+      <c r="E23" s="7" t="s">
+        <v>185</v>
+      </c>
+      <c r="F23" s="8" t="s">
+        <v>188</v>
+      </c>
+      <c r="G23" s="8" t="s">
+        <v>189</v>
+      </c>
+      <c r="H23" s="7" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A24" s="7" t="s">
         <v>30</v>
       </c>
-    </row>
-    <row r="25" spans="1:8">
+      <c r="B24" s="8" t="s">
+        <v>190</v>
+      </c>
+      <c r="C24" s="7" t="s">
+        <v>191</v>
+      </c>
+      <c r="E24" s="7" t="s">
+        <v>192</v>
+      </c>
+      <c r="F24" s="7" t="s">
+        <v>193</v>
+      </c>
+      <c r="G24" s="7" t="s">
+        <v>194</v>
+      </c>
+      <c r="H24" s="7" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A25" s="7" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="26" spans="1:8">
+      <c r="B25" s="8" t="s">
+        <v>196</v>
+      </c>
+      <c r="C25" s="7" t="s">
+        <v>83</v>
+      </c>
+      <c r="E25" s="8" t="s">
+        <v>197</v>
+      </c>
+      <c r="F25" s="7" t="s">
+        <v>198</v>
+      </c>
+      <c r="G25" s="7" t="s">
+        <v>199</v>
+      </c>
+      <c r="H25" s="7" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A26" s="7" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="27" spans="1:8">
+      <c r="B26" s="8" t="s">
+        <v>201</v>
+      </c>
+      <c r="C26" s="7" t="s">
+        <v>202</v>
+      </c>
+      <c r="E26" s="7" t="s">
+        <v>203</v>
+      </c>
+      <c r="F26" s="7" t="s">
+        <v>221</v>
+      </c>
+      <c r="G26" s="7" t="s">
+        <v>204</v>
+      </c>
+      <c r="H26" s="7" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A27" s="7" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="28" spans="1:8">
+      <c r="B27" s="8" t="s">
+        <v>206</v>
+      </c>
+      <c r="C27" s="7" t="s">
+        <v>83</v>
+      </c>
+      <c r="E27" s="7" t="s">
+        <v>207</v>
+      </c>
+      <c r="F27" s="8" t="s">
+        <v>208</v>
+      </c>
+      <c r="G27" s="7" t="s">
+        <v>209</v>
+      </c>
+      <c r="H27" s="7" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A28" s="7" t="s">
         <v>34</v>
       </c>
-    </row>
-    <row r="29" spans="1:8">
+      <c r="B28" s="7" t="s">
+        <v>211</v>
+      </c>
+      <c r="C28" s="7" t="s">
+        <v>212</v>
+      </c>
+      <c r="E28" s="8" t="s">
+        <v>213</v>
+      </c>
+      <c r="F28" s="8" t="s">
+        <v>214</v>
+      </c>
+      <c r="G28" s="7" t="s">
+        <v>216</v>
+      </c>
+      <c r="H28" s="8" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A29" s="7" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="30" spans="1:8">
+      <c r="B29" s="7" t="s">
+        <v>217</v>
+      </c>
+      <c r="C29" s="7" t="s">
+        <v>218</v>
+      </c>
+      <c r="E29" s="7" t="s">
+        <v>219</v>
+      </c>
+      <c r="F29" s="8" t="s">
+        <v>222</v>
+      </c>
+      <c r="G29" s="7" t="s">
+        <v>220</v>
+      </c>
+      <c r="H29" s="7" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A30" s="7" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="31" spans="1:8">
+      <c r="B30" s="8" t="s">
+        <v>224</v>
+      </c>
+      <c r="C30" s="7" t="s">
+        <v>225</v>
+      </c>
+      <c r="E30" s="7" t="s">
+        <v>226</v>
+      </c>
+      <c r="F30" s="7" t="s">
+        <v>227</v>
+      </c>
+      <c r="G30" s="7" t="s">
+        <v>228</v>
+      </c>
+      <c r="H30" s="7" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A31" s="7" t="s">
         <v>37</v>
       </c>
-    </row>
-    <row r="32" spans="1:8">
+      <c r="B31" s="7" t="s">
+        <v>230</v>
+      </c>
+      <c r="C31" s="7" t="s">
+        <v>231</v>
+      </c>
+      <c r="E31" s="7" t="s">
+        <v>232</v>
+      </c>
+      <c r="F31" s="7" t="s">
+        <v>233</v>
+      </c>
+      <c r="G31" s="7" t="s">
+        <v>235</v>
+      </c>
+      <c r="H31" s="8" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A32" s="7" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="33" spans="1:1">
+      <c r="B32" s="7" t="s">
+        <v>236</v>
+      </c>
+      <c r="C32" s="7" t="s">
+        <v>191</v>
+      </c>
+      <c r="E32" s="7" t="s">
+        <v>237</v>
+      </c>
+      <c r="F32" s="7" t="s">
+        <v>410</v>
+      </c>
+      <c r="G32" s="7" t="s">
+        <v>238</v>
+      </c>
+      <c r="H32" s="7" t="s">
+        <v>411</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A33" s="7" t="s">
         <v>39</v>
       </c>
-    </row>
-    <row r="34" spans="1:1">
+      <c r="B33" s="7" t="s">
+        <v>239</v>
+      </c>
+      <c r="C33" s="7" t="s">
+        <v>83</v>
+      </c>
+      <c r="E33" s="7" t="s">
+        <v>240</v>
+      </c>
+      <c r="F33" s="7" t="s">
+        <v>241</v>
+      </c>
+      <c r="G33" s="7" t="s">
+        <v>243</v>
+      </c>
+      <c r="H33" s="7" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A34" s="7" t="s">
         <v>40</v>
       </c>
-    </row>
-    <row r="35" spans="1:1">
+      <c r="B34" s="8" t="s">
+        <v>244</v>
+      </c>
+      <c r="C34" s="7" t="s">
+        <v>83</v>
+      </c>
+      <c r="E34" s="8" t="s">
+        <v>245</v>
+      </c>
+      <c r="F34" s="8" t="s">
+        <v>246</v>
+      </c>
+      <c r="G34" s="7" t="s">
+        <v>248</v>
+      </c>
+      <c r="H34" s="7" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A35" s="7" t="s">
         <v>41</v>
       </c>
-    </row>
-    <row r="36" spans="1:1">
+      <c r="B35" s="7" t="s">
+        <v>249</v>
+      </c>
+      <c r="C35" s="7" t="s">
+        <v>77</v>
+      </c>
+      <c r="E35" s="7" t="s">
+        <v>250</v>
+      </c>
+      <c r="F35" s="7" t="s">
+        <v>412</v>
+      </c>
+      <c r="G35" s="7" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A36" s="7" t="s">
         <v>42</v>
       </c>
-    </row>
-    <row r="37" spans="1:1">
+      <c r="B36" s="8" t="s">
+        <v>252</v>
+      </c>
+      <c r="C36" s="7" t="s">
+        <v>83</v>
+      </c>
+      <c r="E36" s="7" t="s">
+        <v>253</v>
+      </c>
+      <c r="F36" s="7" t="s">
+        <v>254</v>
+      </c>
+      <c r="G36" s="7" t="s">
+        <v>255</v>
+      </c>
+      <c r="H36" s="7" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8" ht="50.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A37" s="7" t="s">
         <v>43</v>
       </c>
-    </row>
-    <row r="38" spans="1:1">
+      <c r="B37" s="7" t="s">
+        <v>257</v>
+      </c>
+      <c r="C37" s="7" t="s">
+        <v>231</v>
+      </c>
+      <c r="E37" s="8" t="s">
+        <v>258</v>
+      </c>
+      <c r="F37" s="8" t="s">
+        <v>259</v>
+      </c>
+      <c r="G37" s="8" t="s">
+        <v>261</v>
+      </c>
+      <c r="H37" s="7" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="38" spans="1:8" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A38" s="7" t="s">
         <v>44</v>
       </c>
-    </row>
-    <row r="39" spans="1:1">
+      <c r="B38" s="7" t="s">
+        <v>262</v>
+      </c>
+      <c r="C38" s="7" t="s">
+        <v>225</v>
+      </c>
+      <c r="E38" s="7" t="s">
+        <v>263</v>
+      </c>
+      <c r="F38" s="7" t="s">
+        <v>264</v>
+      </c>
+      <c r="G38" s="7" t="s">
+        <v>265</v>
+      </c>
+      <c r="H38" s="8" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="39" spans="1:8" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A39" s="7" t="s">
         <v>45</v>
       </c>
-    </row>
-    <row r="40" spans="1:1">
+      <c r="B39" s="7" t="s">
+        <v>267</v>
+      </c>
+      <c r="C39" s="7" t="s">
+        <v>402</v>
+      </c>
+      <c r="E39" s="7" t="s">
+        <v>268</v>
+      </c>
+      <c r="F39" s="8" t="s">
+        <v>269</v>
+      </c>
+      <c r="G39" s="7" t="s">
+        <v>270</v>
+      </c>
+      <c r="H39" s="7" t="s">
+        <v>403</v>
+      </c>
+    </row>
+    <row r="40" spans="1:8" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A40" s="7" t="s">
+        <v>271</v>
+      </c>
+      <c r="B40" s="8" t="s">
+        <v>274</v>
+      </c>
+      <c r="C40" s="7" t="s">
+        <v>225</v>
+      </c>
+      <c r="E40" s="7" t="s">
+        <v>275</v>
+      </c>
+      <c r="F40" s="7" t="s">
+        <v>276</v>
+      </c>
+      <c r="G40" s="7" t="s">
+        <v>277</v>
+      </c>
+      <c r="H40" s="8" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="41" spans="1:8" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A41" s="7" t="s">
+        <v>272</v>
+      </c>
+      <c r="B41" s="7" t="s">
+        <v>279</v>
+      </c>
+      <c r="C41" s="7" t="s">
+        <v>225</v>
+      </c>
+      <c r="E41" s="7" t="s">
+        <v>280</v>
+      </c>
+      <c r="F41" s="7" t="s">
+        <v>281</v>
+      </c>
+      <c r="G41" s="8" t="s">
+        <v>282</v>
+      </c>
+      <c r="H41" s="8" t="s">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="42" spans="1:8" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A42" s="7" t="s">
+        <v>273</v>
+      </c>
+      <c r="B42" s="7" t="s">
+        <v>284</v>
+      </c>
+      <c r="C42" s="7" t="s">
+        <v>225</v>
+      </c>
+      <c r="E42" s="7" t="s">
+        <v>285</v>
+      </c>
+      <c r="F42" s="8" t="s">
+        <v>286</v>
+      </c>
+      <c r="G42" s="8" t="s">
+        <v>404</v>
+      </c>
+      <c r="H42" s="7" t="s">
+        <v>405</v>
+      </c>
+    </row>
+    <row r="43" spans="1:8" ht="50.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A43" s="7" t="s">
         <v>46</v>
       </c>
-    </row>
-    <row r="41" spans="1:1">
-      <c r="A41" s="7" t="s">
+      <c r="B43" s="7" t="s">
+        <v>287</v>
+      </c>
+      <c r="C43" s="7" t="s">
+        <v>83</v>
+      </c>
+      <c r="E43" s="8" t="s">
+        <v>288</v>
+      </c>
+      <c r="F43" s="7" t="s">
+        <v>289</v>
+      </c>
+      <c r="G43" s="8" t="s">
+        <v>290</v>
+      </c>
+      <c r="H43" s="7" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="44" spans="1:8" ht="50.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A44" s="7" t="s">
         <v>47</v>
       </c>
-    </row>
-    <row r="42" spans="1:1">
-      <c r="A42" s="7" t="s">
+      <c r="B44" s="7" t="s">
+        <v>292</v>
+      </c>
+      <c r="C44" s="7" t="s">
+        <v>83</v>
+      </c>
+      <c r="E44" s="8" t="s">
+        <v>293</v>
+      </c>
+      <c r="F44" s="8" t="s">
+        <v>294</v>
+      </c>
+      <c r="G44" s="8" t="s">
+        <v>295</v>
+      </c>
+      <c r="H44" s="7" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="45" spans="1:8" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A45" s="7" t="s">
         <v>48</v>
       </c>
-    </row>
-    <row r="43" spans="1:1">
-      <c r="A43" s="7" t="s">
+      <c r="B45" s="7" t="s">
+        <v>297</v>
+      </c>
+      <c r="C45" s="7" t="s">
+        <v>83</v>
+      </c>
+      <c r="E45" s="7" t="s">
+        <v>298</v>
+      </c>
+      <c r="F45" s="8" t="s">
+        <v>299</v>
+      </c>
+      <c r="G45" s="8" t="s">
+        <v>300</v>
+      </c>
+      <c r="H45" s="8" t="s">
+        <v>406</v>
+      </c>
+    </row>
+    <row r="46" spans="1:8" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A46" s="7" t="s">
+        <v>302</v>
+      </c>
+      <c r="B46" s="11" t="s">
+        <v>301</v>
+      </c>
+      <c r="C46" s="7" t="s">
+        <v>77</v>
+      </c>
+      <c r="E46" s="7" t="s">
+        <v>304</v>
+      </c>
+      <c r="F46" s="7" t="s">
+        <v>303</v>
+      </c>
+      <c r="G46" s="7" t="s">
+        <v>305</v>
+      </c>
+      <c r="H46" s="8" t="s">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="47" spans="1:8" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A47" s="7" t="s">
         <v>49</v>
       </c>
-    </row>
-    <row r="44" spans="1:1">
-      <c r="A44" s="7" t="s">
+      <c r="B47" s="7" t="s">
+        <v>307</v>
+      </c>
+      <c r="C47" s="7" t="s">
+        <v>77</v>
+      </c>
+      <c r="E47" s="7" t="s">
+        <v>308</v>
+      </c>
+      <c r="F47" s="7" t="s">
+        <v>310</v>
+      </c>
+      <c r="G47" s="7" t="s">
+        <v>309</v>
+      </c>
+      <c r="H47" s="8" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="48" spans="1:8" ht="33.75" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A48" s="7" t="s">
         <v>50</v>
       </c>
-    </row>
-    <row r="45" spans="1:1">
-      <c r="A45" s="7" t="s">
+      <c r="B48" s="7" t="s">
+        <v>312</v>
+      </c>
+      <c r="C48" s="7" t="s">
+        <v>83</v>
+      </c>
+      <c r="E48" s="8" t="s">
+        <v>313</v>
+      </c>
+      <c r="F48" s="7" t="s">
+        <v>314</v>
+      </c>
+      <c r="G48" s="7" t="s">
+        <v>407</v>
+      </c>
+      <c r="H48" s="7" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="49" spans="1:8" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A49" s="7" t="s">
         <v>51</v>
       </c>
-    </row>
-    <row r="46" spans="1:1">
-      <c r="A46" s="7" t="s">
+      <c r="B49" s="8" t="s">
+        <v>316</v>
+      </c>
+      <c r="C49" s="7" t="s">
+        <v>104</v>
+      </c>
+      <c r="E49" s="7" t="s">
+        <v>317</v>
+      </c>
+      <c r="F49" s="7" t="s">
+        <v>318</v>
+      </c>
+      <c r="G49" s="8" t="s">
+        <v>319</v>
+      </c>
+      <c r="H49" s="8" t="s">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="50" spans="1:8" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A50" s="7" t="s">
         <v>52</v>
       </c>
-    </row>
-    <row r="47" spans="1:1">
-      <c r="A47" s="7" t="s">
+      <c r="B50" s="8" t="s">
+        <v>321</v>
+      </c>
+      <c r="C50" s="7" t="s">
+        <v>231</v>
+      </c>
+      <c r="E50" s="7" t="s">
+        <v>322</v>
+      </c>
+      <c r="F50" s="8" t="s">
+        <v>324</v>
+      </c>
+      <c r="G50" s="8" t="s">
+        <v>323</v>
+      </c>
+      <c r="H50" s="7" t="s">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="51" spans="1:8" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A51" s="7" t="s">
         <v>53</v>
       </c>
-    </row>
-    <row r="48" spans="1:1">
-      <c r="A48" s="7" t="s">
+      <c r="B51" s="8" t="s">
+        <v>326</v>
+      </c>
+      <c r="C51" s="7" t="s">
+        <v>83</v>
+      </c>
+      <c r="E51" s="7" t="s">
+        <v>327</v>
+      </c>
+      <c r="F51" s="7" t="s">
+        <v>328</v>
+      </c>
+      <c r="G51" s="8" t="s">
+        <v>261</v>
+      </c>
+      <c r="H51" s="7" t="s">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="52" spans="1:8" ht="33.75" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A52" s="7" t="s">
         <v>54</v>
       </c>
-    </row>
-    <row r="49" spans="1:1">
-      <c r="A49" s="7" t="s">
+      <c r="B52" s="8" t="s">
+        <v>331</v>
+      </c>
+      <c r="C52" s="7" t="s">
+        <v>332</v>
+      </c>
+      <c r="E52" s="8" t="s">
+        <v>330</v>
+      </c>
+      <c r="F52" s="7" t="s">
+        <v>333</v>
+      </c>
+      <c r="G52" s="8" t="s">
+        <v>334</v>
+      </c>
+      <c r="H52" s="8" t="s">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="53" spans="1:8" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A53" s="7" t="s">
         <v>55</v>
       </c>
-    </row>
-    <row r="50" spans="1:1">
-      <c r="A50" s="7" t="s">
+      <c r="B53" s="8" t="s">
+        <v>336</v>
+      </c>
+      <c r="C53" s="7" t="s">
+        <v>332</v>
+      </c>
+      <c r="E53" s="8" t="s">
+        <v>337</v>
+      </c>
+      <c r="F53" s="7" t="s">
+        <v>338</v>
+      </c>
+      <c r="G53" s="8" t="s">
+        <v>334</v>
+      </c>
+      <c r="H53" s="7" t="s">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="54" spans="1:8" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A54" s="7" t="s">
         <v>56</v>
       </c>
-    </row>
-    <row r="51" spans="1:1">
-      <c r="A51" s="7" t="s">
+      <c r="B54" s="7" t="s">
+        <v>340</v>
+      </c>
+      <c r="C54" s="7" t="s">
+        <v>332</v>
+      </c>
+      <c r="E54" s="7" t="s">
+        <v>341</v>
+      </c>
+      <c r="F54" s="7" t="s">
+        <v>342</v>
+      </c>
+      <c r="G54" s="8" t="s">
+        <v>343</v>
+      </c>
+      <c r="H54" s="8" t="s">
+        <v>344</v>
+      </c>
+    </row>
+    <row r="55" spans="1:8" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A55" s="7" t="s">
         <v>57</v>
       </c>
-    </row>
-    <row r="52" spans="1:1">
-      <c r="A52" s="7" t="s">
+      <c r="B55" s="8" t="s">
+        <v>345</v>
+      </c>
+      <c r="C55" s="7" t="s">
+        <v>104</v>
+      </c>
+      <c r="E55" s="7" t="s">
+        <v>346</v>
+      </c>
+      <c r="F55" s="7" t="s">
+        <v>347</v>
+      </c>
+      <c r="G55" s="7" t="s">
+        <v>348</v>
+      </c>
+      <c r="H55" s="7" t="s">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="56" spans="1:8" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A56" s="7" t="s">
         <v>58</v>
       </c>
-    </row>
-    <row r="53" spans="1:1">
-      <c r="A53" s="7" t="s">
+      <c r="B56" s="8" t="s">
+        <v>350</v>
+      </c>
+      <c r="C56" s="7" t="s">
+        <v>104</v>
+      </c>
+      <c r="E56" s="7" t="s">
+        <v>351</v>
+      </c>
+      <c r="F56" s="8" t="s">
+        <v>352</v>
+      </c>
+      <c r="G56" s="7" t="s">
+        <v>353</v>
+      </c>
+      <c r="H56" s="7" t="s">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="57" spans="1:8" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A57" s="7" t="s">
         <v>59</v>
       </c>
-    </row>
-    <row r="54" spans="1:1">
-      <c r="A54" s="7" t="s">
+      <c r="B57" s="7" t="s">
+        <v>355</v>
+      </c>
+      <c r="C57" s="7" t="s">
+        <v>77</v>
+      </c>
+      <c r="E57" s="7" t="s">
+        <v>356</v>
+      </c>
+      <c r="F57" s="7" t="s">
+        <v>357</v>
+      </c>
+      <c r="G57" s="7" t="s">
+        <v>359</v>
+      </c>
+      <c r="H57" s="7" t="s">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="58" spans="1:8" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A58" s="7" t="s">
         <v>60</v>
       </c>
-    </row>
-    <row r="55" spans="1:1">
-      <c r="A55" s="7" t="s">
+      <c r="B58" s="8" t="s">
+        <v>360</v>
+      </c>
+      <c r="C58" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="E58" s="7" t="s">
+        <v>361</v>
+      </c>
+      <c r="F58" s="8" t="s">
+        <v>362</v>
+      </c>
+    </row>
+    <row r="59" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A59" s="7" t="s">
         <v>61</v>
       </c>
-    </row>
-    <row r="56" spans="1:1">
-      <c r="A56" s="7" t="s">
+      <c r="B59" s="7" t="s">
+        <v>363</v>
+      </c>
+      <c r="C59" s="7" t="s">
+        <v>191</v>
+      </c>
+      <c r="E59" s="10" t="s">
+        <v>408</v>
+      </c>
+      <c r="F59" s="7" t="s">
+        <v>413</v>
+      </c>
+      <c r="G59" s="7" t="s">
+        <v>364</v>
+      </c>
+      <c r="H59" s="7" t="s">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="60" spans="1:8" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A60" s="7" t="s">
         <v>62</v>
       </c>
-    </row>
-    <row r="57" spans="1:1">
-      <c r="A57" s="7" t="s">
+      <c r="B60" s="7" t="s">
+        <v>366</v>
+      </c>
+      <c r="C60" s="7" t="s">
+        <v>83</v>
+      </c>
+      <c r="E60" s="7" t="s">
+        <v>367</v>
+      </c>
+      <c r="F60" s="7" t="s">
+        <v>368</v>
+      </c>
+      <c r="G60" s="7" t="s">
+        <v>369</v>
+      </c>
+      <c r="H60" s="7" t="s">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="61" spans="1:8" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A61" s="7" t="s">
         <v>63</v>
       </c>
-    </row>
-    <row r="58" spans="1:1">
-      <c r="A58" s="7" t="s">
+      <c r="B61" s="8" t="s">
+        <v>374</v>
+      </c>
+      <c r="C61" s="7" t="s">
+        <v>332</v>
+      </c>
+      <c r="E61" s="7" t="s">
+        <v>371</v>
+      </c>
+      <c r="F61" s="7" t="s">
+        <v>372</v>
+      </c>
+      <c r="H61" s="7" t="s">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="62" spans="1:8" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A62" s="7" t="s">
         <v>64</v>
       </c>
-    </row>
-    <row r="59" spans="1:1">
-      <c r="A59" s="7" t="s">
+      <c r="B62" s="7" t="s">
+        <v>375</v>
+      </c>
+      <c r="C62" s="7" t="s">
+        <v>332</v>
+      </c>
+      <c r="E62" s="7" t="s">
+        <v>376</v>
+      </c>
+      <c r="F62" s="7" t="s">
+        <v>377</v>
+      </c>
+      <c r="H62" s="7" t="s">
+        <v>378</v>
+      </c>
+    </row>
+    <row r="63" spans="1:8" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A63" s="7" t="s">
         <v>65</v>
       </c>
-    </row>
-    <row r="60" spans="1:1">
-      <c r="A60" s="7" t="s">
+      <c r="B63" s="7" t="s">
+        <v>379</v>
+      </c>
+      <c r="C63" s="7" t="s">
+        <v>191</v>
+      </c>
+      <c r="E63" s="7" t="s">
+        <v>380</v>
+      </c>
+      <c r="F63" s="8" t="s">
+        <v>381</v>
+      </c>
+      <c r="G63" s="8" t="s">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="64" spans="1:8" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A64" s="7" t="s">
         <v>66</v>
       </c>
-    </row>
-    <row r="61" spans="1:1">
-      <c r="A61" s="7" t="s">
+      <c r="B64" s="8" t="s">
+        <v>383</v>
+      </c>
+      <c r="C64" s="7" t="s">
+        <v>83</v>
+      </c>
+      <c r="E64" s="7" t="s">
+        <v>384</v>
+      </c>
+      <c r="F64" s="7" t="s">
+        <v>385</v>
+      </c>
+      <c r="G64" s="7" t="s">
+        <v>387</v>
+      </c>
+      <c r="H64" s="7" t="s">
+        <v>386</v>
+      </c>
+    </row>
+    <row r="65" spans="1:8" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A65" s="7" t="s">
         <v>67</v>
       </c>
-    </row>
-    <row r="62" spans="1:1">
-      <c r="A62" s="7" t="s">
+      <c r="B65" s="7" t="s">
+        <v>388</v>
+      </c>
+      <c r="C65" s="7" t="s">
+        <v>332</v>
+      </c>
+      <c r="E65" s="7" t="s">
+        <v>389</v>
+      </c>
+      <c r="F65" s="7" t="s">
+        <v>390</v>
+      </c>
+      <c r="G65" s="7" t="s">
+        <v>392</v>
+      </c>
+      <c r="H65" s="7" t="s">
+        <v>391</v>
+      </c>
+    </row>
+    <row r="66" spans="1:8" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A66" s="7" t="s">
         <v>68</v>
       </c>
-    </row>
-    <row r="63" spans="1:1">
-      <c r="A63" s="7" t="s">
+      <c r="B66" s="7" t="s">
+        <v>393</v>
+      </c>
+      <c r="C66" s="7" t="s">
+        <v>332</v>
+      </c>
+      <c r="E66" s="7" t="s">
+        <v>394</v>
+      </c>
+      <c r="F66" s="8" t="s">
+        <v>409</v>
+      </c>
+      <c r="H66" s="7" t="s">
+        <v>395</v>
+      </c>
+    </row>
+    <row r="67" spans="1:8" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A67" s="7" t="s">
         <v>69</v>
       </c>
-    </row>
-    <row r="64" spans="1:1">
-      <c r="A64" s="7" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="65" spans="1:1">
-      <c r="A65" s="7" t="s">
-        <v>71</v>
+      <c r="B67" s="8" t="s">
+        <v>396</v>
+      </c>
+      <c r="C67" s="7" t="s">
+        <v>397</v>
+      </c>
+      <c r="E67" s="7" t="s">
+        <v>398</v>
+      </c>
+      <c r="F67" s="8" t="s">
+        <v>399</v>
+      </c>
+      <c r="G67" s="7" t="s">
+        <v>401</v>
+      </c>
+      <c r="H67" s="7" t="s">
+        <v>400</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
+  <hyperlinks>
+    <hyperlink ref="E59" r:id="rId1" tooltip="대게" display="https://namu.wiki/w/%EB%8C%80%EA%B2%8C" xr:uid="{D20DA328-6988-4675-A787-9ACA6815EF3A}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId2"/>
 </worksheet>
 </file>
 
@@ -1752,12 +3384,12 @@
       <selection activeCell="E12" sqref="E12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5"/>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="16.875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" s="6" t="s">
         <v>0</v>
       </c>
@@ -1765,34 +3397,34 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:2">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B2" s="2" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B3" s="2" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B4" s="2" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B5" s="2" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B6" s="2" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B7" s="2" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
     </row>
   </sheetData>
@@ -1809,30 +3441,30 @@
       <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5"/>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="3" max="3" width="12.375" customWidth="1"/>
     <col min="5" max="6" width="13.75" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" s="5" t="s">
+        <v>114</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>115</v>
+      </c>
+      <c r="C1" s="4" t="s">
         <v>116</v>
       </c>
-      <c r="B1" s="4" t="s">
+      <c r="D1" s="4" t="s">
         <v>117</v>
       </c>
-      <c r="C1" s="4" t="s">
+      <c r="E1" s="4" t="s">
         <v>118</v>
       </c>
-      <c r="D1" s="4" t="s">
+      <c r="F1" s="4" t="s">
         <v>119</v>
-      </c>
-      <c r="E1" s="4" t="s">
-        <v>120</v>
-      </c>
-      <c r="F1" s="4" t="s">
-        <v>121</v>
       </c>
     </row>
   </sheetData>
@@ -1849,17 +3481,17 @@
       <selection activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5"/>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="2" max="2" width="13.25" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" s="3" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
     </row>
   </sheetData>
@@ -1876,14 +3508,14 @@
       <selection activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5"/>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="14.75" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1" s="3" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
     </row>
   </sheetData>

--- a/설계/DB/어류 데이터베이스.xlsx
+++ b/설계/DB/어류 데이터베이스.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23801"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23901"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\FishDic\설계\DB\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ED7563E3-2196-4A2C-9569-7EA3773F6248}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9AE55E1D-1659-414D-8ED4-71D953441103}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{452F07AA-5EAA-4817-B43C-48B61E7F79A8}"/>
+    <workbookView xWindow="720" yWindow="1215" windowWidth="22215" windowHeight="13005" xr2:uid="{452F07AA-5EAA-4817-B43C-48B61E7F79A8}"/>
   </bookViews>
   <sheets>
     <sheet name="어류 테이블" sheetId="1" r:id="rId1"/>
@@ -19,6 +19,13 @@
     <sheet name="특별 금지구역 관계 테이블" sheetId="3" r:id="rId4"/>
     <sheet name="특별 금지구역 테이블" sheetId="4" r:id="rId5"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">'금어기 테이블'!$A$1:$F$1</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'생물분류 테이블'!$A$1:$B$7</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'어류 테이블'!$C$1:$C$67</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">'특별 금지구역 관계 테이블'!$A$1:$B$1</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="4" hidden="1">'특별 금지구역 테이블'!$A$1:$A$1</definedName>
+  </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -1830,7 +1837,7 @@
   <dimension ref="A1:H67"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="E11" sqref="E11"/>
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="7.25" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -3367,6 +3374,7 @@
       </c>
     </row>
   </sheetData>
+  <autoFilter ref="C1:C67" xr:uid="{1D6F89B0-45F1-47A9-B5E1-EF47159AF459}"/>
   <phoneticPr fontId="1" type="noConversion"/>
   <hyperlinks>
     <hyperlink ref="E59" r:id="rId1" tooltip="대게" display="https://namu.wiki/w/%EB%8C%80%EA%B2%8C" xr:uid="{D20DA328-6988-4675-A787-9ACA6815EF3A}"/>
@@ -3381,7 +3389,7 @@
   <dimension ref="A1:B7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E12" sqref="E12"/>
+      <selection activeCell="F17" sqref="F17:F18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -3428,6 +3436,7 @@
       </c>
     </row>
   </sheetData>
+  <autoFilter ref="A1:B7" xr:uid="{552A5DDE-572F-4A14-9B49-67E50C8A40F2}"/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -3437,12 +3446,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C086C4B5-20B2-46D0-A0EB-C416BC74F84E}">
   <dimension ref="A1:F1"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
+    <col min="1" max="1" width="12.125" customWidth="1"/>
     <col min="3" max="3" width="12.375" customWidth="1"/>
     <col min="5" max="6" width="13.75" customWidth="1"/>
   </cols>
@@ -3468,6 +3476,7 @@
       </c>
     </row>
   </sheetData>
+  <autoFilter ref="A1:F1" xr:uid="{92389182-F176-48A6-8BCA-35EAECCF5E7D}"/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -3477,9 +3486,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C16E1E9C-FCDE-47C6-9B5D-6A4BC307443A}">
   <dimension ref="A1:B1"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E10" sqref="E10"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
@@ -3495,6 +3502,7 @@
       </c>
     </row>
   </sheetData>
+  <autoFilter ref="A1:B1" xr:uid="{259EE1E1-3129-4F6B-81F2-9D3E2A67A7A7}"/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -3504,9 +3512,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CBDB54CC-A3E3-4D0D-BE00-BC95561308CD}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D12" sqref="D12"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
@@ -3519,6 +3525,7 @@
       </c>
     </row>
   </sheetData>
+  <autoFilter ref="A1" xr:uid="{BF0754D3-30DE-4793-A20B-CC4314693ABE}"/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/설계/DB/어류 데이터베이스.xlsx
+++ b/설계/DB/어류 데이터베이스.xlsx
@@ -8,23 +8,23 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\FishDic\설계\DB\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{943BA428-D956-4276-8300-F1C36D5DBC31}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BB358F8E-386F-438F-82CA-56201B14A943}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="1740" windowWidth="26070" windowHeight="11385" firstSheet="2" activeTab="3" xr2:uid="{452F07AA-5EAA-4817-B43C-48B61E7F79A8}"/>
+    <workbookView xWindow="12315" yWindow="630" windowWidth="16485" windowHeight="14865" activeTab="2" xr2:uid="{452F07AA-5EAA-4817-B43C-48B61E7F79A8}"/>
   </bookViews>
   <sheets>
     <sheet name="어류 테이블" sheetId="1" r:id="rId1"/>
     <sheet name="생물분류 테이블" sheetId="5" r:id="rId2"/>
     <sheet name="금어기 테이블" sheetId="2" r:id="rId3"/>
-    <sheet name="특별 금지구역 관계 테이블" sheetId="3" r:id="rId4"/>
-    <sheet name="특별 금지구역 테이블" sheetId="4" r:id="rId5"/>
+    <sheet name="특별 금지행정 관계 테이블" sheetId="3" r:id="rId4"/>
+    <sheet name="특별 금지행정 테이블" sheetId="4" r:id="rId5"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">'금어기 테이블'!$A$1:$F$1</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">'금어기 테이블'!$A$1:$D$1</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'생물분류 테이블'!$A$1:$B$7</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'어류 테이블'!$A$1:$F$67</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">'특별 금지구역 관계 테이블'!$A$1:$B$1</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="4" hidden="1">'특별 금지구역 테이블'!$A$1:$A$1</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">'특별 금지행정 관계 테이블'!$A$1:$B$1</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="4" hidden="1">'특별 금지행정 테이블'!$A$1:$D$1</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -44,7 +44,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="553" uniqueCount="427">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="690" uniqueCount="458">
   <si>
     <t>이름(국명)</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1345,22 +1345,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>부산</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>울산</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>경남</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>전남</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>제주 추자면</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1369,10 +1353,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>강원, 경북 제외</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>유자망</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1381,11 +1361,191 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>경북</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>전 지역</t>
+    <t>특별 금지행정 ID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="9"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>특별</t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="9"/>
+        <color rgb="FF000000"/>
+        <rFont val="Helvetica"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="9"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve">금지행정 </t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="9"/>
+        <color rgb="FF000000"/>
+        <rFont val="Helvetica"/>
+        <family val="3"/>
+      </rPr>
+      <t>ID</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>강원, 경북</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>단, 강원, 경북 제외</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>부산, 울산, 경남, 전남, 제주</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>전남, 제주</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>전복류</t>
+  </si>
+  <si>
+    <t>큰가리비</t>
+  </si>
+  <si>
+    <t>둥근전복</t>
+  </si>
+  <si>
+    <t>말전복</t>
+  </si>
+  <si>
+    <t>왕전복</t>
+  </si>
+  <si>
+    <t>600g</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>항문장까지의 길이 18cm</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>21-01-01부터 3년간 17cm, 이후 20cm</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>제주에서는 7cm, 그 외 지역 5cm</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>제주 한정 4cm</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>제주 한정 7cm</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>부산, 울산, 강원, 경북, 경남 한정 18cm</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>25cm</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>26cm</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>40cm</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>21cm</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.5cm</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>6.4cm</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>35cm</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>30cm</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>5cm</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>9cm</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>11cm</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>24cm</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>18cm</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>33cm</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>15cm</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>23cm</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>20cm</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>42cm</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>7cm</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>10cm</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1393,7 +1553,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="9">
+  <fonts count="12">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1464,6 +1624,29 @@
       <charset val="129"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <u/>
+      <sz val="9"/>
+      <color rgb="FF000000"/>
+      <name val="맑은 고딕"/>
+      <family val="3"/>
+      <charset val="129"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="9"/>
+      <color rgb="FF000000"/>
+      <name val="Helvetica"/>
+      <family val="3"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="9"/>
+      <color rgb="FF000000"/>
+      <name val="Helvetica"/>
+      <family val="3"/>
+      <charset val="129"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -1487,7 +1670,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1510,6 +1693,12 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -1828,9 +2017,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6859F81F-E7DF-4FE9-A44A-BB6554C98BD1}">
   <dimension ref="A1:G67"/>
   <sheetViews>
-    <sheetView zoomScale="95" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
-    </sheetView>
+    <sheetView zoomScale="95" zoomScaleNormal="85" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="7.25" defaultRowHeight="16.5"/>
   <cols>
@@ -3188,7 +3375,7 @@
   <dimension ref="A1:B67"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A24" sqref="A24"/>
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -3207,23 +3394,23 @@
     </row>
     <row r="2" spans="1:2">
       <c r="A2" s="1" t="s">
-        <v>38</v>
+        <v>54</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>81</v>
+        <v>328</v>
       </c>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" s="1" t="s">
-        <v>31</v>
+        <v>67</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>70</v>
+        <v>328</v>
       </c>
     </row>
     <row r="4" spans="1:2">
       <c r="A4" s="1" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="B4" s="1" t="s">
         <v>328</v>
@@ -3231,7 +3418,7 @@
     </row>
     <row r="5" spans="1:2">
       <c r="A5" s="1" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="B5" s="1" t="s">
         <v>328</v>
@@ -3239,79 +3426,79 @@
     </row>
     <row r="6" spans="1:2">
       <c r="A6" s="1" t="s">
-        <v>41</v>
+        <v>53</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>81</v>
+        <v>328</v>
       </c>
     </row>
     <row r="7" spans="1:2">
       <c r="A7" s="1" t="s">
-        <v>9</v>
+        <v>62</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>81</v>
+        <v>328</v>
       </c>
     </row>
     <row r="8" spans="1:2">
       <c r="A8" s="1" t="s">
-        <v>30</v>
+        <v>66</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>81</v>
+        <v>328</v>
       </c>
     </row>
     <row r="9" spans="1:2">
       <c r="A9" s="1" t="s">
-        <v>55</v>
+        <v>42</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>328</v>
+        <v>227</v>
       </c>
     </row>
     <row r="10" spans="1:2">
       <c r="A10" s="1" t="s">
-        <v>7</v>
+        <v>51</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>70</v>
+        <v>227</v>
       </c>
     </row>
     <row r="11" spans="1:2">
       <c r="A11" s="1" t="s">
-        <v>8</v>
+        <v>36</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>75</v>
+        <v>227</v>
       </c>
     </row>
     <row r="12" spans="1:2">
       <c r="A12" s="1" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>214</v>
+        <v>81</v>
       </c>
     </row>
     <row r="13" spans="1:2">
       <c r="A13" s="1" t="s">
-        <v>57</v>
+        <v>31</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>102</v>
+        <v>70</v>
       </c>
     </row>
     <row r="14" spans="1:2">
       <c r="A14" s="1" t="s">
-        <v>63</v>
+        <v>41</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>328</v>
+        <v>81</v>
       </c>
     </row>
     <row r="15" spans="1:2">
       <c r="A15" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B15" s="1" t="s">
         <v>81</v>
@@ -3319,7 +3506,7 @@
     </row>
     <row r="16" spans="1:2">
       <c r="A16" s="1" t="s">
-        <v>11</v>
+        <v>30</v>
       </c>
       <c r="B16" s="1" t="s">
         <v>81</v>
@@ -3327,23 +3514,23 @@
     </row>
     <row r="17" spans="1:2">
       <c r="A17" s="1" t="s">
-        <v>42</v>
+        <v>7</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>227</v>
+        <v>70</v>
       </c>
     </row>
     <row r="18" spans="1:2">
       <c r="A18" s="1" t="s">
-        <v>37</v>
+        <v>10</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>188</v>
+        <v>81</v>
       </c>
     </row>
     <row r="19" spans="1:2">
       <c r="A19" s="1" t="s">
-        <v>27</v>
+        <v>11</v>
       </c>
       <c r="B19" s="1" t="s">
         <v>81</v>
@@ -3351,31 +3538,31 @@
     </row>
     <row r="20" spans="1:2">
       <c r="A20" s="1" t="s">
-        <v>13</v>
+        <v>27</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>102</v>
+        <v>81</v>
       </c>
     </row>
     <row r="21" spans="1:2">
       <c r="A21" s="1" t="s">
-        <v>51</v>
+        <v>12</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>227</v>
+        <v>81</v>
       </c>
     </row>
     <row r="22" spans="1:2">
       <c r="A22" s="1" t="s">
-        <v>53</v>
+        <v>14</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>328</v>
+        <v>81</v>
       </c>
     </row>
     <row r="23" spans="1:2">
       <c r="A23" s="1" t="s">
-        <v>12</v>
+        <v>32</v>
       </c>
       <c r="B23" s="1" t="s">
         <v>81</v>
@@ -3383,15 +3570,15 @@
     </row>
     <row r="24" spans="1:2">
       <c r="A24" s="1" t="s">
-        <v>64</v>
+        <v>47</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>188</v>
+        <v>81</v>
       </c>
     </row>
     <row r="25" spans="1:2">
       <c r="A25" s="1" t="s">
-        <v>14</v>
+        <v>46</v>
       </c>
       <c r="B25" s="1" t="s">
         <v>81</v>
@@ -3399,31 +3586,31 @@
     </row>
     <row r="26" spans="1:2">
       <c r="A26" s="1" t="s">
-        <v>267</v>
+        <v>15</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>221</v>
+        <v>81</v>
       </c>
     </row>
     <row r="27" spans="1:2">
       <c r="A27" s="1" t="s">
-        <v>62</v>
+        <v>16</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>328</v>
+        <v>81</v>
       </c>
     </row>
     <row r="28" spans="1:2">
       <c r="A28" s="1" t="s">
-        <v>268</v>
+        <v>17</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>221</v>
+        <v>81</v>
       </c>
     </row>
     <row r="29" spans="1:2">
       <c r="A29" s="1" t="s">
-        <v>32</v>
+        <v>18</v>
       </c>
       <c r="B29" s="1" t="s">
         <v>81</v>
@@ -3431,7 +3618,7 @@
     </row>
     <row r="30" spans="1:2">
       <c r="A30" s="1" t="s">
-        <v>47</v>
+        <v>19</v>
       </c>
       <c r="B30" s="1" t="s">
         <v>81</v>
@@ -3439,7 +3626,7 @@
     </row>
     <row r="31" spans="1:2">
       <c r="A31" s="1" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="B31" s="1" t="s">
         <v>81</v>
@@ -3447,7 +3634,7 @@
     </row>
     <row r="32" spans="1:2">
       <c r="A32" s="1" t="s">
-        <v>15</v>
+        <v>65</v>
       </c>
       <c r="B32" s="1" t="s">
         <v>81</v>
@@ -3455,7 +3642,7 @@
     </row>
     <row r="33" spans="1:2">
       <c r="A33" s="1" t="s">
-        <v>16</v>
+        <v>61</v>
       </c>
       <c r="B33" s="1" t="s">
         <v>81</v>
@@ -3463,7 +3650,7 @@
     </row>
     <row r="34" spans="1:2">
       <c r="A34" s="1" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="B34" s="1" t="s">
         <v>81</v>
@@ -3471,15 +3658,15 @@
     </row>
     <row r="35" spans="1:2">
       <c r="A35" s="1" t="s">
-        <v>40</v>
+        <v>52</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>75</v>
+        <v>81</v>
       </c>
     </row>
     <row r="36" spans="1:2">
       <c r="A36" s="1" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="B36" s="1" t="s">
         <v>81</v>
@@ -3487,15 +3674,15 @@
     </row>
     <row r="37" spans="1:2">
       <c r="A37" s="1" t="s">
-        <v>60</v>
+        <v>45</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>188</v>
+        <v>81</v>
       </c>
     </row>
     <row r="38" spans="1:2">
       <c r="A38" s="1" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="B38" s="1" t="s">
         <v>81</v>
@@ -3503,15 +3690,15 @@
     </row>
     <row r="39" spans="1:2">
       <c r="A39" s="1" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>410</v>
+        <v>81</v>
       </c>
     </row>
     <row r="40" spans="1:2">
       <c r="A40" s="1" t="s">
-        <v>49</v>
+        <v>39</v>
       </c>
       <c r="B40" s="1" t="s">
         <v>81</v>
@@ -3519,23 +3706,23 @@
     </row>
     <row r="41" spans="1:2">
       <c r="A41" s="1" t="s">
-        <v>58</v>
+        <v>24</v>
       </c>
       <c r="B41" s="1" t="s">
-        <v>75</v>
+        <v>81</v>
       </c>
     </row>
     <row r="42" spans="1:2">
       <c r="A42" s="1" t="s">
-        <v>35</v>
+        <v>25</v>
       </c>
       <c r="B42" s="1" t="s">
-        <v>221</v>
+        <v>81</v>
       </c>
     </row>
     <row r="43" spans="1:2">
       <c r="A43" s="1" t="s">
-        <v>65</v>
+        <v>26</v>
       </c>
       <c r="B43" s="1" t="s">
         <v>81</v>
@@ -3543,127 +3730,127 @@
     </row>
     <row r="44" spans="1:2">
       <c r="A44" s="1" t="s">
-        <v>43</v>
+        <v>57</v>
       </c>
       <c r="B44" s="1" t="s">
-        <v>221</v>
+        <v>102</v>
       </c>
     </row>
     <row r="45" spans="1:2">
       <c r="A45" s="1" t="s">
-        <v>61</v>
+        <v>13</v>
       </c>
       <c r="B45" s="1" t="s">
-        <v>81</v>
+        <v>102</v>
       </c>
     </row>
     <row r="46" spans="1:2">
       <c r="A46" s="1" t="s">
-        <v>269</v>
+        <v>28</v>
       </c>
       <c r="B46" s="1" t="s">
-        <v>221</v>
+        <v>410</v>
       </c>
     </row>
     <row r="47" spans="1:2">
       <c r="A47" s="1" t="s">
-        <v>20</v>
+        <v>56</v>
       </c>
       <c r="B47" s="1" t="s">
-        <v>81</v>
+        <v>102</v>
       </c>
     </row>
     <row r="48" spans="1:2">
       <c r="A48" s="1" t="s">
-        <v>68</v>
+        <v>50</v>
       </c>
       <c r="B48" s="1" t="s">
-        <v>393</v>
+        <v>102</v>
       </c>
     </row>
     <row r="49" spans="1:2">
       <c r="A49" s="1" t="s">
-        <v>52</v>
+        <v>34</v>
       </c>
       <c r="B49" s="1" t="s">
-        <v>81</v>
+        <v>214</v>
       </c>
     </row>
     <row r="50" spans="1:2">
       <c r="A50" s="1" t="s">
-        <v>21</v>
+        <v>37</v>
       </c>
       <c r="B50" s="1" t="s">
-        <v>81</v>
+        <v>188</v>
       </c>
     </row>
     <row r="51" spans="1:2">
       <c r="A51" s="1" t="s">
-        <v>56</v>
+        <v>64</v>
       </c>
       <c r="B51" s="1" t="s">
-        <v>102</v>
+        <v>188</v>
       </c>
     </row>
     <row r="52" spans="1:2">
       <c r="A52" s="1" t="s">
-        <v>45</v>
+        <v>60</v>
       </c>
       <c r="B52" s="1" t="s">
-        <v>81</v>
+        <v>188</v>
       </c>
     </row>
     <row r="53" spans="1:2">
       <c r="A53" s="1" t="s">
-        <v>22</v>
+        <v>29</v>
       </c>
       <c r="B53" s="1" t="s">
-        <v>81</v>
+        <v>188</v>
       </c>
     </row>
     <row r="54" spans="1:2">
       <c r="A54" s="1" t="s">
-        <v>23</v>
+        <v>267</v>
       </c>
       <c r="B54" s="1" t="s">
-        <v>81</v>
+        <v>221</v>
       </c>
     </row>
     <row r="55" spans="1:2">
       <c r="A55" s="1" t="s">
-        <v>50</v>
+        <v>268</v>
       </c>
       <c r="B55" s="1" t="s">
-        <v>102</v>
+        <v>221</v>
       </c>
     </row>
     <row r="56" spans="1:2">
       <c r="A56" s="1" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="B56" s="1" t="s">
-        <v>81</v>
+        <v>221</v>
       </c>
     </row>
     <row r="57" spans="1:2">
       <c r="A57" s="1" t="s">
-        <v>33</v>
+        <v>43</v>
       </c>
       <c r="B57" s="1" t="s">
-        <v>208</v>
+        <v>221</v>
       </c>
     </row>
     <row r="58" spans="1:2">
       <c r="A58" s="1" t="s">
-        <v>24</v>
+        <v>269</v>
       </c>
       <c r="B58" s="1" t="s">
-        <v>81</v>
+        <v>221</v>
       </c>
     </row>
     <row r="59" spans="1:2">
       <c r="A59" s="1" t="s">
-        <v>48</v>
+        <v>8</v>
       </c>
       <c r="B59" s="1" t="s">
         <v>75</v>
@@ -3671,7 +3858,7 @@
     </row>
     <row r="60" spans="1:2">
       <c r="A60" s="1" t="s">
-        <v>298</v>
+        <v>40</v>
       </c>
       <c r="B60" s="1" t="s">
         <v>75</v>
@@ -3679,64 +3866,64 @@
     </row>
     <row r="61" spans="1:2">
       <c r="A61" s="1" t="s">
-        <v>44</v>
+        <v>58</v>
       </c>
       <c r="B61" s="1" t="s">
-        <v>398</v>
+        <v>75</v>
       </c>
     </row>
     <row r="62" spans="1:2">
       <c r="A62" s="1" t="s">
-        <v>29</v>
+        <v>48</v>
       </c>
       <c r="B62" s="1" t="s">
-        <v>188</v>
+        <v>75</v>
       </c>
     </row>
     <row r="63" spans="1:2">
       <c r="A63" s="1" t="s">
-        <v>66</v>
+        <v>298</v>
       </c>
       <c r="B63" s="1" t="s">
-        <v>328</v>
+        <v>75</v>
       </c>
     </row>
     <row r="64" spans="1:2">
       <c r="A64" s="1" t="s">
-        <v>36</v>
+        <v>44</v>
       </c>
       <c r="B64" s="1" t="s">
-        <v>227</v>
+        <v>398</v>
       </c>
     </row>
     <row r="65" spans="1:2">
       <c r="A65" s="1" t="s">
-        <v>59</v>
+        <v>33</v>
       </c>
       <c r="B65" s="1" t="s">
-        <v>59</v>
+        <v>208</v>
       </c>
     </row>
     <row r="66" spans="1:2">
       <c r="A66" s="1" t="s">
-        <v>25</v>
+        <v>59</v>
       </c>
       <c r="B66" s="1" t="s">
-        <v>81</v>
+        <v>59</v>
       </c>
     </row>
     <row r="67" spans="1:2">
       <c r="A67" s="1" t="s">
-        <v>26</v>
+        <v>68</v>
       </c>
       <c r="B67" s="1" t="s">
-        <v>81</v>
+        <v>393</v>
       </c>
     </row>
   </sheetData>
   <autoFilter ref="A1:B7" xr:uid="{552A5DDE-572F-4A14-9B49-67E50C8A40F2}">
     <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:B67">
-      <sortCondition ref="A1:A7"/>
+      <sortCondition ref="B1:B7"/>
     </sortState>
   </autoFilter>
   <phoneticPr fontId="1" type="noConversion"/>
@@ -3746,15 +3933,16 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C086C4B5-20B2-46D0-A0EB-C416BC74F84E}">
-  <dimension ref="A1:F1"/>
+  <dimension ref="A1:F44"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F21" sqref="F21"/>
+    <sheetView tabSelected="1" topLeftCell="A26" workbookViewId="0">
+      <selection activeCell="F28" sqref="F28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
   <cols>
     <col min="1" max="1" width="12.125" customWidth="1"/>
+    <col min="2" max="2" width="38.875" customWidth="1"/>
     <col min="3" max="3" width="12.375" customWidth="1"/>
     <col min="5" max="6" width="13.75" customWidth="1"/>
   </cols>
@@ -3772,40 +3960,805 @@
       <c r="D1" s="3" t="s">
         <v>115</v>
       </c>
-      <c r="E1" s="3" t="s">
-        <v>116</v>
-      </c>
-      <c r="F1" s="3" t="s">
-        <v>117</v>
+      <c r="E1" s="3"/>
+      <c r="F1" s="3"/>
+    </row>
+    <row r="2" spans="1:6">
+      <c r="A2" t="s">
+        <v>38</v>
+      </c>
+      <c r="B2" t="s">
+        <v>432</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6">
+      <c r="A3" t="s">
+        <v>31</v>
+      </c>
+      <c r="B3" t="s">
+        <v>438</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6">
+      <c r="A4" t="s">
+        <v>41</v>
+      </c>
+      <c r="B4" t="s">
+        <v>439</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6">
+      <c r="A5" t="s">
+        <v>9</v>
+      </c>
+      <c r="B5" t="s">
+        <v>440</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6">
+      <c r="A6" t="s">
+        <v>30</v>
+      </c>
+      <c r="B6" t="s">
+        <v>441</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6">
+      <c r="A7" t="s">
+        <v>7</v>
+      </c>
+      <c r="B7" t="s">
+        <v>433</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6">
+      <c r="A8" t="s">
+        <v>8</v>
+      </c>
+      <c r="B8" t="s">
+        <v>442</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6">
+      <c r="A9" t="s">
+        <v>34</v>
+      </c>
+      <c r="B9" t="s">
+        <v>443</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6">
+      <c r="A10" t="s">
+        <v>10</v>
+      </c>
+      <c r="B10" t="s">
+        <v>444</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6">
+      <c r="A11" t="s">
+        <v>11</v>
+      </c>
+      <c r="B11" t="s">
+        <v>445</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6">
+      <c r="A12" t="s">
+        <v>42</v>
+      </c>
+      <c r="B12" t="s">
+        <v>446</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6">
+      <c r="A13" t="s">
+        <v>37</v>
+      </c>
+      <c r="B13" t="s">
+        <v>447</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6">
+      <c r="A14" t="s">
+        <v>27</v>
+      </c>
+      <c r="B14" t="s">
+        <v>444</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6">
+      <c r="A15" t="s">
+        <v>13</v>
+      </c>
+      <c r="C15" t="s">
+        <v>431</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6">
+      <c r="A16" t="s">
+        <v>12</v>
+      </c>
+      <c r="B16" t="s">
+        <v>448</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2">
+      <c r="A17" t="s">
+        <v>14</v>
+      </c>
+      <c r="B17" t="s">
+        <v>449</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2">
+      <c r="A18" t="s">
+        <v>32</v>
+      </c>
+      <c r="B18" t="s">
+        <v>450</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2">
+      <c r="A19" t="s">
+        <v>46</v>
+      </c>
+      <c r="B19" t="s">
+        <v>433</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2">
+      <c r="A20" t="s">
+        <v>15</v>
+      </c>
+      <c r="B20" t="s">
+        <v>440</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2">
+      <c r="A21" t="s">
+        <v>16</v>
+      </c>
+      <c r="B21" t="s">
+        <v>451</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2">
+      <c r="A22" t="s">
+        <v>17</v>
+      </c>
+      <c r="B22" t="s">
+        <v>445</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2">
+      <c r="A23" t="s">
+        <v>40</v>
+      </c>
+      <c r="B23" t="s">
+        <v>446</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2">
+      <c r="A24" t="s">
+        <v>18</v>
+      </c>
+      <c r="B24" t="s">
+        <v>452</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2">
+      <c r="A25" t="s">
+        <v>19</v>
+      </c>
+      <c r="B25" t="s">
+        <v>444</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2">
+      <c r="A26" t="s">
+        <v>28</v>
+      </c>
+      <c r="B26" t="s">
+        <v>452</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2">
+      <c r="A27" t="s">
+        <v>35</v>
+      </c>
+      <c r="B27" t="s">
+        <v>434</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2">
+      <c r="A28" t="s">
+        <v>43</v>
+      </c>
+      <c r="B28" t="s">
+        <v>435</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2">
+      <c r="A29" t="s">
+        <v>20</v>
+      </c>
+      <c r="B29" t="s">
+        <v>433</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2">
+      <c r="A30" t="s">
+        <v>267</v>
+      </c>
+      <c r="B30" t="s">
+        <v>436</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2">
+      <c r="A31" t="s">
+        <v>268</v>
+      </c>
+      <c r="B31" t="s">
+        <v>436</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2">
+      <c r="A32" t="s">
+        <v>269</v>
+      </c>
+      <c r="B32" t="s">
+        <v>436</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2">
+      <c r="A33" t="s">
+        <v>21</v>
+      </c>
+      <c r="B33" t="s">
+        <v>453</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2">
+      <c r="A34" t="s">
+        <v>45</v>
+      </c>
+      <c r="B34" t="s">
+        <v>454</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2">
+      <c r="A35" t="s">
+        <v>22</v>
+      </c>
+      <c r="B35" t="s">
+        <v>433</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2">
+      <c r="A36" t="s">
+        <v>23</v>
+      </c>
+      <c r="B36" t="s">
+        <v>449</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2">
+      <c r="A37" t="s">
+        <v>39</v>
+      </c>
+      <c r="B37" t="s">
+        <v>452</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2">
+      <c r="A38" t="s">
+        <v>33</v>
+      </c>
+      <c r="B38" t="s">
+        <v>455</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2">
+      <c r="A39" t="s">
+        <v>24</v>
+      </c>
+      <c r="B39" t="s">
+        <v>454</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2">
+      <c r="A40" t="s">
+        <v>44</v>
+      </c>
+      <c r="B40" t="s">
+        <v>437</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2">
+      <c r="A41" t="s">
+        <v>29</v>
+      </c>
+      <c r="B41" t="s">
+        <v>456</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2">
+      <c r="A42" t="s">
+        <v>36</v>
+      </c>
+      <c r="B42" t="s">
+        <v>457</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2">
+      <c r="A43" t="s">
+        <v>25</v>
+      </c>
+      <c r="B43" t="s">
+        <v>452</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2">
+      <c r="A44" t="s">
+        <v>26</v>
+      </c>
+      <c r="B44" t="s">
+        <v>454</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:F1" xr:uid="{92389182-F176-48A6-8BCA-35EAECCF5E7D}"/>
+  <autoFilter ref="A1:D1" xr:uid="{7DE2C991-3231-40D9-B7C0-47C0877D13EE}"/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C16E1E9C-FCDE-47C6-9B5D-6A4BC307443A}">
-  <dimension ref="A1:B1"/>
+  <dimension ref="A1:B54"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D4" sqref="D4"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D25" sqref="D25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
   <cols>
-    <col min="1" max="1" width="10.875" customWidth="1"/>
-    <col min="2" max="2" width="13.25" customWidth="1"/>
+    <col min="1" max="1" width="14.25" customWidth="1"/>
+    <col min="2" max="2" width="20.75" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" s="2" t="s">
         <v>112</v>
       </c>
-      <c r="B1" s="2" t="s">
-        <v>118</v>
+      <c r="B1" s="8" t="s">
+        <v>421</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2">
+      <c r="A2" t="s">
+        <v>29</v>
+      </c>
+      <c r="B2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3" t="s">
+        <v>48</v>
+      </c>
+      <c r="B3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="A4" t="s">
+        <v>60</v>
+      </c>
+      <c r="B4">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5" t="s">
+        <v>52</v>
+      </c>
+      <c r="B5">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2">
+      <c r="A6" t="s">
+        <v>58</v>
+      </c>
+      <c r="B6">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2">
+      <c r="A7" t="s">
+        <v>34</v>
+      </c>
+      <c r="B7">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2">
+      <c r="A8" t="s">
+        <v>35</v>
+      </c>
+      <c r="B8">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2">
+      <c r="A9" t="s">
+        <v>39</v>
+      </c>
+      <c r="B9">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2">
+      <c r="A10" t="s">
+        <v>35</v>
+      </c>
+      <c r="B10">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2">
+      <c r="A11" t="s">
+        <v>63</v>
+      </c>
+      <c r="B11">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2">
+      <c r="A12" t="s">
+        <v>426</v>
+      </c>
+      <c r="B12">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2">
+      <c r="A13" t="s">
+        <v>35</v>
+      </c>
+      <c r="B13">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2">
+      <c r="A14" t="s">
+        <v>427</v>
+      </c>
+      <c r="B14">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2">
+      <c r="A15" t="s">
+        <v>38</v>
+      </c>
+      <c r="B15">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2">
+      <c r="A16" t="s">
+        <v>31</v>
+      </c>
+      <c r="B16">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2">
+      <c r="A17" t="s">
+        <v>54</v>
+      </c>
+      <c r="B17">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2">
+      <c r="A18" t="s">
+        <v>67</v>
+      </c>
+      <c r="B18">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2">
+      <c r="A19" t="s">
+        <v>41</v>
+      </c>
+      <c r="B19">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2">
+      <c r="A20" t="s">
+        <v>30</v>
+      </c>
+      <c r="B20">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2">
+      <c r="A21" t="s">
+        <v>55</v>
+      </c>
+      <c r="B21">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2">
+      <c r="A22" t="s">
+        <v>34</v>
+      </c>
+      <c r="B22">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2">
+      <c r="A23" t="s">
+        <v>57</v>
+      </c>
+      <c r="B23">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2">
+      <c r="A24" t="s">
+        <v>42</v>
+      </c>
+      <c r="B24">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2">
+      <c r="A25" t="s">
+        <v>37</v>
+      </c>
+      <c r="B25">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2">
+      <c r="A26" t="s">
+        <v>27</v>
+      </c>
+      <c r="B26">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2">
+      <c r="A27" t="s">
+        <v>51</v>
+      </c>
+      <c r="B27">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2">
+      <c r="A28" t="s">
+        <v>53</v>
+      </c>
+      <c r="B28">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2">
+      <c r="A29" t="s">
+        <v>64</v>
+      </c>
+      <c r="B29">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2">
+      <c r="A30" t="s">
+        <v>62</v>
+      </c>
+      <c r="B30">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2">
+      <c r="A31" t="s">
+        <v>32</v>
+      </c>
+      <c r="B31">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2">
+      <c r="A32" t="s">
+        <v>47</v>
+      </c>
+      <c r="B32">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2">
+      <c r="A33" t="s">
+        <v>46</v>
+      </c>
+      <c r="B33">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2">
+      <c r="A34" t="s">
+        <v>40</v>
+      </c>
+      <c r="B34">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2">
+      <c r="A35" t="s">
+        <v>60</v>
+      </c>
+      <c r="B35">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2">
+      <c r="A36" t="s">
+        <v>28</v>
+      </c>
+      <c r="B36">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2">
+      <c r="A37" t="s">
+        <v>49</v>
+      </c>
+      <c r="B37">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2">
+      <c r="A38" t="s">
+        <v>58</v>
+      </c>
+      <c r="B38">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2">
+      <c r="A39" t="s">
+        <v>65</v>
+      </c>
+      <c r="B39">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2">
+      <c r="A40" t="s">
+        <v>43</v>
+      </c>
+      <c r="B40">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2">
+      <c r="A41" t="s">
+        <v>61</v>
+      </c>
+      <c r="B41">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2">
+      <c r="A42" t="s">
+        <v>68</v>
+      </c>
+      <c r="B42">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2">
+      <c r="A43" t="s">
+        <v>428</v>
+      </c>
+      <c r="B43">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2">
+      <c r="A44" t="s">
+        <v>429</v>
+      </c>
+      <c r="B44">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2">
+      <c r="A45" t="s">
+        <v>430</v>
+      </c>
+      <c r="B45">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="46" spans="1:2">
+      <c r="A46" t="s">
+        <v>56</v>
+      </c>
+      <c r="B46">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="47" spans="1:2">
+      <c r="A47" t="s">
+        <v>45</v>
+      </c>
+      <c r="B47">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="48" spans="1:2">
+      <c r="A48" t="s">
+        <v>50</v>
+      </c>
+      <c r="B48">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="49" spans="1:2">
+      <c r="A49" t="s">
+        <v>39</v>
+      </c>
+      <c r="B49">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="50" spans="1:2">
+      <c r="A50" t="s">
+        <v>33</v>
+      </c>
+      <c r="B50">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="51" spans="1:2">
+      <c r="A51" t="s">
+        <v>44</v>
+      </c>
+      <c r="B51">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="52" spans="1:2">
+      <c r="A52" t="s">
+        <v>66</v>
+      </c>
+      <c r="B52">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="53" spans="1:2">
+      <c r="A53" t="s">
+        <v>36</v>
+      </c>
+      <c r="B53">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="54" spans="1:2">
+      <c r="A54" t="s">
+        <v>59</v>
+      </c>
+      <c r="B54">
+        <v>51</v>
       </c>
     </row>
   </sheetData>
@@ -3817,100 +4770,639 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CBDB54CC-A3E3-4D0D-BE00-BC95561308CD}">
-  <dimension ref="A1:A16"/>
+  <dimension ref="A1:D52"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D16" sqref="D16"/>
+      <selection activeCell="C30" sqref="C30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
   <cols>
-    <col min="1" max="1" width="32.25" customWidth="1"/>
+    <col min="1" max="1" width="16.875" customWidth="1"/>
+    <col min="2" max="2" width="23.125" customWidth="1"/>
+    <col min="3" max="3" width="13" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="15.75" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1">
-      <c r="A1" s="2" t="s">
+    <row r="1" spans="1:4">
+      <c r="A1" t="s">
+        <v>420</v>
+      </c>
+      <c r="B1" t="s">
         <v>118</v>
       </c>
-    </row>
-    <row r="2" spans="1:1">
-      <c r="A2" t="s">
+      <c r="C1" t="s">
+        <v>116</v>
+      </c>
+      <c r="D1" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s">
+        <v>419</v>
+      </c>
+      <c r="C2" s="9">
+        <v>44287</v>
+      </c>
+      <c r="D2" s="9">
+        <v>44347</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3" t="s">
+        <v>422</v>
+      </c>
+      <c r="C3" s="9">
+        <v>44287</v>
+      </c>
+      <c r="D3" s="9">
+        <v>44408</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4" t="s">
+        <v>415</v>
+      </c>
+      <c r="C4" s="9">
+        <v>44348</v>
+      </c>
+      <c r="D4" s="9">
+        <v>44387</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4">
+      <c r="A5">
+        <v>4</v>
+      </c>
+      <c r="B5" t="s">
+        <v>423</v>
+      </c>
+      <c r="C5" s="9">
+        <v>44317</v>
+      </c>
+      <c r="D5" s="9">
+        <v>44392</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4">
+      <c r="A6">
+        <v>5</v>
+      </c>
+      <c r="B6" t="s">
+        <v>424</v>
+      </c>
+      <c r="C6" s="9">
+        <v>44348</v>
+      </c>
+      <c r="D6" s="9">
+        <v>44469</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4">
+      <c r="A7">
+        <v>6</v>
+      </c>
+      <c r="B7" t="s">
         <v>413</v>
       </c>
-    </row>
-    <row r="3" spans="1:1">
-      <c r="A3" t="s">
+      <c r="C7" s="9">
+        <v>44378</v>
+      </c>
+      <c r="D7" s="9">
+        <v>44439</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4">
+      <c r="A8">
+        <v>7</v>
+      </c>
+      <c r="B8" t="s">
+        <v>417</v>
+      </c>
+      <c r="C8" s="9">
+        <v>44348</v>
+      </c>
+      <c r="D8" s="9">
+        <v>44469</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4">
+      <c r="A9">
+        <v>8</v>
+      </c>
+      <c r="B9" t="s">
+        <v>418</v>
+      </c>
+      <c r="C9" s="9">
+        <v>44308</v>
+      </c>
+      <c r="D9" s="9">
+        <v>44418</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4">
+      <c r="A10">
+        <v>9</v>
+      </c>
+      <c r="B10" t="s">
+        <v>425</v>
+      </c>
+      <c r="C10" s="9">
+        <v>44348</v>
+      </c>
+      <c r="D10" s="9">
+        <v>44439</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4">
+      <c r="A11">
+        <v>10</v>
+      </c>
+      <c r="B11" t="s">
         <v>414</v>
       </c>
-    </row>
-    <row r="4" spans="1:1">
-      <c r="A4" t="s">
-        <v>415</v>
-      </c>
-    </row>
-    <row r="5" spans="1:1">
-      <c r="A5" t="s">
+      <c r="C11" s="9">
+        <v>44440</v>
+      </c>
+      <c r="D11" s="9">
+        <v>44530</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4">
+      <c r="A12">
+        <v>11</v>
+      </c>
+      <c r="B12" t="s">
+        <v>414</v>
+      </c>
+      <c r="C12" s="9">
+        <v>44470</v>
+      </c>
+      <c r="D12" s="9">
+        <v>44561</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4">
+      <c r="A13">
+        <v>12</v>
+      </c>
+      <c r="B13" t="s">
         <v>416</v>
       </c>
-    </row>
-    <row r="6" spans="1:1">
-      <c r="A6" t="s">
-        <v>417</v>
-      </c>
-    </row>
-    <row r="7" spans="1:1">
-      <c r="A7" t="s">
-        <v>418</v>
-      </c>
-    </row>
-    <row r="8" spans="1:1">
-      <c r="A8" t="s">
-        <v>419</v>
-      </c>
-    </row>
-    <row r="9" spans="1:1">
-      <c r="A9" t="s">
-        <v>414</v>
-      </c>
-    </row>
-    <row r="10" spans="1:1">
-      <c r="A10" t="s">
-        <v>420</v>
-      </c>
-    </row>
-    <row r="11" spans="1:1">
-      <c r="A11" t="s">
-        <v>421</v>
-      </c>
-    </row>
-    <row r="12" spans="1:1">
-      <c r="A12" t="s">
-        <v>422</v>
-      </c>
-    </row>
-    <row r="13" spans="1:1">
-      <c r="A13" t="s">
-        <v>423</v>
-      </c>
-    </row>
-    <row r="14" spans="1:1">
-      <c r="A14" t="s">
-        <v>424</v>
-      </c>
-    </row>
-    <row r="15" spans="1:1">
-      <c r="A15" t="s">
-        <v>425</v>
-      </c>
-    </row>
-    <row r="16" spans="1:1">
-      <c r="A16" t="s">
-        <v>426</v>
+      <c r="C13" s="9">
+        <v>44378</v>
+      </c>
+      <c r="D13" s="9">
+        <v>44469</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4">
+      <c r="A14">
+        <v>13</v>
+      </c>
+      <c r="C14" s="9">
+        <v>44256</v>
+      </c>
+      <c r="D14" s="9">
+        <v>44377</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4">
+      <c r="A15">
+        <v>14</v>
+      </c>
+      <c r="C15" s="9">
+        <v>44378</v>
+      </c>
+      <c r="D15" s="9">
+        <v>44408</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4">
+      <c r="A16">
+        <v>15</v>
+      </c>
+      <c r="C16" s="9">
+        <v>44317</v>
+      </c>
+      <c r="D16" s="9">
+        <v>44347</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4">
+      <c r="A17">
+        <v>16</v>
+      </c>
+      <c r="C17" s="9">
+        <v>44317</v>
+      </c>
+      <c r="D17" s="9">
+        <v>44408</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4">
+      <c r="A18">
+        <v>17</v>
+      </c>
+      <c r="C18" s="9">
+        <v>44501</v>
+      </c>
+      <c r="D18" s="9">
+        <v>44592</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4">
+      <c r="A19">
+        <v>18</v>
+      </c>
+      <c r="C19" s="9">
+        <v>44378</v>
+      </c>
+      <c r="D19" s="9">
+        <v>44439</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4">
+      <c r="A20">
+        <v>19</v>
+      </c>
+      <c r="C20" s="9">
+        <v>44287</v>
+      </c>
+      <c r="D20" s="9">
+        <v>44377</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4">
+      <c r="A21">
+        <v>20</v>
+      </c>
+      <c r="C21" s="9">
+        <v>44317</v>
+      </c>
+      <c r="D21" s="9">
+        <v>44408</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4">
+      <c r="A22">
+        <v>21</v>
+      </c>
+      <c r="C22" s="9">
+        <v>44368</v>
+      </c>
+      <c r="D22" s="9">
+        <v>44428</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4">
+      <c r="A23">
+        <v>22</v>
+      </c>
+      <c r="C23" s="9">
+        <v>44348</v>
+      </c>
+      <c r="D23" s="9">
+        <v>44377</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4">
+      <c r="A24">
+        <v>23</v>
+      </c>
+      <c r="C24" s="9">
+        <v>44378</v>
+      </c>
+      <c r="D24" s="9">
+        <v>44439</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4">
+      <c r="A25">
+        <v>24</v>
+      </c>
+      <c r="C25" s="9">
+        <v>44348</v>
+      </c>
+      <c r="D25" s="9">
+        <v>44530</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4">
+      <c r="A26">
+        <v>25</v>
+      </c>
+      <c r="C26" s="9">
+        <v>44212</v>
+      </c>
+      <c r="D26" s="9">
+        <v>44242</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4">
+      <c r="A27">
+        <v>26</v>
+      </c>
+      <c r="C27" s="9">
+        <v>44317</v>
+      </c>
+      <c r="D27" s="9">
+        <v>44377</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4">
+      <c r="A28">
+        <v>27</v>
+      </c>
+      <c r="C28" s="9">
+        <v>44317</v>
+      </c>
+      <c r="D28" s="9">
+        <v>44408</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4">
+      <c r="A29">
+        <v>28</v>
+      </c>
+      <c r="C29" s="9">
+        <v>44470</v>
+      </c>
+      <c r="D29" s="9">
+        <v>44681</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4">
+      <c r="A30">
+        <v>29</v>
+      </c>
+      <c r="C30" s="9">
+        <v>44409</v>
+      </c>
+      <c r="D30" s="9">
+        <v>44469</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4">
+      <c r="A31">
+        <v>30</v>
+      </c>
+      <c r="C31" s="9">
+        <v>44317</v>
+      </c>
+      <c r="D31" s="9">
+        <v>44408</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4">
+      <c r="A32">
+        <v>31</v>
+      </c>
+      <c r="C32" s="9">
+        <v>44197</v>
+      </c>
+      <c r="D32" s="9">
+        <v>44561</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4">
+      <c r="A33">
+        <v>32</v>
+      </c>
+      <c r="C33" s="9">
+        <v>44531</v>
+      </c>
+      <c r="D33" s="9">
+        <v>44592</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4">
+      <c r="A34">
+        <v>33</v>
+      </c>
+      <c r="C34" s="9">
+        <v>44378</v>
+      </c>
+      <c r="D34" s="9">
+        <v>44428</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4">
+      <c r="A35">
+        <v>34</v>
+      </c>
+      <c r="C35" s="9">
+        <v>44387</v>
+      </c>
+      <c r="D35" s="9">
+        <v>44433</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4">
+      <c r="A36">
+        <v>35</v>
+      </c>
+      <c r="C36" s="9">
+        <v>44287</v>
+      </c>
+      <c r="D36" s="9">
+        <v>44347</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4">
+      <c r="A37">
+        <v>36</v>
+      </c>
+      <c r="C37" s="9">
+        <v>44317</v>
+      </c>
+      <c r="D37" s="9">
+        <v>44347</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4">
+      <c r="A38">
+        <v>37</v>
+      </c>
+      <c r="C38" s="9">
+        <v>44363</v>
+      </c>
+      <c r="D38" s="9">
+        <v>44469</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4">
+      <c r="A39">
+        <v>38</v>
+      </c>
+      <c r="C39" s="9">
+        <v>44470</v>
+      </c>
+      <c r="D39" s="9">
+        <v>44530</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4">
+      <c r="A40">
+        <v>39</v>
+      </c>
+      <c r="C40" s="9">
+        <v>44378</v>
+      </c>
+      <c r="D40" s="9">
+        <v>44439</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4">
+      <c r="A41">
+        <v>40</v>
+      </c>
+      <c r="C41" s="9">
+        <v>44398</v>
+      </c>
+      <c r="D41" s="9">
+        <v>44428</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4">
+      <c r="A42">
+        <v>41</v>
+      </c>
+      <c r="C42" s="9">
+        <v>44501</v>
+      </c>
+      <c r="D42" s="9">
+        <v>44681</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4">
+      <c r="A43">
+        <v>42</v>
+      </c>
+      <c r="C43" s="9">
+        <v>44440</v>
+      </c>
+      <c r="D43" s="9">
+        <v>44500</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4">
+      <c r="A44">
+        <v>43</v>
+      </c>
+      <c r="C44" s="9">
+        <v>44327</v>
+      </c>
+      <c r="D44" s="9">
+        <v>44439</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4">
+      <c r="A45">
+        <v>44</v>
+      </c>
+      <c r="C45" s="9">
+        <v>44501</v>
+      </c>
+      <c r="D45" s="9">
+        <v>44561</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4">
+      <c r="A46">
+        <v>45</v>
+      </c>
+      <c r="C46" s="9">
+        <v>44332</v>
+      </c>
+      <c r="D46" s="9">
+        <v>44377</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4">
+      <c r="A47">
+        <v>46</v>
+      </c>
+      <c r="C47" s="9">
+        <v>44378</v>
+      </c>
+      <c r="D47" s="9">
+        <v>44408</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4">
+      <c r="A48">
+        <v>47</v>
+      </c>
+      <c r="C48" s="9">
+        <v>44348</v>
+      </c>
+      <c r="D48" s="9">
+        <v>44392</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4">
+      <c r="A49">
+        <v>48</v>
+      </c>
+      <c r="C49" s="9">
+        <v>44378</v>
+      </c>
+      <c r="D49" s="9">
+        <v>44439</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4">
+      <c r="A50">
+        <v>49</v>
+      </c>
+      <c r="C50" s="9">
+        <v>44470</v>
+      </c>
+      <c r="D50" s="9">
+        <v>44592</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4">
+      <c r="A51">
+        <v>50</v>
+      </c>
+      <c r="C51" s="9">
+        <v>44348</v>
+      </c>
+      <c r="D51" s="9">
+        <v>44439</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4">
+      <c r="A52">
+        <v>51</v>
+      </c>
+      <c r="C52" s="9">
+        <v>44378</v>
+      </c>
+      <c r="D52" s="9">
+        <v>44408</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1" xr:uid="{BF0754D3-30DE-4793-A20B-CC4314693ABE}"/>
+  <autoFilter ref="A1:D1" xr:uid="{3463DB9B-6903-4E79-9CE6-C184CC4039B2}">
+    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:D1048576">
+      <sortCondition ref="A1"/>
+    </sortState>
+  </autoFilter>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>